--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -5,28 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61F8FE8-1CB3-4881-851A-0D81324AD972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15019FF8-4902-4F16-BE4D-33FA2BC777E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="5" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
   <sheets>
     <sheet name="servicios_cult_soc_dep_rec_isss" sheetId="1" r:id="rId1"/>
     <sheet name="Servios deportivos por año" sheetId="2" r:id="rId2"/>
     <sheet name="Comp entre cul vs dep vs soc" sheetId="3" r:id="rId3"/>
     <sheet name="Ranking de delegaciones" sheetId="4" r:id="rId4"/>
+    <sheet name="Ranking de Servicios" sheetId="6" r:id="rId5"/>
+    <sheet name="KPI's" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="85">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -263,6 +267,24 @@
   </si>
   <si>
     <t>Ranking de oficinas de representación</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Suma de Suma de todos los Servicios</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nombre Servicio</t>
+  </si>
+  <si>
+    <t>Total de cada servicio</t>
+  </si>
+  <si>
+    <t>Suma de Total de cada servicio</t>
   </si>
 </sst>
 </file>
@@ -818,7 +840,13 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -879,7 +907,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Servios deportivos por año!ServiciosDeportivosPorAño</c:name>
+    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Servios deportivos por año!ServiciosDeportivosPorAño</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -918,6 +946,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -984,6 +1015,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1050,6 +1084,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1116,6 +1153,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1182,6 +1222,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1248,6 +1291,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1314,6 +1360,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1380,6 +1429,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1446,6 +1498,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1512,6 +1567,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1578,6 +1636,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1644,6 +1705,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1710,6 +1774,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1776,6 +1843,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1842,6 +1912,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1908,6 +1981,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1974,6 +2050,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2040,6 +2119,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2106,6 +2188,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2172,6 +2257,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2238,6 +2326,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2304,6 +2395,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2370,6 +2464,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2436,6 +2533,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2502,6 +2602,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2568,6 +2671,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2634,6 +2740,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2700,6 +2809,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2766,6 +2878,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2832,6 +2947,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2898,6 +3016,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2964,6 +3085,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3030,6 +3154,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3096,6 +3223,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3162,6 +3292,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3228,6 +3361,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3294,6 +3430,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3360,6 +3499,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3426,6 +3568,9 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3492,6 +3637,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3558,6 +3706,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3624,6 +3775,9 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3690,6 +3844,9 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3756,6 +3913,9 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3822,6 +3982,9 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3888,6 +4051,9 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3954,6 +4120,9 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4020,6 +4189,9 @@
       <c:pivotFmt>
         <c:idx val="47"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4086,6 +4258,9 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4593,7 +4768,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Comp entre cul vs dep vs soc!ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales</c:name>
+    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Comp entre cul vs dep vs soc!ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5066,38 +5241,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6230,7 +6373,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Ranking de delegaciones!RankingDeDelegaciones</c:name>
+    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Ranking de delegaciones!RankingDeDelegaciones</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -6297,9 +6440,115 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="80000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6342,6 +6591,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6356,6 +6610,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6370,6 +6629,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6386,6 +6650,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6402,6 +6671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6418,6 +6692,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -6435,6 +6714,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -6452,6 +6736,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -6469,6 +6758,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6A5F-4888-AF57-DC71DDD60C90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -9171,6 +9465,1378 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo: esquinas redondeadas 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1455E126-35E3-64B0-74EF-9539C250CDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546860" y="304800"/>
+          <a:ext cx="4091940" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA9D155-B202-BE03-C121-3275AB0BBA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607820" y="419100"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Delegación con más servicios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo: esquinas redondeadas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472A16AD-55BB-45DA-B3A6-1E291DE2AB5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577340" y="1950720"/>
+          <a:ext cx="4091940" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC9A43E-8C39-4160-91BE-E1BC51F6A885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2065020"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Delegación con menos servicios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!E34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681F35E1-A3F3-41BB-85EA-CE8349ED9BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="2430780"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DD357D03-2B5F-443E-87A0-7A65FB514219}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>55249</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo: esquinas redondeadas 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99702E67-9B5D-4EC1-ACBD-98618394CDBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6347460" y="266700"/>
+          <a:ext cx="4091940" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC6A63D-09D9-4DDC-8482-A90863D715CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6408420" y="381000"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Servicio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> más solicitado</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1800" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo: esquinas redondeadas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC0248D-EB84-4C8B-85BD-ABCA7218BE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="1897380"/>
+          <a:ext cx="4091940" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CuadroTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C36264-CCDF-4096-B3CD-236649DDDB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6347460" y="2011680"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> de servicios</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1800" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!E16">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CuadroTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680396CA-F071-40FB-A229-3E21C5E9ED9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7254240" y="2369820"/>
+          <a:ext cx="2103120" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{73561CD5-4F8D-4C7E-B681-88707DD3FB18}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>56915689</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1800" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!D34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CuadroTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218B5F3B-AF3B-4B0A-899D-9E0BF4329C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623060" y="2430780"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{17289592-5ED0-463A-8B4B-5C77C9640804}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Regional Oriente</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!B28">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CuadroTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0618113B-8F2D-4DE1-B08E-EC156AA89D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="769620"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{50E00774-0124-44E7-BA7E-4D5884A39B98}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>12806883</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!A28">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CuadroTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77278733-4FDC-4438-88ED-B9510EAF48FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="769620"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{602BAB72-648C-40A5-8F51-EC6F8C7E9110}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Oficinas Centrales</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!E8">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5DACA7-4763-422B-A40A-08AD48FAA136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587740" y="731520"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{FF2905A7-DF8B-43B9-9F6F-A1049135B0A5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>36375442</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!D8">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1913509C-FE01-4796-8E19-5C453600F5ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6416040" y="731520"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{606645CA-79C5-4D31-B82D-489E6831CDAC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Serv. Culturales Derecho Hab Publ</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D088F506-F6BE-ABE0-2CA3-FF5C384A37AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8214360" y="800100"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CuadroTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C074E2-799A-4044-AA88-C4E3A7151771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3383280" y="815340"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC9B4B8-B026-4F57-904A-9A3BB13F899B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2491740"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Said Mariano" refreshedDate="45980.47015335648" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{45697F6F-B6C1-4FB2-A6B4-D0194C73A538}">
   <cacheSource type="worksheet">
@@ -11430,6 +13096,36 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Said Mariano" refreshedDate="45982.533347337965" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{71A40FA1-9934-4051-840D-BF1E7AA9F939}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Nombre Servicio" numFmtId="1">
+      <sharedItems count="8">
+        <s v="Serv. Culturales Derecho Hab Publ"/>
+        <s v="Serv. Deportivos Derecho Hab Publ"/>
+        <s v="Serv. Sociales Derecho Hab Publ"/>
+        <s v="Serv. Funerarios Derecho Hab Publ"/>
+        <s v="Serv. Sociales Pensionados Jubl"/>
+        <s v="Fome Deportivo Pensionados Jubl"/>
+        <s v="Serv. Culturales Pensionados Jubl"/>
+        <s v="Soci Comedores Pensionados Jubl"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total de cada servicio" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="322484" maxValue="36375442"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="494">
   <r>
@@ -18351,8 +20047,45 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <n v="36375442"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="11512451"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="661401"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="322484"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2175717"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1962313"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3250887"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="654994"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:B21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -19108,7 +20841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -19320,7 +21053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -21601,7 +23334,7 @@
   <dataFields count="1">
     <dataField name="Suma de todos los Servicios " fld="11" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="11">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -21619,6 +23352,114 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="36"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -21645,6 +23486,336 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A33:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="50">
+        <item x="0"/>
+        <item x="38"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="37"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="35"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="50">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Suma de todos los Servicios" fld="11" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A7:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total de cada servicio" fld="1" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01004CAF-B0EE-4A4F-99F5-2C4E7F69B1DF}" name="Tabla1" displayName="Tabla1" ref="A1:L495" totalsRowShown="0">
   <autoFilter ref="A1:L495" xr:uid="{01004CAF-B0EE-4A4F-99F5-2C4E7F69B1DF}"/>
@@ -21652,20 +23823,31 @@
     <sortCondition descending="1" ref="L1:L495"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{6015B546-CCE8-49F7-AD82-A56721BEB06D}" name="Oficina Representación"/>
-    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{859920B6-B83D-4724-917B-E5C66D0C0364}" name="Suma de todos los Servicios" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{859920B6-B83D-4724-917B-E5C66D0C0364}" name="Suma de todos los Servicios" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabla1[[#This Row],[Serv. Culturales Derecho Hab Publ]:[Soci Comedores Pensionados Jubl]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{943BA7B8-89FD-4590-985A-D669DB928326}" name="Tabla3" displayName="Tabla3" ref="B505:C513" totalsRowShown="0">
+  <autoFilter ref="B505:C513" xr:uid="{943BA7B8-89FD-4590-985A-D669DB928326}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{52308A83-3E58-4597-85E5-390E9550E560}" name="Nombre Servicio" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DDDD0592-6492-4A2A-BC52-9B55A82E2E0F}" name="Total de cada servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21968,10 +24150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F449743-C6BA-4379-8C03-655115C7A180}">
-  <dimension ref="A1:L495"/>
+  <dimension ref="A1:L513"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41294,10 +43476,180 @@
         <v>0</v>
       </c>
     </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F496" s="2"/>
+      <c r="J496" s="2"/>
+      <c r="L496" s="2"/>
+    </row>
+    <row r="497" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F497" s="2"/>
+      <c r="J497" s="2"/>
+      <c r="L497" s="2"/>
+    </row>
+    <row r="498" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Culturales Derecho Hab Publ]]</f>
+        <v>Serv. Culturales Derecho Hab Publ</v>
+      </c>
+      <c r="D498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Deportivos Derecho Hab Publ]]</f>
+        <v>Serv. Deportivos Derecho Hab Publ</v>
+      </c>
+      <c r="E498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Sociales Derecho Hab Publ]]</f>
+        <v>Serv. Sociales Derecho Hab Publ</v>
+      </c>
+      <c r="F498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Funerarios Derecho Hab Publ]]</f>
+        <v>Serv. Funerarios Derecho Hab Publ</v>
+      </c>
+      <c r="G498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Sociales Pensionados Jubl]]</f>
+        <v>Serv. Sociales Pensionados Jubl</v>
+      </c>
+      <c r="H498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Fome Deportivo Pensionados Jubl]]</f>
+        <v>Fome Deportivo Pensionados Jubl</v>
+      </c>
+      <c r="I498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Culturales Pensionados Jubl]]</f>
+        <v>Serv. Culturales Pensionados Jubl</v>
+      </c>
+      <c r="J498" s="2" t="str">
+        <f>Tabla1[[#Headers],[Soci Comedores Pensionados Jubl]]</f>
+        <v>Soci Comedores Pensionados Jubl</v>
+      </c>
+    </row>
+    <row r="499" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>81</v>
+      </c>
+      <c r="C499" s="2">
+        <f>SUM(Tabla1[Serv. Culturales Derecho Hab Publ])</f>
+        <v>36375442</v>
+      </c>
+      <c r="D499" s="2">
+        <f>SUM(Tabla1[Serv. Deportivos Derecho Hab Publ])</f>
+        <v>11512451</v>
+      </c>
+      <c r="E499" s="2">
+        <f>SUM(Tabla1[Serv. Sociales Derecho Hab Publ])</f>
+        <v>661401</v>
+      </c>
+      <c r="F499" s="2">
+        <f>SUM(Tabla1[Serv. Funerarios Derecho Hab Publ])</f>
+        <v>322484</v>
+      </c>
+      <c r="G499" s="2">
+        <f>SUM(Tabla1[Serv. Sociales Pensionados Jubl])</f>
+        <v>2175717</v>
+      </c>
+      <c r="H499" s="2">
+        <f>SUM(Tabla1[Fome Deportivo Pensionados Jubl])</f>
+        <v>1962313</v>
+      </c>
+      <c r="I499" s="2">
+        <f>SUM(Tabla1[Serv. Culturales Pensionados Jubl])</f>
+        <v>3250887</v>
+      </c>
+      <c r="J499" s="2">
+        <f>SUM(Tabla1[Soci Comedores Pensionados Jubl])</f>
+        <v>654994</v>
+      </c>
+    </row>
+    <row r="505" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B505" t="s">
+        <v>82</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="506" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B506" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Culturales Derecho Hab Publ]]</f>
+        <v>Serv. Culturales Derecho Hab Publ</v>
+      </c>
+      <c r="C506" s="2">
+        <f>SUM(Tabla1[Serv. Culturales Derecho Hab Publ])</f>
+        <v>36375442</v>
+      </c>
+    </row>
+    <row r="507" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B507" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Deportivos Derecho Hab Publ]]</f>
+        <v>Serv. Deportivos Derecho Hab Publ</v>
+      </c>
+      <c r="C507" s="2">
+        <f>SUM(Tabla1[Serv. Deportivos Derecho Hab Publ])</f>
+        <v>11512451</v>
+      </c>
+    </row>
+    <row r="508" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B508" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Sociales Derecho Hab Publ]]</f>
+        <v>Serv. Sociales Derecho Hab Publ</v>
+      </c>
+      <c r="C508" s="2">
+        <f>SUM(Tabla1[Serv. Sociales Derecho Hab Publ])</f>
+        <v>661401</v>
+      </c>
+    </row>
+    <row r="509" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B509" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Funerarios Derecho Hab Publ]]</f>
+        <v>Serv. Funerarios Derecho Hab Publ</v>
+      </c>
+      <c r="C509" s="2">
+        <f>SUM(Tabla1[Serv. Funerarios Derecho Hab Publ])</f>
+        <v>322484</v>
+      </c>
+    </row>
+    <row r="510" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B510" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Sociales Pensionados Jubl]]</f>
+        <v>Serv. Sociales Pensionados Jubl</v>
+      </c>
+      <c r="C510" s="2">
+        <f>SUM(Tabla1[Serv. Sociales Pensionados Jubl])</f>
+        <v>2175717</v>
+      </c>
+    </row>
+    <row r="511" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B511" s="2" t="str">
+        <f>Tabla1[[#Headers],[Fome Deportivo Pensionados Jubl]]</f>
+        <v>Fome Deportivo Pensionados Jubl</v>
+      </c>
+      <c r="C511" s="2">
+        <f>SUM(Tabla1[Fome Deportivo Pensionados Jubl])</f>
+        <v>1962313</v>
+      </c>
+    </row>
+    <row r="512" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B512" s="2" t="str">
+        <f>Tabla1[[#Headers],[Serv. Culturales Pensionados Jubl]]</f>
+        <v>Serv. Culturales Pensionados Jubl</v>
+      </c>
+      <c r="C512" s="2">
+        <f>SUM(Tabla1[Serv. Culturales Pensionados Jubl])</f>
+        <v>3250887</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B513" s="2" t="str">
+        <f>Tabla1[[#Headers],[Soci Comedores Pensionados Jubl]]</f>
+        <v>Soci Comedores Pensionados Jubl</v>
+      </c>
+      <c r="C513" s="2">
+        <f>SUM(Tabla1[Soci Comedores Pensionados Jubl])</f>
+        <v>654994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -41306,7 +43658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56573DCE-1102-4670-B2C5-59B84C64109B}">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -41624,16 +43976,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803E057B-2FFD-452E-9801-D0EF6EE0D059}">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -42197,12 +44549,564 @@
         <v>29655916</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>A19</f>
+        <v>Oficinas Centrales</v>
+      </c>
+      <c r="B28">
+        <f>GETPIVOTDATA("Suma de todos los Servicios",$A$9,"Oficina Representación","Oficinas Centrales")</f>
+        <v>12806883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2">
+        <v>55249</v>
+      </c>
+      <c r="D34" t="str">
+        <f>A34</f>
+        <v>Regional Oriente</v>
+      </c>
+      <c r="E34">
+        <f>GETPIVOTDATA("Suma de todos los Servicios",$A$33,"Oficina Representación","Regional Oriente")</f>
+        <v>55249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>110312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>139866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>172802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2">
+        <v>236848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2">
+        <v>330258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2">
+        <v>367601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>379617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>388326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>454525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>464037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2">
+        <v>514526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>541003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="2">
+        <v>604570</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2">
+        <v>624538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2">
+        <v>630996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>705652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>721599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2">
+        <v>749396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2">
+        <v>792076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="2">
+        <v>806518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>833184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2">
+        <v>858610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2">
+        <v>888123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>904262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>908129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="2">
+        <v>918381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>937351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="2">
+        <v>944130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>960342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="2">
+        <v>991542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2">
+        <v>993249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="2">
+        <v>993584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>996808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1004872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1009606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1061964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1118233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1147088</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1151362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1329318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1396246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1544155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1700361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1853200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2141268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2824608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2908515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12806883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="2">
+        <v>56915689</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F6:J7"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFD455-FE5D-4DB9-B672-24C684C812DC}">
+  <dimension ref="A7:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36375442</v>
+      </c>
+      <c r="D8" t="str">
+        <f>A8</f>
+        <v>Serv. Culturales Derecho Hab Publ</v>
+      </c>
+      <c r="E8">
+        <f>GETPIVOTDATA("Total de cada servicio",$A$7,"Nombre Servicio","Serv. Culturales Derecho Hab Publ")</f>
+        <v>36375442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11512451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3250887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2175717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1962313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>661401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>654994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>322484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>56915689</v>
+      </c>
+      <c r="E16">
+        <f>GETPIVOTDATA("Total de cada servicio",$A$7)</f>
+        <v>56915689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E4A35B-1DEE-4E63-B176-45BEFEC88566}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15019FF8-4902-4F16-BE4D-33FA2BC777E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5303E-6425-40A1-B50A-679E2410A70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="5" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -22,10 +22,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -907,7 +906,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Servios deportivos por año!ServiciosDeportivosPorAño</c:name>
+    <c:name>[Dashboard.xlsx]Servios deportivos por año!ServiciosDeportivosPorAño</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4768,7 +4767,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Comp entre cul vs dep vs soc!ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales</c:name>
+    <c:name>[Dashboard.xlsx]Comp entre cul vs dep vs soc!ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6373,7 +6372,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard(Recuperado automáticamente).xlsx]Ranking de delegaciones!RankingDeDelegaciones</c:name>
+    <c:name>[Dashboard.xlsx]Ranking de delegaciones!RankingDeDelegaciones</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -7070,6 +7069,436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Ranking de Servicios!TablaDinámica1</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking de Servicios'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="90000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ranking de Servicios'!$A$8:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Serv. Culturales Derecho Hab Publ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serv. Deportivos Derecho Hab Publ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Serv. Culturales Pensionados Jubl</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Serv. Sociales Pensionados Jubl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fome Deportivo Pensionados Jubl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Serv. Sociales Derecho Hab Publ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Soci Comedores Pensionados Jubl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Serv. Funerarios Derecho Hab Publ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking de Servicios'!$B$8:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36375442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11512451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2175717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1962313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>661401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>654994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-685C-4B01-8954-9AA576FB6BF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7155,6 +7584,46 @@
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8700,6 +9169,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9469,6 +10457,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2415540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D90A1A-D24F-D04B-3C4B-2BAD344D5832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>754380</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -10183,6 +11212,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>56915689</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="1800" b="1">
@@ -10517,6 +11547,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>36375442</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="1400" b="1">
@@ -10600,6 +11631,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Serv. Culturales Derecho Hab Publ</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="1400" b="1">
@@ -20085,7 +21117,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:B21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -20841,7 +21873,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -21053,7 +22085,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -23487,7 +24519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A33:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -23739,7 +24771,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A7:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -23804,6 +24836,26 @@
   <dataFields count="1">
     <dataField name="Suma de Total de cada servicio" fld="1" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -24153,7 +25205,7 @@
   <dimension ref="A1:L513"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="B508" sqref="B508"/>
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43875,7 +44927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB971FC3-37E4-4473-BE72-831CFD6103DC}">
   <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -44989,14 +46041,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFD455-FE5D-4DB9-B672-24C684C812DC}">
   <dimension ref="A7:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="36" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="36" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="36" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="36" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="36" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="36" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="36" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="36" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="36" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="36" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="36" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="36" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="36" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="36" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="176" max="177" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="36" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="184" max="185" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="36" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="36" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="200" max="201" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="36" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="208" max="209" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="36" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="216" max="217" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="36" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="224" max="225" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="36" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="232" max="233" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="36" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="240" max="241" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="36" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="36" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="36" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="36" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="272" max="273" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="36" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="36" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="288" max="289" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="36" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="296" max="297" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="36" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="304" max="305" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="36" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="312" max="313" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="36" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="320" max="321" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="36" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="328" max="329" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="36" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="336" max="337" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="36" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="344" max="345" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="36" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="352" max="353" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="36" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="360" max="361" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="36" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="368" max="369" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="36" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="376" max="377" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="36" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="384" max="385" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="36" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="392" max="393" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="43" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="42" bestFit="1" customWidth="1"/>
+    <col min="400" max="401" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -45093,6 +46494,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -45101,7 +46503,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5303E-6425-40A1-B50A-679E2410A70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181634E4-9B94-47B4-93D1-4CAF0B1EF0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="5" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
   <sheets>
     <sheet name="servicios_cult_soc_dep_rec_isss" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Ranking de delegaciones" sheetId="4" r:id="rId4"/>
     <sheet name="Ranking de Servicios" sheetId="6" r:id="rId5"/>
     <sheet name="KPI's" sheetId="5" r:id="rId6"/>
+    <sheet name="Dasboard" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11869,6 +11870,371 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB95077-019B-776F-4808-5F5AE9CB3788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19050"/>
+          <a:ext cx="20935950" cy="902759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919ED6F-68FC-214C-1580-AD7158119916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="1074210"/>
+          <a:ext cx="14373224" cy="2542116"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo: esquinas redondeadas 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CD1729-C996-D9F3-B9D8-D8EFE98BE8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1151467"/>
+          <a:ext cx="2396066" cy="5765800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>629708</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275168</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo: esquinas redondeadas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D368C1-7846-44F6-A10E-4FAAAC7608BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3001433" y="3780368"/>
+          <a:ext cx="4388910" cy="2847974"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>737659</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo: esquinas redondeadas 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1A988F-BACB-44D8-BA75-3E0FB626005D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7852834" y="3833284"/>
+          <a:ext cx="4367741" cy="2789766"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>688977</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo: esquinas redondeadas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E727AA-3279-4BFD-8C51-67F7F3A3D412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12900026" y="3760258"/>
+          <a:ext cx="4391026" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Said Mariano" refreshedDate="45980.47015335648" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="494" xr:uid="{45697F6F-B6C1-4FB2-A6B4-D0194C73A538}">
   <cacheSource type="worksheet">
@@ -24836,16 +25202,7 @@
   <dataFields count="1">
     <dataField name="Suma de Total de cada servicio" fld="1" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -46502,8 +46859,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E4A35B-1DEE-4E63-B176-45BEFEC88566}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2626B9-BEDB-407F-B6C7-68E4D543C3D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8623C3A-4845-4978-95C3-2465BCF851BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8CED6-4763-4400-A6F6-74B133071EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="2" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
@@ -7150,6 +7150,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7184,6 +7296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7199,6 +7316,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7214,6 +7336,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7229,6 +7356,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7244,6 +7376,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -7259,6 +7396,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -7276,6 +7418,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -7293,6 +7440,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F240-47C8-ACDE-536DB06B4568}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -23247,6 +23399,1206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5070F730-A388-FA3A-C892-B9D0C4DECA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121920" y="220980"/>
+          <a:ext cx="17297400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ISSSTE: Evaluación de Servicios Culturales, Deportivos y Sociales a Nivel Nacional (2013 - 2025)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CuadroTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB17011D-98B6-49DD-8403-A54240E3B2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107180" y="1028700"/>
+          <a:ext cx="2247900" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> de servicios</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1800" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!E16">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CuadroTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60A494A-2C76-4E7F-913F-44F36029D2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="1234440"/>
+          <a:ext cx="1310640" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{73561CD5-4F8D-4C7E-B681-88707DD3FB18}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>56915689</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1800" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F4D61A-C99E-46F7-93DB-6D7FA2BF4BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6979920" y="1013460"/>
+          <a:ext cx="3048000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Delegación con más servicios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!B28">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CuadroTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CE04F0-7C81-42F8-8CC6-C14EF35FA01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8751592" y="1219200"/>
+          <a:ext cx="1543028" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{50E00774-0124-44E7-BA7E-4D5884A39B98}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>12806883</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590836</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!A28">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CuadroTexto 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F3BE94-4320-4318-8306-014D35B353FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6930676" y="1211580"/>
+          <a:ext cx="1649444" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{602BAB72-648C-40A5-8F51-EC6F8C7E9110}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Oficinas Centrales</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>375802</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175259</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CuadroTexto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6571C-2D19-496C-81DB-73A7AA499C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8300602" y="1295400"/>
+          <a:ext cx="591937" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CuadroTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1BFC0D-52CB-4D8D-9C10-4E75CDD7F142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10317480" y="975360"/>
+          <a:ext cx="3025140" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Delegación con menos servicios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!E34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CuadroTexto 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01826767-4494-4D18-AA61-48681B6CB96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="1211580"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DD357D03-2B5F-443E-87A0-7A65FB514219}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>55249</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!D34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CuadroTexto 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84265A11-659A-42ED-ACF0-D1042A9CA41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9913620" y="1211580"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{17289592-5ED0-463A-8B4B-5C77C9640804}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Regional Oriente</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA25C03-34B7-4845-A16D-EB6F83A13937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11681460" y="1272540"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CuadroTexto 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C77B70-CE1B-4994-8EC1-A627F8DE3B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12938760" y="1043940"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Servicio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> más solicitado</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!E8">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CuadroTexto 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813A0E44-07CA-41A6-8397-EEC5038415B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15262860" y="1211580"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{FF2905A7-DF8B-43B9-9F6F-A1049135B0A5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>36375442</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!D8">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CuadroTexto 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13B6752-668A-46BC-8E89-C92FD129732B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13091160" y="1211580"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{606645CA-79C5-4D31-B82D-489E6831CDAC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Serv. Culturales Derecho Hab Publ</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CuadroTexto 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4338EF03-C5F9-4F0A-A888-F84177C1024A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14889480" y="1280160"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32498,7 +33850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:B21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -33263,7 +34615,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -33547,7 +34899,259 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A33:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="50">
+        <item x="0"/>
+        <item x="38"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="37"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="35"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="50">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Suma de todos los Servicios" fld="11" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -36109,258 +37713,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A33:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="50">
-        <item x="0"/>
-        <item x="38"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="44"/>
-        <item x="36"/>
-        <item x="45"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="46"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="37"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="35"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="41"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="50">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Suma de todos los Servicios" fld="11" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A7:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -36427,7 +37779,7 @@
   <dataFields count="1">
     <dataField name="Suma de Total de cada servicio" fld="1" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="18">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -36531,6 +37883,102 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="14" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -58190,7 +59638,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58205,7 +59653,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8CED6-4763-4400-A6F6-74B133071EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0C839-A91E-4C50-BC12-35A226CC5AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="2" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
   <sheets>
     <sheet name="servicios_cult_soc_dep_rec_isss" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,31 @@
     <sheet name="KPI's" sheetId="5" r:id="rId6"/>
     <sheet name="Dasboard" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_Año">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Oficina_Representación">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="19" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="86">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -286,6 +301,9 @@
   <si>
     <t>Suma de Total de cada servicio</t>
   </si>
+  <si>
+    <t>B19</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +452,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,8 +638,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -736,6 +760,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -781,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -795,6 +839,11 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,9 +995,6 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1015,9 +1061,6 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1084,9 +1127,6 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1153,9 +1193,6 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1222,9 +1259,6 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1291,9 +1325,6 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1360,9 +1391,6 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1429,9 +1457,6 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1498,9 +1523,6 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1567,9 +1589,6 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1636,9 +1655,6 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1705,9 +1721,6 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1774,9 +1787,6 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1843,9 +1853,6 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1912,9 +1919,6 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1981,9 +1985,6 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2050,9 +2051,6 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2119,9 +2117,6 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2188,9 +2183,6 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2257,9 +2249,6 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2326,9 +2315,6 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2395,9 +2381,6 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2464,9 +2447,6 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2533,9 +2513,6 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2602,9 +2579,6 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2671,9 +2645,6 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2740,9 +2711,6 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2809,9 +2777,6 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2878,9 +2843,6 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2947,9 +2909,6 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3016,9 +2975,6 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3085,9 +3041,6 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3154,9 +3107,6 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3223,9 +3173,6 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3292,9 +3239,6 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3361,9 +3305,6 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3430,9 +3371,6 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3499,9 +3437,6 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3568,9 +3503,6 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3637,9 +3569,6 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3706,9 +3635,6 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3775,9 +3701,6 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3844,9 +3767,6 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3913,9 +3833,6 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3982,9 +3899,6 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4051,9 +3965,6 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4120,9 +4031,6 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4189,9 +4097,6 @@
       <c:pivotFmt>
         <c:idx val="47"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4258,9 +4163,6 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -11282,6 +11184,1830 @@
               <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="74"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="75"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="76"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="81"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="82"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="83"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="84"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="85"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="86"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="87"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="88"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="89"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="90"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="91"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="92"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="93"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="94"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="95"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="96"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="97"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="98"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="99"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -24599,6 +26325,162 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="33" name="Oficina Representación">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7CAD81-0DF2-1227-9CE9-5D89E62756EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Oficina Representación"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="220980" y="1348740"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="34" name="Año">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D708B3C-99C3-B6BA-EABC-CDBF3F3DD109}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Año"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="274320" y="3931920"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26855,7 +28737,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="747248475"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -26885,7 +28767,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1319457102"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -33850,7 +35732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:B21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -33994,7 +35876,7 @@
   <dataFields count="1">
     <dataField name="Suma de Serv. Deportivos Derecho Hab Publ" fld="3" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="51">
+  <chartFormats count="99">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -34601,6 +36483,582 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="6" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="53" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="60" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="61" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="62" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="63" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="64" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="65" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="67" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="68" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="69" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="70" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="81" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="82" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="83" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="84" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="85" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="86" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="87" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="36"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="88" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="37"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="89" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="38"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="90" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="91" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="40"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="92" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="93" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="94" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="43"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="95" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="44"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="96" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="97" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="98" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="99" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -34615,10 +37073,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="50">
         <item h="1" x="0"/>
@@ -34899,7 +37374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6020FD5-92A0-48FE-8CAE-735B6AC6C5DD}" name="TablaDinámica1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A33:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0"/>
@@ -35151,10 +37626,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
       <items count="50">
         <item x="0"/>
@@ -37714,7 +40206,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2231237-FEAB-409D-B0B0-7D68E8795616}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A7:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -38001,6 +40493,105 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Oficina_Representación" xr10:uid="{AD63CEBF-F0BD-4A81-918C-8B57CD635B8C}" sourceName="Oficina Representación">
+  <pivotTables>
+    <pivotTable tabId="2" name="ServiciosDeportivosPorAño"/>
+    <pivotTable tabId="3" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="747248475">
+      <items count="49">
+        <i x="0"/>
+        <i x="38"/>
+        <i x="1"/>
+        <i x="39"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="4"/>
+        <i x="5"/>
+        <i x="44"/>
+        <i x="36"/>
+        <i x="45"/>
+        <i x="47"/>
+        <i x="48"/>
+        <i x="46"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11" s="1"/>
+        <i x="37"/>
+        <i x="12"/>
+        <i x="13"/>
+        <i x="14"/>
+        <i x="15"/>
+        <i x="16"/>
+        <i x="17"/>
+        <i x="18"/>
+        <i x="35"/>
+        <i x="19"/>
+        <i x="20"/>
+        <i x="21"/>
+        <i x="40"/>
+        <i x="42"/>
+        <i x="43"/>
+        <i x="41"/>
+        <i x="22"/>
+        <i x="23"/>
+        <i x="24"/>
+        <i x="31"/>
+        <i x="33"/>
+        <i x="34"/>
+        <i x="32"/>
+        <i x="25"/>
+        <i x="26"/>
+        <i x="27"/>
+        <i x="28"/>
+        <i x="29"/>
+        <i x="30"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Año" xr10:uid="{4B666C5E-0CC9-4F13-B857-91F1AD068EF3}" sourceName="Año">
+  <pivotTables>
+    <pivotTable tabId="4" name="RankingDeDelegaciones"/>
+    <pivotTable tabId="3" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="747248475">
+      <items count="13">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" startItem="13" rowHeight="234950"/>
+  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="6" rowHeight="234950"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38337,10 +40928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F449743-C6BA-4379-8C03-655115C7A180}">
-  <dimension ref="A1:L513"/>
+  <dimension ref="A1:SE538"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="D505" sqref="D505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38349,14 +40940,12 @@
     <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -57668,12 +60257,12 @@
       <c r="J496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:499" x14ac:dyDescent="0.3">
       <c r="F497" s="2"/>
       <c r="J497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:499" x14ac:dyDescent="0.3">
       <c r="C498" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Culturales Derecho Hab Publ]]</f>
         <v>Serv. Culturales Derecho Hab Publ</v>
@@ -57707,7 +60296,7 @@
         <v>Soci Comedores Pensionados Jubl</v>
       </c>
     </row>
-    <row r="499" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>81</v>
       </c>
@@ -57744,15 +60333,510 @@
         <v>654994</v>
       </c>
     </row>
-    <row r="505" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
         <v>82</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E505" s="8"/>
+      <c r="F505" s="9"/>
+      <c r="G505" s="10"/>
+      <c r="H505" s="9"/>
+      <c r="I505" s="10"/>
+      <c r="J505" s="9"/>
+      <c r="K505" s="10"/>
+      <c r="L505" s="9"/>
+      <c r="M505" s="10"/>
+      <c r="N505" s="9"/>
+      <c r="O505" s="10"/>
+      <c r="P505" s="9"/>
+      <c r="Q505" s="10"/>
+      <c r="R505" s="9"/>
+      <c r="S505" s="10"/>
+      <c r="T505" s="9"/>
+      <c r="U505" s="10"/>
+      <c r="V505" s="9"/>
+      <c r="W505" s="10"/>
+      <c r="X505" s="9"/>
+      <c r="Y505" s="10"/>
+      <c r="Z505" s="9"/>
+      <c r="AA505" s="10"/>
+      <c r="AB505" s="9"/>
+      <c r="AC505" s="10"/>
+      <c r="AD505" s="9"/>
+      <c r="AE505" s="10"/>
+      <c r="AF505" s="9"/>
+      <c r="AG505" s="10"/>
+      <c r="AH505" s="9"/>
+      <c r="AI505" s="10"/>
+      <c r="AJ505" s="9"/>
+      <c r="AK505" s="10"/>
+      <c r="AL505" s="9"/>
+      <c r="AM505" s="10"/>
+      <c r="AN505" s="9"/>
+      <c r="AO505" s="10"/>
+      <c r="AP505" s="9"/>
+      <c r="AQ505" s="10"/>
+      <c r="AR505" s="9"/>
+      <c r="AS505" s="10"/>
+      <c r="AT505" s="9"/>
+      <c r="AU505" s="10"/>
+      <c r="AV505" s="9"/>
+      <c r="AW505" s="10"/>
+      <c r="AX505" s="9"/>
+      <c r="AY505" s="10"/>
+      <c r="AZ505" s="9"/>
+      <c r="BA505" s="10"/>
+      <c r="BB505" s="9"/>
+      <c r="BC505" s="10"/>
+      <c r="BD505" s="9"/>
+      <c r="BE505" s="10"/>
+      <c r="BF505" s="9"/>
+      <c r="BG505" s="10"/>
+      <c r="BH505" s="9"/>
+      <c r="BI505" s="10"/>
+      <c r="BJ505" s="9"/>
+      <c r="BK505" s="10"/>
+      <c r="BL505" s="9"/>
+      <c r="BM505" s="10"/>
+      <c r="BN505" s="9"/>
+      <c r="BO505" s="10"/>
+      <c r="BP505" s="9"/>
+      <c r="BQ505" s="10"/>
+      <c r="BR505" s="9"/>
+      <c r="BS505" s="10"/>
+      <c r="BT505" s="9"/>
+      <c r="BU505" s="10"/>
+      <c r="BV505" s="9"/>
+      <c r="BW505" s="10"/>
+      <c r="BX505" s="9"/>
+      <c r="BY505" s="10"/>
+      <c r="BZ505" s="9"/>
+      <c r="CA505" s="10"/>
+      <c r="CB505" s="9"/>
+      <c r="CC505" s="10"/>
+      <c r="CD505" s="9"/>
+      <c r="CE505" s="10"/>
+      <c r="CF505" s="9"/>
+      <c r="CG505" s="10"/>
+      <c r="CH505" s="9"/>
+      <c r="CI505" s="10"/>
+      <c r="CJ505" s="9"/>
+      <c r="CK505" s="10"/>
+      <c r="CL505" s="9"/>
+      <c r="CM505" s="10"/>
+      <c r="CN505" s="9"/>
+      <c r="CO505" s="10"/>
+      <c r="CP505" s="9"/>
+      <c r="CQ505" s="10"/>
+      <c r="CR505" s="9"/>
+      <c r="CS505" s="10"/>
+      <c r="CT505" s="9"/>
+      <c r="CU505" s="10"/>
+      <c r="CV505" s="9"/>
+      <c r="CW505" s="10"/>
+      <c r="CX505" s="9"/>
+      <c r="CY505" s="10"/>
+      <c r="CZ505" s="9"/>
+      <c r="DA505" s="10"/>
+      <c r="DB505" s="9"/>
+      <c r="DC505" s="10"/>
+      <c r="DD505" s="9"/>
+      <c r="DE505" s="10"/>
+      <c r="DF505" s="9"/>
+      <c r="DG505" s="10"/>
+      <c r="DH505" s="9"/>
+      <c r="DI505" s="10"/>
+      <c r="DJ505" s="9"/>
+      <c r="DK505" s="10"/>
+      <c r="DL505" s="9"/>
+      <c r="DM505" s="10"/>
+      <c r="DN505" s="9"/>
+      <c r="DO505" s="10"/>
+      <c r="DP505" s="9"/>
+      <c r="DQ505" s="10"/>
+      <c r="DR505" s="9"/>
+      <c r="DS505" s="10"/>
+      <c r="DT505" s="9"/>
+      <c r="DU505" s="10"/>
+      <c r="DV505" s="9"/>
+      <c r="DW505" s="10"/>
+      <c r="DX505" s="9"/>
+      <c r="DY505" s="10"/>
+      <c r="DZ505" s="9"/>
+      <c r="EA505" s="10"/>
+      <c r="EB505" s="9"/>
+      <c r="EC505" s="10"/>
+      <c r="ED505" s="9"/>
+      <c r="EE505" s="10"/>
+      <c r="EF505" s="9"/>
+      <c r="EG505" s="10"/>
+      <c r="EH505" s="9"/>
+      <c r="EI505" s="10"/>
+      <c r="EJ505" s="9"/>
+      <c r="EK505" s="10"/>
+      <c r="EL505" s="9"/>
+      <c r="EM505" s="10"/>
+      <c r="EN505" s="9"/>
+      <c r="EO505" s="10"/>
+      <c r="EP505" s="9"/>
+      <c r="EQ505" s="10"/>
+      <c r="ER505" s="9"/>
+      <c r="ES505" s="10"/>
+      <c r="ET505" s="9"/>
+      <c r="EU505" s="10"/>
+      <c r="EV505" s="9"/>
+      <c r="EW505" s="10"/>
+      <c r="EX505" s="9"/>
+      <c r="EY505" s="10"/>
+      <c r="EZ505" s="9"/>
+      <c r="FA505" s="10"/>
+      <c r="FB505" s="9"/>
+      <c r="FC505" s="10"/>
+      <c r="FD505" s="9"/>
+      <c r="FE505" s="10"/>
+      <c r="FF505" s="9"/>
+      <c r="FG505" s="10"/>
+      <c r="FH505" s="9"/>
+      <c r="FI505" s="10"/>
+      <c r="FJ505" s="9"/>
+      <c r="FK505" s="10"/>
+      <c r="FL505" s="9"/>
+      <c r="FM505" s="10"/>
+      <c r="FN505" s="9"/>
+      <c r="FO505" s="10"/>
+      <c r="FP505" s="9"/>
+      <c r="FQ505" s="10"/>
+      <c r="FR505" s="9"/>
+      <c r="FS505" s="10"/>
+      <c r="FT505" s="9"/>
+      <c r="FU505" s="10"/>
+      <c r="FV505" s="9"/>
+      <c r="FW505" s="10"/>
+      <c r="FX505" s="9"/>
+      <c r="FY505" s="10"/>
+      <c r="FZ505" s="9"/>
+      <c r="GA505" s="10"/>
+      <c r="GB505" s="9"/>
+      <c r="GC505" s="10"/>
+      <c r="GD505" s="9"/>
+      <c r="GE505" s="10"/>
+      <c r="GF505" s="9"/>
+      <c r="GG505" s="10"/>
+      <c r="GH505" s="9"/>
+      <c r="GI505" s="10"/>
+      <c r="GJ505" s="9"/>
+      <c r="GK505" s="10"/>
+      <c r="GL505" s="9"/>
+      <c r="GM505" s="10"/>
+      <c r="GN505" s="9"/>
+      <c r="GO505" s="10"/>
+      <c r="GP505" s="9"/>
+      <c r="GQ505" s="10"/>
+      <c r="GR505" s="9"/>
+      <c r="GS505" s="10"/>
+      <c r="GT505" s="9"/>
+      <c r="GU505" s="10"/>
+      <c r="GV505" s="9"/>
+      <c r="GW505" s="10"/>
+      <c r="GX505" s="9"/>
+      <c r="GY505" s="10"/>
+      <c r="GZ505" s="9"/>
+      <c r="HA505" s="10"/>
+      <c r="HB505" s="9"/>
+      <c r="HC505" s="10"/>
+      <c r="HD505" s="9"/>
+      <c r="HE505" s="10"/>
+      <c r="HF505" s="9"/>
+      <c r="HG505" s="10"/>
+      <c r="HH505" s="9"/>
+      <c r="HI505" s="10"/>
+      <c r="HJ505" s="9"/>
+      <c r="HK505" s="10"/>
+      <c r="HL505" s="9"/>
+      <c r="HM505" s="10"/>
+      <c r="HN505" s="9"/>
+      <c r="HO505" s="10"/>
+      <c r="HP505" s="9"/>
+      <c r="HQ505" s="10"/>
+      <c r="HR505" s="9"/>
+      <c r="HS505" s="10"/>
+      <c r="HT505" s="9"/>
+      <c r="HU505" s="10"/>
+      <c r="HV505" s="9"/>
+      <c r="HW505" s="10"/>
+      <c r="HX505" s="9"/>
+      <c r="HY505" s="10"/>
+      <c r="HZ505" s="9"/>
+      <c r="IA505" s="10"/>
+      <c r="IB505" s="9"/>
+      <c r="IC505" s="10"/>
+      <c r="ID505" s="9"/>
+      <c r="IE505" s="10"/>
+      <c r="IF505" s="9"/>
+      <c r="IG505" s="10"/>
+      <c r="IH505" s="9"/>
+      <c r="II505" s="10"/>
+      <c r="IJ505" s="9"/>
+      <c r="IK505" s="10"/>
+      <c r="IL505" s="9"/>
+      <c r="IM505" s="10"/>
+      <c r="IN505" s="9"/>
+      <c r="IO505" s="10"/>
+      <c r="IP505" s="9"/>
+      <c r="IQ505" s="10"/>
+      <c r="IR505" s="9"/>
+      <c r="IS505" s="10"/>
+      <c r="IT505" s="9"/>
+      <c r="IU505" s="10"/>
+      <c r="IV505" s="9"/>
+      <c r="IW505" s="10"/>
+      <c r="IX505" s="9"/>
+      <c r="IY505" s="10"/>
+      <c r="IZ505" s="9"/>
+      <c r="JA505" s="10"/>
+      <c r="JB505" s="9"/>
+      <c r="JC505" s="10"/>
+      <c r="JD505" s="9"/>
+      <c r="JE505" s="10"/>
+      <c r="JF505" s="9"/>
+      <c r="JG505" s="10"/>
+      <c r="JH505" s="9"/>
+      <c r="JI505" s="10"/>
+      <c r="JJ505" s="9"/>
+      <c r="JK505" s="10"/>
+      <c r="JL505" s="9"/>
+      <c r="JM505" s="10"/>
+      <c r="JN505" s="9"/>
+      <c r="JO505" s="10"/>
+      <c r="JP505" s="9"/>
+      <c r="JQ505" s="10"/>
+      <c r="JR505" s="9"/>
+      <c r="JS505" s="10"/>
+      <c r="JT505" s="9"/>
+      <c r="JU505" s="10"/>
+      <c r="JV505" s="9"/>
+      <c r="JW505" s="10"/>
+      <c r="JX505" s="9"/>
+      <c r="JY505" s="10"/>
+      <c r="JZ505" s="9"/>
+      <c r="KA505" s="10"/>
+      <c r="KB505" s="9"/>
+      <c r="KC505" s="10"/>
+      <c r="KD505" s="9"/>
+      <c r="KE505" s="10"/>
+      <c r="KF505" s="9"/>
+      <c r="KG505" s="10"/>
+      <c r="KH505" s="9"/>
+      <c r="KI505" s="10"/>
+      <c r="KJ505" s="9"/>
+      <c r="KK505" s="10"/>
+      <c r="KL505" s="9"/>
+      <c r="KM505" s="10"/>
+      <c r="KN505" s="9"/>
+      <c r="KO505" s="10"/>
+      <c r="KP505" s="9"/>
+      <c r="KQ505" s="10"/>
+      <c r="KR505" s="9"/>
+      <c r="KS505" s="10"/>
+      <c r="KT505" s="9"/>
+      <c r="KU505" s="10"/>
+      <c r="KV505" s="9"/>
+      <c r="KW505" s="10"/>
+      <c r="KX505" s="9"/>
+      <c r="KY505" s="10"/>
+      <c r="KZ505" s="9"/>
+      <c r="LA505" s="10"/>
+      <c r="LB505" s="9"/>
+      <c r="LC505" s="10"/>
+      <c r="LD505" s="9"/>
+      <c r="LE505" s="10"/>
+      <c r="LF505" s="9"/>
+      <c r="LG505" s="10"/>
+      <c r="LH505" s="9"/>
+      <c r="LI505" s="10"/>
+      <c r="LJ505" s="9"/>
+      <c r="LK505" s="10"/>
+      <c r="LL505" s="9"/>
+      <c r="LM505" s="10"/>
+      <c r="LN505" s="9"/>
+      <c r="LO505" s="10"/>
+      <c r="LP505" s="9"/>
+      <c r="LQ505" s="10"/>
+      <c r="LR505" s="9"/>
+      <c r="LS505" s="10"/>
+      <c r="LT505" s="9"/>
+      <c r="LU505" s="10"/>
+      <c r="LV505" s="9"/>
+      <c r="LW505" s="10"/>
+      <c r="LX505" s="9"/>
+      <c r="LY505" s="10"/>
+      <c r="LZ505" s="9"/>
+      <c r="MA505" s="10"/>
+      <c r="MB505" s="9"/>
+      <c r="MC505" s="10"/>
+      <c r="MD505" s="9"/>
+      <c r="ME505" s="10"/>
+      <c r="MF505" s="9"/>
+      <c r="MG505" s="10"/>
+      <c r="MH505" s="9"/>
+      <c r="MI505" s="10"/>
+      <c r="MJ505" s="9"/>
+      <c r="MK505" s="10"/>
+      <c r="ML505" s="9"/>
+      <c r="MM505" s="10"/>
+      <c r="MN505" s="9"/>
+      <c r="MO505" s="10"/>
+      <c r="MP505" s="9"/>
+      <c r="MQ505" s="10"/>
+      <c r="MR505" s="9"/>
+      <c r="MS505" s="10"/>
+      <c r="MT505" s="9"/>
+      <c r="MU505" s="10"/>
+      <c r="MV505" s="9"/>
+      <c r="MW505" s="10"/>
+      <c r="MX505" s="9"/>
+      <c r="MY505" s="10"/>
+      <c r="MZ505" s="9"/>
+      <c r="NA505" s="10"/>
+      <c r="NB505" s="9"/>
+      <c r="NC505" s="10"/>
+      <c r="ND505" s="9"/>
+      <c r="NE505" s="10"/>
+      <c r="NF505" s="9"/>
+      <c r="NG505" s="10"/>
+      <c r="NH505" s="9"/>
+      <c r="NI505" s="10"/>
+      <c r="NJ505" s="9"/>
+      <c r="NK505" s="10"/>
+      <c r="NL505" s="9"/>
+      <c r="NM505" s="10"/>
+      <c r="NN505" s="9"/>
+      <c r="NO505" s="10"/>
+      <c r="NP505" s="9"/>
+      <c r="NQ505" s="10"/>
+      <c r="NR505" s="9"/>
+      <c r="NS505" s="10"/>
+      <c r="NT505" s="9"/>
+      <c r="NU505" s="10"/>
+      <c r="NV505" s="9"/>
+      <c r="NW505" s="10"/>
+      <c r="NX505" s="9"/>
+      <c r="NY505" s="10"/>
+      <c r="NZ505" s="9"/>
+      <c r="OA505" s="10"/>
+      <c r="OB505" s="9"/>
+      <c r="OC505" s="10"/>
+      <c r="OD505" s="9"/>
+      <c r="OE505" s="10"/>
+      <c r="OF505" s="9"/>
+      <c r="OG505" s="10"/>
+      <c r="OH505" s="9"/>
+      <c r="OI505" s="10"/>
+      <c r="OJ505" s="9"/>
+      <c r="OK505" s="10"/>
+      <c r="OL505" s="9"/>
+      <c r="OM505" s="10"/>
+      <c r="ON505" s="9"/>
+      <c r="OO505" s="10"/>
+      <c r="OP505" s="9"/>
+      <c r="OQ505" s="10"/>
+      <c r="OR505" s="9"/>
+      <c r="OS505" s="10"/>
+      <c r="OT505" s="9"/>
+      <c r="OU505" s="10"/>
+      <c r="OV505" s="9"/>
+      <c r="OW505" s="10"/>
+      <c r="OX505" s="9"/>
+      <c r="OY505" s="10"/>
+      <c r="OZ505" s="9"/>
+      <c r="PA505" s="10"/>
+      <c r="PB505" s="9"/>
+      <c r="PC505" s="10"/>
+      <c r="PD505" s="9"/>
+      <c r="PE505" s="10"/>
+      <c r="PF505" s="9"/>
+      <c r="PG505" s="10"/>
+      <c r="PH505" s="9"/>
+      <c r="PI505" s="10"/>
+      <c r="PJ505" s="9"/>
+      <c r="PK505" s="10"/>
+      <c r="PL505" s="9"/>
+      <c r="PM505" s="10"/>
+      <c r="PN505" s="9"/>
+      <c r="PO505" s="10"/>
+      <c r="PP505" s="9"/>
+      <c r="PQ505" s="10"/>
+      <c r="PR505" s="9"/>
+      <c r="PS505" s="10"/>
+      <c r="PT505" s="9"/>
+      <c r="PU505" s="10"/>
+      <c r="PV505" s="9"/>
+      <c r="PW505" s="10"/>
+      <c r="PX505" s="9"/>
+      <c r="PY505" s="10"/>
+      <c r="PZ505" s="9"/>
+      <c r="QA505" s="10"/>
+      <c r="QB505" s="9"/>
+      <c r="QC505" s="10"/>
+      <c r="QD505" s="9"/>
+      <c r="QE505" s="10"/>
+      <c r="QF505" s="9"/>
+      <c r="QG505" s="10"/>
+      <c r="QH505" s="9"/>
+      <c r="QI505" s="10"/>
+      <c r="QJ505" s="9"/>
+      <c r="QK505" s="10"/>
+      <c r="QL505" s="9"/>
+      <c r="QM505" s="10"/>
+      <c r="QN505" s="9"/>
+      <c r="QO505" s="10"/>
+      <c r="QP505" s="9"/>
+      <c r="QQ505" s="10"/>
+      <c r="QR505" s="9"/>
+      <c r="QS505" s="10"/>
+      <c r="QT505" s="9"/>
+      <c r="QU505" s="10"/>
+      <c r="QV505" s="9"/>
+      <c r="QW505" s="10"/>
+      <c r="QX505" s="9"/>
+      <c r="QY505" s="10"/>
+      <c r="QZ505" s="9"/>
+      <c r="RA505" s="10"/>
+      <c r="RB505" s="9"/>
+      <c r="RC505" s="10"/>
+      <c r="RD505" s="9"/>
+      <c r="RE505" s="10"/>
+      <c r="RF505" s="9"/>
+      <c r="RG505" s="10"/>
+      <c r="RH505" s="9"/>
+      <c r="RI505" s="10"/>
+      <c r="RJ505" s="9"/>
+      <c r="RK505" s="10"/>
+      <c r="RL505" s="9"/>
+      <c r="RM505" s="10"/>
+      <c r="RN505" s="9"/>
+      <c r="RO505" s="10"/>
+      <c r="RP505" s="9"/>
+      <c r="RQ505" s="10"/>
+      <c r="RR505" s="9"/>
+      <c r="RS505" s="10"/>
+      <c r="RT505" s="9"/>
+      <c r="RU505" s="10"/>
+      <c r="RV505" s="9"/>
+      <c r="RW505" s="10"/>
+      <c r="RX505" s="9"/>
+      <c r="RY505" s="10"/>
+      <c r="RZ505" s="9"/>
+      <c r="SA505" s="10"/>
+      <c r="SB505" s="9"/>
+      <c r="SC505" s="10"/>
+      <c r="SD505" s="9"/>
+      <c r="SE505" s="11"/>
     </row>
-    <row r="506" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B506" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Culturales Derecho Hab Publ]]</f>
         <v>Serv. Culturales Derecho Hab Publ</v>
@@ -57761,8 +60845,503 @@
         <f>SUM(Tabla1[Serv. Culturales Derecho Hab Publ])</f>
         <v>36375442</v>
       </c>
+      <c r="E506" s="8"/>
+      <c r="F506" s="9"/>
+      <c r="G506" s="10"/>
+      <c r="H506" s="9"/>
+      <c r="I506" s="10"/>
+      <c r="J506" s="9"/>
+      <c r="K506" s="10"/>
+      <c r="L506" s="9"/>
+      <c r="M506" s="10"/>
+      <c r="N506" s="9"/>
+      <c r="O506" s="10"/>
+      <c r="P506" s="9"/>
+      <c r="Q506" s="10"/>
+      <c r="R506" s="9"/>
+      <c r="S506" s="10"/>
+      <c r="T506" s="9"/>
+      <c r="U506" s="10"/>
+      <c r="V506" s="9"/>
+      <c r="W506" s="10"/>
+      <c r="X506" s="9"/>
+      <c r="Y506" s="10"/>
+      <c r="Z506" s="9"/>
+      <c r="AA506" s="10"/>
+      <c r="AB506" s="9"/>
+      <c r="AC506" s="10"/>
+      <c r="AD506" s="9"/>
+      <c r="AE506" s="10"/>
+      <c r="AF506" s="9"/>
+      <c r="AG506" s="10"/>
+      <c r="AH506" s="9"/>
+      <c r="AI506" s="10"/>
+      <c r="AJ506" s="9"/>
+      <c r="AK506" s="10"/>
+      <c r="AL506" s="9"/>
+      <c r="AM506" s="10"/>
+      <c r="AN506" s="9"/>
+      <c r="AO506" s="10"/>
+      <c r="AP506" s="9"/>
+      <c r="AQ506" s="10"/>
+      <c r="AR506" s="9"/>
+      <c r="AS506" s="10"/>
+      <c r="AT506" s="9"/>
+      <c r="AU506" s="10"/>
+      <c r="AV506" s="9"/>
+      <c r="AW506" s="10"/>
+      <c r="AX506" s="9"/>
+      <c r="AY506" s="10"/>
+      <c r="AZ506" s="9"/>
+      <c r="BA506" s="10"/>
+      <c r="BB506" s="9"/>
+      <c r="BC506" s="10"/>
+      <c r="BD506" s="9"/>
+      <c r="BE506" s="10"/>
+      <c r="BF506" s="9"/>
+      <c r="BG506" s="10"/>
+      <c r="BH506" s="9"/>
+      <c r="BI506" s="10"/>
+      <c r="BJ506" s="9"/>
+      <c r="BK506" s="10"/>
+      <c r="BL506" s="9"/>
+      <c r="BM506" s="10"/>
+      <c r="BN506" s="9"/>
+      <c r="BO506" s="10"/>
+      <c r="BP506" s="9"/>
+      <c r="BQ506" s="10"/>
+      <c r="BR506" s="9"/>
+      <c r="BS506" s="10"/>
+      <c r="BT506" s="9"/>
+      <c r="BU506" s="10"/>
+      <c r="BV506" s="9"/>
+      <c r="BW506" s="10"/>
+      <c r="BX506" s="9"/>
+      <c r="BY506" s="10"/>
+      <c r="BZ506" s="9"/>
+      <c r="CA506" s="10"/>
+      <c r="CB506" s="9"/>
+      <c r="CC506" s="10"/>
+      <c r="CD506" s="9"/>
+      <c r="CE506" s="10"/>
+      <c r="CF506" s="9"/>
+      <c r="CG506" s="10"/>
+      <c r="CH506" s="9"/>
+      <c r="CI506" s="10"/>
+      <c r="CJ506" s="9"/>
+      <c r="CK506" s="10"/>
+      <c r="CL506" s="9"/>
+      <c r="CM506" s="10"/>
+      <c r="CN506" s="9"/>
+      <c r="CO506" s="10"/>
+      <c r="CP506" s="9"/>
+      <c r="CQ506" s="10"/>
+      <c r="CR506" s="9"/>
+      <c r="CS506" s="10"/>
+      <c r="CT506" s="9"/>
+      <c r="CU506" s="10"/>
+      <c r="CV506" s="9"/>
+      <c r="CW506" s="10"/>
+      <c r="CX506" s="9"/>
+      <c r="CY506" s="10"/>
+      <c r="CZ506" s="9"/>
+      <c r="DA506" s="10"/>
+      <c r="DB506" s="9"/>
+      <c r="DC506" s="10"/>
+      <c r="DD506" s="9"/>
+      <c r="DE506" s="10"/>
+      <c r="DF506" s="9"/>
+      <c r="DG506" s="10"/>
+      <c r="DH506" s="9"/>
+      <c r="DI506" s="10"/>
+      <c r="DJ506" s="9"/>
+      <c r="DK506" s="10"/>
+      <c r="DL506" s="9"/>
+      <c r="DM506" s="10"/>
+      <c r="DN506" s="9"/>
+      <c r="DO506" s="10"/>
+      <c r="DP506" s="9"/>
+      <c r="DQ506" s="10"/>
+      <c r="DR506" s="9"/>
+      <c r="DS506" s="10"/>
+      <c r="DT506" s="9"/>
+      <c r="DU506" s="10"/>
+      <c r="DV506" s="9"/>
+      <c r="DW506" s="10"/>
+      <c r="DX506" s="9"/>
+      <c r="DY506" s="10"/>
+      <c r="DZ506" s="9"/>
+      <c r="EA506" s="10"/>
+      <c r="EB506" s="9"/>
+      <c r="EC506" s="10"/>
+      <c r="ED506" s="9"/>
+      <c r="EE506" s="10"/>
+      <c r="EF506" s="9"/>
+      <c r="EG506" s="10"/>
+      <c r="EH506" s="9"/>
+      <c r="EI506" s="10"/>
+      <c r="EJ506" s="9"/>
+      <c r="EK506" s="10"/>
+      <c r="EL506" s="9"/>
+      <c r="EM506" s="10"/>
+      <c r="EN506" s="9"/>
+      <c r="EO506" s="10"/>
+      <c r="EP506" s="9"/>
+      <c r="EQ506" s="10"/>
+      <c r="ER506" s="9"/>
+      <c r="ES506" s="10"/>
+      <c r="ET506" s="9"/>
+      <c r="EU506" s="10"/>
+      <c r="EV506" s="9"/>
+      <c r="EW506" s="10"/>
+      <c r="EX506" s="9"/>
+      <c r="EY506" s="10"/>
+      <c r="EZ506" s="9"/>
+      <c r="FA506" s="10"/>
+      <c r="FB506" s="9"/>
+      <c r="FC506" s="10"/>
+      <c r="FD506" s="9"/>
+      <c r="FE506" s="10"/>
+      <c r="FF506" s="9"/>
+      <c r="FG506" s="10"/>
+      <c r="FH506" s="9"/>
+      <c r="FI506" s="10"/>
+      <c r="FJ506" s="9"/>
+      <c r="FK506" s="10"/>
+      <c r="FL506" s="9"/>
+      <c r="FM506" s="10"/>
+      <c r="FN506" s="9"/>
+      <c r="FO506" s="10"/>
+      <c r="FP506" s="9"/>
+      <c r="FQ506" s="10"/>
+      <c r="FR506" s="9"/>
+      <c r="FS506" s="10"/>
+      <c r="FT506" s="9"/>
+      <c r="FU506" s="10"/>
+      <c r="FV506" s="9"/>
+      <c r="FW506" s="10"/>
+      <c r="FX506" s="9"/>
+      <c r="FY506" s="10"/>
+      <c r="FZ506" s="9"/>
+      <c r="GA506" s="10"/>
+      <c r="GB506" s="9"/>
+      <c r="GC506" s="10"/>
+      <c r="GD506" s="9"/>
+      <c r="GE506" s="10"/>
+      <c r="GF506" s="9"/>
+      <c r="GG506" s="10"/>
+      <c r="GH506" s="9"/>
+      <c r="GI506" s="10"/>
+      <c r="GJ506" s="9"/>
+      <c r="GK506" s="10"/>
+      <c r="GL506" s="9"/>
+      <c r="GM506" s="10"/>
+      <c r="GN506" s="9"/>
+      <c r="GO506" s="10"/>
+      <c r="GP506" s="9"/>
+      <c r="GQ506" s="10"/>
+      <c r="GR506" s="9"/>
+      <c r="GS506" s="10"/>
+      <c r="GT506" s="9"/>
+      <c r="GU506" s="10"/>
+      <c r="GV506" s="9"/>
+      <c r="GW506" s="10"/>
+      <c r="GX506" s="9"/>
+      <c r="GY506" s="10"/>
+      <c r="GZ506" s="9"/>
+      <c r="HA506" s="10"/>
+      <c r="HB506" s="9"/>
+      <c r="HC506" s="10"/>
+      <c r="HD506" s="9"/>
+      <c r="HE506" s="10"/>
+      <c r="HF506" s="9"/>
+      <c r="HG506" s="10"/>
+      <c r="HH506" s="9"/>
+      <c r="HI506" s="10"/>
+      <c r="HJ506" s="9"/>
+      <c r="HK506" s="10"/>
+      <c r="HL506" s="9"/>
+      <c r="HM506" s="10"/>
+      <c r="HN506" s="9"/>
+      <c r="HO506" s="10"/>
+      <c r="HP506" s="9"/>
+      <c r="HQ506" s="10"/>
+      <c r="HR506" s="9"/>
+      <c r="HS506" s="10"/>
+      <c r="HT506" s="9"/>
+      <c r="HU506" s="10"/>
+      <c r="HV506" s="9"/>
+      <c r="HW506" s="10"/>
+      <c r="HX506" s="9"/>
+      <c r="HY506" s="10"/>
+      <c r="HZ506" s="9"/>
+      <c r="IA506" s="10"/>
+      <c r="IB506" s="9"/>
+      <c r="IC506" s="10"/>
+      <c r="ID506" s="9"/>
+      <c r="IE506" s="10"/>
+      <c r="IF506" s="9"/>
+      <c r="IG506" s="10"/>
+      <c r="IH506" s="9"/>
+      <c r="II506" s="10"/>
+      <c r="IJ506" s="9"/>
+      <c r="IK506" s="10"/>
+      <c r="IL506" s="9"/>
+      <c r="IM506" s="10"/>
+      <c r="IN506" s="9"/>
+      <c r="IO506" s="10"/>
+      <c r="IP506" s="9"/>
+      <c r="IQ506" s="10"/>
+      <c r="IR506" s="9"/>
+      <c r="IS506" s="10"/>
+      <c r="IT506" s="9"/>
+      <c r="IU506" s="10"/>
+      <c r="IV506" s="9"/>
+      <c r="IW506" s="10"/>
+      <c r="IX506" s="9"/>
+      <c r="IY506" s="10"/>
+      <c r="IZ506" s="9"/>
+      <c r="JA506" s="10"/>
+      <c r="JB506" s="9"/>
+      <c r="JC506" s="10"/>
+      <c r="JD506" s="9"/>
+      <c r="JE506" s="10"/>
+      <c r="JF506" s="9"/>
+      <c r="JG506" s="10"/>
+      <c r="JH506" s="9"/>
+      <c r="JI506" s="10"/>
+      <c r="JJ506" s="9"/>
+      <c r="JK506" s="10"/>
+      <c r="JL506" s="9"/>
+      <c r="JM506" s="10"/>
+      <c r="JN506" s="9"/>
+      <c r="JO506" s="10"/>
+      <c r="JP506" s="9"/>
+      <c r="JQ506" s="10"/>
+      <c r="JR506" s="9"/>
+      <c r="JS506" s="10"/>
+      <c r="JT506" s="9"/>
+      <c r="JU506" s="10"/>
+      <c r="JV506" s="9"/>
+      <c r="JW506" s="10"/>
+      <c r="JX506" s="9"/>
+      <c r="JY506" s="10"/>
+      <c r="JZ506" s="9"/>
+      <c r="KA506" s="10"/>
+      <c r="KB506" s="9"/>
+      <c r="KC506" s="10"/>
+      <c r="KD506" s="9"/>
+      <c r="KE506" s="10"/>
+      <c r="KF506" s="9"/>
+      <c r="KG506" s="10"/>
+      <c r="KH506" s="9"/>
+      <c r="KI506" s="10"/>
+      <c r="KJ506" s="9"/>
+      <c r="KK506" s="10"/>
+      <c r="KL506" s="9"/>
+      <c r="KM506" s="10"/>
+      <c r="KN506" s="9"/>
+      <c r="KO506" s="10"/>
+      <c r="KP506" s="9"/>
+      <c r="KQ506" s="10"/>
+      <c r="KR506" s="9"/>
+      <c r="KS506" s="10"/>
+      <c r="KT506" s="9"/>
+      <c r="KU506" s="10"/>
+      <c r="KV506" s="9"/>
+      <c r="KW506" s="10"/>
+      <c r="KX506" s="9"/>
+      <c r="KY506" s="10"/>
+      <c r="KZ506" s="9"/>
+      <c r="LA506" s="10"/>
+      <c r="LB506" s="9"/>
+      <c r="LC506" s="10"/>
+      <c r="LD506" s="9"/>
+      <c r="LE506" s="10"/>
+      <c r="LF506" s="9"/>
+      <c r="LG506" s="10"/>
+      <c r="LH506" s="9"/>
+      <c r="LI506" s="10"/>
+      <c r="LJ506" s="9"/>
+      <c r="LK506" s="10"/>
+      <c r="LL506" s="9"/>
+      <c r="LM506" s="10"/>
+      <c r="LN506" s="9"/>
+      <c r="LO506" s="10"/>
+      <c r="LP506" s="9"/>
+      <c r="LQ506" s="10"/>
+      <c r="LR506" s="9"/>
+      <c r="LS506" s="10"/>
+      <c r="LT506" s="9"/>
+      <c r="LU506" s="10"/>
+      <c r="LV506" s="9"/>
+      <c r="LW506" s="10"/>
+      <c r="LX506" s="9"/>
+      <c r="LY506" s="10"/>
+      <c r="LZ506" s="9"/>
+      <c r="MA506" s="10"/>
+      <c r="MB506" s="9"/>
+      <c r="MC506" s="10"/>
+      <c r="MD506" s="9"/>
+      <c r="ME506" s="10"/>
+      <c r="MF506" s="9"/>
+      <c r="MG506" s="10"/>
+      <c r="MH506" s="9"/>
+      <c r="MI506" s="10"/>
+      <c r="MJ506" s="9"/>
+      <c r="MK506" s="10"/>
+      <c r="ML506" s="9"/>
+      <c r="MM506" s="10"/>
+      <c r="MN506" s="9"/>
+      <c r="MO506" s="10"/>
+      <c r="MP506" s="9"/>
+      <c r="MQ506" s="10"/>
+      <c r="MR506" s="9"/>
+      <c r="MS506" s="10"/>
+      <c r="MT506" s="9"/>
+      <c r="MU506" s="10"/>
+      <c r="MV506" s="9"/>
+      <c r="MW506" s="10"/>
+      <c r="MX506" s="9"/>
+      <c r="MY506" s="10"/>
+      <c r="MZ506" s="9"/>
+      <c r="NA506" s="10"/>
+      <c r="NB506" s="9"/>
+      <c r="NC506" s="10"/>
+      <c r="ND506" s="9"/>
+      <c r="NE506" s="10"/>
+      <c r="NF506" s="9"/>
+      <c r="NG506" s="10"/>
+      <c r="NH506" s="9"/>
+      <c r="NI506" s="10"/>
+      <c r="NJ506" s="9"/>
+      <c r="NK506" s="10"/>
+      <c r="NL506" s="9"/>
+      <c r="NM506" s="10"/>
+      <c r="NN506" s="9"/>
+      <c r="NO506" s="10"/>
+      <c r="NP506" s="9"/>
+      <c r="NQ506" s="10"/>
+      <c r="NR506" s="9"/>
+      <c r="NS506" s="10"/>
+      <c r="NT506" s="9"/>
+      <c r="NU506" s="10"/>
+      <c r="NV506" s="9"/>
+      <c r="NW506" s="10"/>
+      <c r="NX506" s="9"/>
+      <c r="NY506" s="10"/>
+      <c r="NZ506" s="9"/>
+      <c r="OA506" s="10"/>
+      <c r="OB506" s="9"/>
+      <c r="OC506" s="10"/>
+      <c r="OD506" s="9"/>
+      <c r="OE506" s="10"/>
+      <c r="OF506" s="9"/>
+      <c r="OG506" s="10"/>
+      <c r="OH506" s="9"/>
+      <c r="OI506" s="10"/>
+      <c r="OJ506" s="9"/>
+      <c r="OK506" s="10"/>
+      <c r="OL506" s="9"/>
+      <c r="OM506" s="10"/>
+      <c r="ON506" s="9"/>
+      <c r="OO506" s="10"/>
+      <c r="OP506" s="9"/>
+      <c r="OQ506" s="10"/>
+      <c r="OR506" s="9"/>
+      <c r="OS506" s="10"/>
+      <c r="OT506" s="9"/>
+      <c r="OU506" s="10"/>
+      <c r="OV506" s="9"/>
+      <c r="OW506" s="10"/>
+      <c r="OX506" s="9"/>
+      <c r="OY506" s="10"/>
+      <c r="OZ506" s="9"/>
+      <c r="PA506" s="10"/>
+      <c r="PB506" s="9"/>
+      <c r="PC506" s="10"/>
+      <c r="PD506" s="9"/>
+      <c r="PE506" s="10"/>
+      <c r="PF506" s="9"/>
+      <c r="PG506" s="10"/>
+      <c r="PH506" s="9"/>
+      <c r="PI506" s="10"/>
+      <c r="PJ506" s="9"/>
+      <c r="PK506" s="10"/>
+      <c r="PL506" s="9"/>
+      <c r="PM506" s="10"/>
+      <c r="PN506" s="9"/>
+      <c r="PO506" s="10"/>
+      <c r="PP506" s="9"/>
+      <c r="PQ506" s="10"/>
+      <c r="PR506" s="9"/>
+      <c r="PS506" s="10"/>
+      <c r="PT506" s="9"/>
+      <c r="PU506" s="10"/>
+      <c r="PV506" s="9"/>
+      <c r="PW506" s="10"/>
+      <c r="PX506" s="9"/>
+      <c r="PY506" s="10"/>
+      <c r="PZ506" s="9"/>
+      <c r="QA506" s="10"/>
+      <c r="QB506" s="9"/>
+      <c r="QC506" s="10"/>
+      <c r="QD506" s="9"/>
+      <c r="QE506" s="10"/>
+      <c r="QF506" s="9"/>
+      <c r="QG506" s="10"/>
+      <c r="QH506" s="9"/>
+      <c r="QI506" s="10"/>
+      <c r="QJ506" s="9"/>
+      <c r="QK506" s="10"/>
+      <c r="QL506" s="9"/>
+      <c r="QM506" s="10"/>
+      <c r="QN506" s="9"/>
+      <c r="QO506" s="10"/>
+      <c r="QP506" s="9"/>
+      <c r="QQ506" s="10"/>
+      <c r="QR506" s="9"/>
+      <c r="QS506" s="10"/>
+      <c r="QT506" s="9"/>
+      <c r="QU506" s="10"/>
+      <c r="QV506" s="9"/>
+      <c r="QW506" s="10"/>
+      <c r="QX506" s="9"/>
+      <c r="QY506" s="10"/>
+      <c r="QZ506" s="9"/>
+      <c r="RA506" s="10"/>
+      <c r="RB506" s="9"/>
+      <c r="RC506" s="10"/>
+      <c r="RD506" s="9"/>
+      <c r="RE506" s="10"/>
+      <c r="RF506" s="9"/>
+      <c r="RG506" s="10"/>
+      <c r="RH506" s="9"/>
+      <c r="RI506" s="10"/>
+      <c r="RJ506" s="9"/>
+      <c r="RK506" s="10"/>
+      <c r="RL506" s="9"/>
+      <c r="RM506" s="10"/>
+      <c r="RN506" s="9"/>
+      <c r="RO506" s="10"/>
+      <c r="RP506" s="9"/>
+      <c r="RQ506" s="10"/>
+      <c r="RR506" s="9"/>
+      <c r="RS506" s="10"/>
+      <c r="RT506" s="9"/>
+      <c r="RU506" s="10"/>
+      <c r="RV506" s="9"/>
+      <c r="RW506" s="10"/>
+      <c r="RX506" s="9"/>
+      <c r="RY506" s="10"/>
+      <c r="RZ506" s="9"/>
+      <c r="SA506" s="10"/>
+      <c r="SB506" s="9"/>
+      <c r="SC506" s="10"/>
+      <c r="SD506" s="9"/>
+      <c r="SE506" s="11"/>
     </row>
-    <row r="507" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B507" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Deportivos Derecho Hab Publ]]</f>
         <v>Serv. Deportivos Derecho Hab Publ</v>
@@ -57771,8 +61350,503 @@
         <f>SUM(Tabla1[Serv. Deportivos Derecho Hab Publ])</f>
         <v>11512451</v>
       </c>
+      <c r="E507" s="8"/>
+      <c r="F507" s="9"/>
+      <c r="G507" s="10"/>
+      <c r="H507" s="9"/>
+      <c r="I507" s="10"/>
+      <c r="J507" s="9"/>
+      <c r="K507" s="10"/>
+      <c r="L507" s="9"/>
+      <c r="M507" s="10"/>
+      <c r="N507" s="9"/>
+      <c r="O507" s="10"/>
+      <c r="P507" s="9"/>
+      <c r="Q507" s="10"/>
+      <c r="R507" s="9"/>
+      <c r="S507" s="10"/>
+      <c r="T507" s="9"/>
+      <c r="U507" s="10"/>
+      <c r="V507" s="9"/>
+      <c r="W507" s="10"/>
+      <c r="X507" s="9"/>
+      <c r="Y507" s="10"/>
+      <c r="Z507" s="9"/>
+      <c r="AA507" s="10"/>
+      <c r="AB507" s="9"/>
+      <c r="AC507" s="10"/>
+      <c r="AD507" s="9"/>
+      <c r="AE507" s="10"/>
+      <c r="AF507" s="9"/>
+      <c r="AG507" s="10"/>
+      <c r="AH507" s="9"/>
+      <c r="AI507" s="10"/>
+      <c r="AJ507" s="9"/>
+      <c r="AK507" s="10"/>
+      <c r="AL507" s="9"/>
+      <c r="AM507" s="10"/>
+      <c r="AN507" s="9"/>
+      <c r="AO507" s="10"/>
+      <c r="AP507" s="9"/>
+      <c r="AQ507" s="10"/>
+      <c r="AR507" s="9"/>
+      <c r="AS507" s="10"/>
+      <c r="AT507" s="9"/>
+      <c r="AU507" s="10"/>
+      <c r="AV507" s="9"/>
+      <c r="AW507" s="10"/>
+      <c r="AX507" s="9"/>
+      <c r="AY507" s="10"/>
+      <c r="AZ507" s="9"/>
+      <c r="BA507" s="10"/>
+      <c r="BB507" s="9"/>
+      <c r="BC507" s="10"/>
+      <c r="BD507" s="9"/>
+      <c r="BE507" s="10"/>
+      <c r="BF507" s="9"/>
+      <c r="BG507" s="10"/>
+      <c r="BH507" s="9"/>
+      <c r="BI507" s="10"/>
+      <c r="BJ507" s="9"/>
+      <c r="BK507" s="10"/>
+      <c r="BL507" s="9"/>
+      <c r="BM507" s="10"/>
+      <c r="BN507" s="9"/>
+      <c r="BO507" s="10"/>
+      <c r="BP507" s="9"/>
+      <c r="BQ507" s="10"/>
+      <c r="BR507" s="9"/>
+      <c r="BS507" s="10"/>
+      <c r="BT507" s="9"/>
+      <c r="BU507" s="10"/>
+      <c r="BV507" s="9"/>
+      <c r="BW507" s="10"/>
+      <c r="BX507" s="9"/>
+      <c r="BY507" s="10"/>
+      <c r="BZ507" s="9"/>
+      <c r="CA507" s="10"/>
+      <c r="CB507" s="9"/>
+      <c r="CC507" s="10"/>
+      <c r="CD507" s="9"/>
+      <c r="CE507" s="10"/>
+      <c r="CF507" s="9"/>
+      <c r="CG507" s="10"/>
+      <c r="CH507" s="9"/>
+      <c r="CI507" s="10"/>
+      <c r="CJ507" s="9"/>
+      <c r="CK507" s="10"/>
+      <c r="CL507" s="9"/>
+      <c r="CM507" s="10"/>
+      <c r="CN507" s="9"/>
+      <c r="CO507" s="10"/>
+      <c r="CP507" s="9"/>
+      <c r="CQ507" s="10"/>
+      <c r="CR507" s="9"/>
+      <c r="CS507" s="10"/>
+      <c r="CT507" s="9"/>
+      <c r="CU507" s="10"/>
+      <c r="CV507" s="9"/>
+      <c r="CW507" s="10"/>
+      <c r="CX507" s="9"/>
+      <c r="CY507" s="10"/>
+      <c r="CZ507" s="9"/>
+      <c r="DA507" s="10"/>
+      <c r="DB507" s="9"/>
+      <c r="DC507" s="10"/>
+      <c r="DD507" s="9"/>
+      <c r="DE507" s="10"/>
+      <c r="DF507" s="9"/>
+      <c r="DG507" s="10"/>
+      <c r="DH507" s="9"/>
+      <c r="DI507" s="10"/>
+      <c r="DJ507" s="9"/>
+      <c r="DK507" s="10"/>
+      <c r="DL507" s="9"/>
+      <c r="DM507" s="10"/>
+      <c r="DN507" s="9"/>
+      <c r="DO507" s="10"/>
+      <c r="DP507" s="9"/>
+      <c r="DQ507" s="10"/>
+      <c r="DR507" s="9"/>
+      <c r="DS507" s="10"/>
+      <c r="DT507" s="9"/>
+      <c r="DU507" s="10"/>
+      <c r="DV507" s="9"/>
+      <c r="DW507" s="10"/>
+      <c r="DX507" s="9"/>
+      <c r="DY507" s="10"/>
+      <c r="DZ507" s="9"/>
+      <c r="EA507" s="10"/>
+      <c r="EB507" s="9"/>
+      <c r="EC507" s="10"/>
+      <c r="ED507" s="9"/>
+      <c r="EE507" s="10"/>
+      <c r="EF507" s="9"/>
+      <c r="EG507" s="10"/>
+      <c r="EH507" s="9"/>
+      <c r="EI507" s="10"/>
+      <c r="EJ507" s="9"/>
+      <c r="EK507" s="10"/>
+      <c r="EL507" s="9"/>
+      <c r="EM507" s="10"/>
+      <c r="EN507" s="9"/>
+      <c r="EO507" s="10"/>
+      <c r="EP507" s="9"/>
+      <c r="EQ507" s="10"/>
+      <c r="ER507" s="9"/>
+      <c r="ES507" s="10"/>
+      <c r="ET507" s="9"/>
+      <c r="EU507" s="10"/>
+      <c r="EV507" s="9"/>
+      <c r="EW507" s="10"/>
+      <c r="EX507" s="9"/>
+      <c r="EY507" s="10"/>
+      <c r="EZ507" s="9"/>
+      <c r="FA507" s="10"/>
+      <c r="FB507" s="9"/>
+      <c r="FC507" s="10"/>
+      <c r="FD507" s="9"/>
+      <c r="FE507" s="10"/>
+      <c r="FF507" s="9"/>
+      <c r="FG507" s="10"/>
+      <c r="FH507" s="9"/>
+      <c r="FI507" s="10"/>
+      <c r="FJ507" s="9"/>
+      <c r="FK507" s="10"/>
+      <c r="FL507" s="9"/>
+      <c r="FM507" s="10"/>
+      <c r="FN507" s="9"/>
+      <c r="FO507" s="10"/>
+      <c r="FP507" s="9"/>
+      <c r="FQ507" s="10"/>
+      <c r="FR507" s="9"/>
+      <c r="FS507" s="10"/>
+      <c r="FT507" s="9"/>
+      <c r="FU507" s="10"/>
+      <c r="FV507" s="9"/>
+      <c r="FW507" s="10"/>
+      <c r="FX507" s="9"/>
+      <c r="FY507" s="10"/>
+      <c r="FZ507" s="9"/>
+      <c r="GA507" s="10"/>
+      <c r="GB507" s="9"/>
+      <c r="GC507" s="10"/>
+      <c r="GD507" s="9"/>
+      <c r="GE507" s="10"/>
+      <c r="GF507" s="9"/>
+      <c r="GG507" s="10"/>
+      <c r="GH507" s="9"/>
+      <c r="GI507" s="10"/>
+      <c r="GJ507" s="9"/>
+      <c r="GK507" s="10"/>
+      <c r="GL507" s="9"/>
+      <c r="GM507" s="10"/>
+      <c r="GN507" s="9"/>
+      <c r="GO507" s="10"/>
+      <c r="GP507" s="9"/>
+      <c r="GQ507" s="10"/>
+      <c r="GR507" s="9"/>
+      <c r="GS507" s="10"/>
+      <c r="GT507" s="9"/>
+      <c r="GU507" s="10"/>
+      <c r="GV507" s="9"/>
+      <c r="GW507" s="10"/>
+      <c r="GX507" s="9"/>
+      <c r="GY507" s="10"/>
+      <c r="GZ507" s="9"/>
+      <c r="HA507" s="10"/>
+      <c r="HB507" s="9"/>
+      <c r="HC507" s="10"/>
+      <c r="HD507" s="9"/>
+      <c r="HE507" s="10"/>
+      <c r="HF507" s="9"/>
+      <c r="HG507" s="10"/>
+      <c r="HH507" s="9"/>
+      <c r="HI507" s="10"/>
+      <c r="HJ507" s="9"/>
+      <c r="HK507" s="10"/>
+      <c r="HL507" s="9"/>
+      <c r="HM507" s="10"/>
+      <c r="HN507" s="9"/>
+      <c r="HO507" s="10"/>
+      <c r="HP507" s="9"/>
+      <c r="HQ507" s="10"/>
+      <c r="HR507" s="9"/>
+      <c r="HS507" s="10"/>
+      <c r="HT507" s="9"/>
+      <c r="HU507" s="10"/>
+      <c r="HV507" s="9"/>
+      <c r="HW507" s="10"/>
+      <c r="HX507" s="9"/>
+      <c r="HY507" s="10"/>
+      <c r="HZ507" s="9"/>
+      <c r="IA507" s="10"/>
+      <c r="IB507" s="9"/>
+      <c r="IC507" s="10"/>
+      <c r="ID507" s="9"/>
+      <c r="IE507" s="10"/>
+      <c r="IF507" s="9"/>
+      <c r="IG507" s="10"/>
+      <c r="IH507" s="9"/>
+      <c r="II507" s="10"/>
+      <c r="IJ507" s="9"/>
+      <c r="IK507" s="10"/>
+      <c r="IL507" s="9"/>
+      <c r="IM507" s="10"/>
+      <c r="IN507" s="9"/>
+      <c r="IO507" s="10"/>
+      <c r="IP507" s="9"/>
+      <c r="IQ507" s="10"/>
+      <c r="IR507" s="9"/>
+      <c r="IS507" s="10"/>
+      <c r="IT507" s="9"/>
+      <c r="IU507" s="10"/>
+      <c r="IV507" s="9"/>
+      <c r="IW507" s="10"/>
+      <c r="IX507" s="9"/>
+      <c r="IY507" s="10"/>
+      <c r="IZ507" s="9"/>
+      <c r="JA507" s="10"/>
+      <c r="JB507" s="9"/>
+      <c r="JC507" s="10"/>
+      <c r="JD507" s="9"/>
+      <c r="JE507" s="10"/>
+      <c r="JF507" s="9"/>
+      <c r="JG507" s="10"/>
+      <c r="JH507" s="9"/>
+      <c r="JI507" s="10"/>
+      <c r="JJ507" s="9"/>
+      <c r="JK507" s="10"/>
+      <c r="JL507" s="9"/>
+      <c r="JM507" s="10"/>
+      <c r="JN507" s="9"/>
+      <c r="JO507" s="10"/>
+      <c r="JP507" s="9"/>
+      <c r="JQ507" s="10"/>
+      <c r="JR507" s="9"/>
+      <c r="JS507" s="10"/>
+      <c r="JT507" s="9"/>
+      <c r="JU507" s="10"/>
+      <c r="JV507" s="9"/>
+      <c r="JW507" s="10"/>
+      <c r="JX507" s="9"/>
+      <c r="JY507" s="10"/>
+      <c r="JZ507" s="9"/>
+      <c r="KA507" s="10"/>
+      <c r="KB507" s="9"/>
+      <c r="KC507" s="10"/>
+      <c r="KD507" s="9"/>
+      <c r="KE507" s="10"/>
+      <c r="KF507" s="9"/>
+      <c r="KG507" s="10"/>
+      <c r="KH507" s="9"/>
+      <c r="KI507" s="10"/>
+      <c r="KJ507" s="9"/>
+      <c r="KK507" s="10"/>
+      <c r="KL507" s="9"/>
+      <c r="KM507" s="10"/>
+      <c r="KN507" s="9"/>
+      <c r="KO507" s="10"/>
+      <c r="KP507" s="9"/>
+      <c r="KQ507" s="10"/>
+      <c r="KR507" s="9"/>
+      <c r="KS507" s="10"/>
+      <c r="KT507" s="9"/>
+      <c r="KU507" s="10"/>
+      <c r="KV507" s="9"/>
+      <c r="KW507" s="10"/>
+      <c r="KX507" s="9"/>
+      <c r="KY507" s="10"/>
+      <c r="KZ507" s="9"/>
+      <c r="LA507" s="10"/>
+      <c r="LB507" s="9"/>
+      <c r="LC507" s="10"/>
+      <c r="LD507" s="9"/>
+      <c r="LE507" s="10"/>
+      <c r="LF507" s="9"/>
+      <c r="LG507" s="10"/>
+      <c r="LH507" s="9"/>
+      <c r="LI507" s="10"/>
+      <c r="LJ507" s="9"/>
+      <c r="LK507" s="10"/>
+      <c r="LL507" s="9"/>
+      <c r="LM507" s="10"/>
+      <c r="LN507" s="9"/>
+      <c r="LO507" s="10"/>
+      <c r="LP507" s="9"/>
+      <c r="LQ507" s="10"/>
+      <c r="LR507" s="9"/>
+      <c r="LS507" s="10"/>
+      <c r="LT507" s="9"/>
+      <c r="LU507" s="10"/>
+      <c r="LV507" s="9"/>
+      <c r="LW507" s="10"/>
+      <c r="LX507" s="9"/>
+      <c r="LY507" s="10"/>
+      <c r="LZ507" s="9"/>
+      <c r="MA507" s="10"/>
+      <c r="MB507" s="9"/>
+      <c r="MC507" s="10"/>
+      <c r="MD507" s="9"/>
+      <c r="ME507" s="10"/>
+      <c r="MF507" s="9"/>
+      <c r="MG507" s="10"/>
+      <c r="MH507" s="9"/>
+      <c r="MI507" s="10"/>
+      <c r="MJ507" s="9"/>
+      <c r="MK507" s="10"/>
+      <c r="ML507" s="9"/>
+      <c r="MM507" s="10"/>
+      <c r="MN507" s="9"/>
+      <c r="MO507" s="10"/>
+      <c r="MP507" s="9"/>
+      <c r="MQ507" s="10"/>
+      <c r="MR507" s="9"/>
+      <c r="MS507" s="10"/>
+      <c r="MT507" s="9"/>
+      <c r="MU507" s="10"/>
+      <c r="MV507" s="9"/>
+      <c r="MW507" s="10"/>
+      <c r="MX507" s="9"/>
+      <c r="MY507" s="10"/>
+      <c r="MZ507" s="9"/>
+      <c r="NA507" s="10"/>
+      <c r="NB507" s="9"/>
+      <c r="NC507" s="10"/>
+      <c r="ND507" s="9"/>
+      <c r="NE507" s="10"/>
+      <c r="NF507" s="9"/>
+      <c r="NG507" s="10"/>
+      <c r="NH507" s="9"/>
+      <c r="NI507" s="10"/>
+      <c r="NJ507" s="9"/>
+      <c r="NK507" s="10"/>
+      <c r="NL507" s="9"/>
+      <c r="NM507" s="10"/>
+      <c r="NN507" s="9"/>
+      <c r="NO507" s="10"/>
+      <c r="NP507" s="9"/>
+      <c r="NQ507" s="10"/>
+      <c r="NR507" s="9"/>
+      <c r="NS507" s="10"/>
+      <c r="NT507" s="9"/>
+      <c r="NU507" s="10"/>
+      <c r="NV507" s="9"/>
+      <c r="NW507" s="10"/>
+      <c r="NX507" s="9"/>
+      <c r="NY507" s="10"/>
+      <c r="NZ507" s="9"/>
+      <c r="OA507" s="10"/>
+      <c r="OB507" s="9"/>
+      <c r="OC507" s="10"/>
+      <c r="OD507" s="9"/>
+      <c r="OE507" s="10"/>
+      <c r="OF507" s="9"/>
+      <c r="OG507" s="10"/>
+      <c r="OH507" s="9"/>
+      <c r="OI507" s="10"/>
+      <c r="OJ507" s="9"/>
+      <c r="OK507" s="10"/>
+      <c r="OL507" s="9"/>
+      <c r="OM507" s="10"/>
+      <c r="ON507" s="9"/>
+      <c r="OO507" s="10"/>
+      <c r="OP507" s="9"/>
+      <c r="OQ507" s="10"/>
+      <c r="OR507" s="9"/>
+      <c r="OS507" s="10"/>
+      <c r="OT507" s="9"/>
+      <c r="OU507" s="10"/>
+      <c r="OV507" s="9"/>
+      <c r="OW507" s="10"/>
+      <c r="OX507" s="9"/>
+      <c r="OY507" s="10"/>
+      <c r="OZ507" s="9"/>
+      <c r="PA507" s="10"/>
+      <c r="PB507" s="9"/>
+      <c r="PC507" s="10"/>
+      <c r="PD507" s="9"/>
+      <c r="PE507" s="10"/>
+      <c r="PF507" s="9"/>
+      <c r="PG507" s="10"/>
+      <c r="PH507" s="9"/>
+      <c r="PI507" s="10"/>
+      <c r="PJ507" s="9"/>
+      <c r="PK507" s="10"/>
+      <c r="PL507" s="9"/>
+      <c r="PM507" s="10"/>
+      <c r="PN507" s="9"/>
+      <c r="PO507" s="10"/>
+      <c r="PP507" s="9"/>
+      <c r="PQ507" s="10"/>
+      <c r="PR507" s="9"/>
+      <c r="PS507" s="10"/>
+      <c r="PT507" s="9"/>
+      <c r="PU507" s="10"/>
+      <c r="PV507" s="9"/>
+      <c r="PW507" s="10"/>
+      <c r="PX507" s="9"/>
+      <c r="PY507" s="10"/>
+      <c r="PZ507" s="9"/>
+      <c r="QA507" s="10"/>
+      <c r="QB507" s="9"/>
+      <c r="QC507" s="10"/>
+      <c r="QD507" s="9"/>
+      <c r="QE507" s="10"/>
+      <c r="QF507" s="9"/>
+      <c r="QG507" s="10"/>
+      <c r="QH507" s="9"/>
+      <c r="QI507" s="10"/>
+      <c r="QJ507" s="9"/>
+      <c r="QK507" s="10"/>
+      <c r="QL507" s="9"/>
+      <c r="QM507" s="10"/>
+      <c r="QN507" s="9"/>
+      <c r="QO507" s="10"/>
+      <c r="QP507" s="9"/>
+      <c r="QQ507" s="10"/>
+      <c r="QR507" s="9"/>
+      <c r="QS507" s="10"/>
+      <c r="QT507" s="9"/>
+      <c r="QU507" s="10"/>
+      <c r="QV507" s="9"/>
+      <c r="QW507" s="10"/>
+      <c r="QX507" s="9"/>
+      <c r="QY507" s="10"/>
+      <c r="QZ507" s="9"/>
+      <c r="RA507" s="10"/>
+      <c r="RB507" s="9"/>
+      <c r="RC507" s="10"/>
+      <c r="RD507" s="9"/>
+      <c r="RE507" s="10"/>
+      <c r="RF507" s="9"/>
+      <c r="RG507" s="10"/>
+      <c r="RH507" s="9"/>
+      <c r="RI507" s="10"/>
+      <c r="RJ507" s="9"/>
+      <c r="RK507" s="10"/>
+      <c r="RL507" s="9"/>
+      <c r="RM507" s="10"/>
+      <c r="RN507" s="9"/>
+      <c r="RO507" s="10"/>
+      <c r="RP507" s="9"/>
+      <c r="RQ507" s="10"/>
+      <c r="RR507" s="9"/>
+      <c r="RS507" s="10"/>
+      <c r="RT507" s="9"/>
+      <c r="RU507" s="10"/>
+      <c r="RV507" s="9"/>
+      <c r="RW507" s="10"/>
+      <c r="RX507" s="9"/>
+      <c r="RY507" s="10"/>
+      <c r="RZ507" s="9"/>
+      <c r="SA507" s="10"/>
+      <c r="SB507" s="9"/>
+      <c r="SC507" s="10"/>
+      <c r="SD507" s="9"/>
+      <c r="SE507" s="11"/>
     </row>
-    <row r="508" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B508" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Sociales Derecho Hab Publ]]</f>
         <v>Serv. Sociales Derecho Hab Publ</v>
@@ -57781,8 +61855,503 @@
         <f>SUM(Tabla1[Serv. Sociales Derecho Hab Publ])</f>
         <v>661401</v>
       </c>
+      <c r="E508" s="8"/>
+      <c r="F508" s="9"/>
+      <c r="G508" s="10"/>
+      <c r="H508" s="9"/>
+      <c r="I508" s="10"/>
+      <c r="J508" s="9"/>
+      <c r="K508" s="10"/>
+      <c r="L508" s="9"/>
+      <c r="M508" s="10"/>
+      <c r="N508" s="9"/>
+      <c r="O508" s="10"/>
+      <c r="P508" s="9"/>
+      <c r="Q508" s="10"/>
+      <c r="R508" s="9"/>
+      <c r="S508" s="10"/>
+      <c r="T508" s="9"/>
+      <c r="U508" s="10"/>
+      <c r="V508" s="9"/>
+      <c r="W508" s="10"/>
+      <c r="X508" s="9"/>
+      <c r="Y508" s="10"/>
+      <c r="Z508" s="9"/>
+      <c r="AA508" s="10"/>
+      <c r="AB508" s="9"/>
+      <c r="AC508" s="10"/>
+      <c r="AD508" s="9"/>
+      <c r="AE508" s="10"/>
+      <c r="AF508" s="9"/>
+      <c r="AG508" s="10"/>
+      <c r="AH508" s="9"/>
+      <c r="AI508" s="10"/>
+      <c r="AJ508" s="9"/>
+      <c r="AK508" s="10"/>
+      <c r="AL508" s="9"/>
+      <c r="AM508" s="10"/>
+      <c r="AN508" s="9"/>
+      <c r="AO508" s="10"/>
+      <c r="AP508" s="9"/>
+      <c r="AQ508" s="10"/>
+      <c r="AR508" s="9"/>
+      <c r="AS508" s="10"/>
+      <c r="AT508" s="9"/>
+      <c r="AU508" s="10"/>
+      <c r="AV508" s="9"/>
+      <c r="AW508" s="10"/>
+      <c r="AX508" s="9"/>
+      <c r="AY508" s="10"/>
+      <c r="AZ508" s="9"/>
+      <c r="BA508" s="10"/>
+      <c r="BB508" s="9"/>
+      <c r="BC508" s="10"/>
+      <c r="BD508" s="9"/>
+      <c r="BE508" s="10"/>
+      <c r="BF508" s="9"/>
+      <c r="BG508" s="10"/>
+      <c r="BH508" s="9"/>
+      <c r="BI508" s="10"/>
+      <c r="BJ508" s="9"/>
+      <c r="BK508" s="10"/>
+      <c r="BL508" s="9"/>
+      <c r="BM508" s="10"/>
+      <c r="BN508" s="9"/>
+      <c r="BO508" s="10"/>
+      <c r="BP508" s="9"/>
+      <c r="BQ508" s="10"/>
+      <c r="BR508" s="9"/>
+      <c r="BS508" s="10"/>
+      <c r="BT508" s="9"/>
+      <c r="BU508" s="10"/>
+      <c r="BV508" s="9"/>
+      <c r="BW508" s="10"/>
+      <c r="BX508" s="9"/>
+      <c r="BY508" s="10"/>
+      <c r="BZ508" s="9"/>
+      <c r="CA508" s="10"/>
+      <c r="CB508" s="9"/>
+      <c r="CC508" s="10"/>
+      <c r="CD508" s="9"/>
+      <c r="CE508" s="10"/>
+      <c r="CF508" s="9"/>
+      <c r="CG508" s="10"/>
+      <c r="CH508" s="9"/>
+      <c r="CI508" s="10"/>
+      <c r="CJ508" s="9"/>
+      <c r="CK508" s="10"/>
+      <c r="CL508" s="9"/>
+      <c r="CM508" s="10"/>
+      <c r="CN508" s="9"/>
+      <c r="CO508" s="10"/>
+      <c r="CP508" s="9"/>
+      <c r="CQ508" s="10"/>
+      <c r="CR508" s="9"/>
+      <c r="CS508" s="10"/>
+      <c r="CT508" s="9"/>
+      <c r="CU508" s="10"/>
+      <c r="CV508" s="9"/>
+      <c r="CW508" s="10"/>
+      <c r="CX508" s="9"/>
+      <c r="CY508" s="10"/>
+      <c r="CZ508" s="9"/>
+      <c r="DA508" s="10"/>
+      <c r="DB508" s="9"/>
+      <c r="DC508" s="10"/>
+      <c r="DD508" s="9"/>
+      <c r="DE508" s="10"/>
+      <c r="DF508" s="9"/>
+      <c r="DG508" s="10"/>
+      <c r="DH508" s="9"/>
+      <c r="DI508" s="10"/>
+      <c r="DJ508" s="9"/>
+      <c r="DK508" s="10"/>
+      <c r="DL508" s="9"/>
+      <c r="DM508" s="10"/>
+      <c r="DN508" s="9"/>
+      <c r="DO508" s="10"/>
+      <c r="DP508" s="9"/>
+      <c r="DQ508" s="10"/>
+      <c r="DR508" s="9"/>
+      <c r="DS508" s="10"/>
+      <c r="DT508" s="9"/>
+      <c r="DU508" s="10"/>
+      <c r="DV508" s="9"/>
+      <c r="DW508" s="10"/>
+      <c r="DX508" s="9"/>
+      <c r="DY508" s="10"/>
+      <c r="DZ508" s="9"/>
+      <c r="EA508" s="10"/>
+      <c r="EB508" s="9"/>
+      <c r="EC508" s="10"/>
+      <c r="ED508" s="9"/>
+      <c r="EE508" s="10"/>
+      <c r="EF508" s="9"/>
+      <c r="EG508" s="10"/>
+      <c r="EH508" s="9"/>
+      <c r="EI508" s="10"/>
+      <c r="EJ508" s="9"/>
+      <c r="EK508" s="10"/>
+      <c r="EL508" s="9"/>
+      <c r="EM508" s="10"/>
+      <c r="EN508" s="9"/>
+      <c r="EO508" s="10"/>
+      <c r="EP508" s="9"/>
+      <c r="EQ508" s="10"/>
+      <c r="ER508" s="9"/>
+      <c r="ES508" s="10"/>
+      <c r="ET508" s="9"/>
+      <c r="EU508" s="10"/>
+      <c r="EV508" s="9"/>
+      <c r="EW508" s="10"/>
+      <c r="EX508" s="9"/>
+      <c r="EY508" s="10"/>
+      <c r="EZ508" s="9"/>
+      <c r="FA508" s="10"/>
+      <c r="FB508" s="9"/>
+      <c r="FC508" s="10"/>
+      <c r="FD508" s="9"/>
+      <c r="FE508" s="10"/>
+      <c r="FF508" s="9"/>
+      <c r="FG508" s="10"/>
+      <c r="FH508" s="9"/>
+      <c r="FI508" s="10"/>
+      <c r="FJ508" s="9"/>
+      <c r="FK508" s="10"/>
+      <c r="FL508" s="9"/>
+      <c r="FM508" s="10"/>
+      <c r="FN508" s="9"/>
+      <c r="FO508" s="10"/>
+      <c r="FP508" s="9"/>
+      <c r="FQ508" s="10"/>
+      <c r="FR508" s="9"/>
+      <c r="FS508" s="10"/>
+      <c r="FT508" s="9"/>
+      <c r="FU508" s="10"/>
+      <c r="FV508" s="9"/>
+      <c r="FW508" s="10"/>
+      <c r="FX508" s="9"/>
+      <c r="FY508" s="10"/>
+      <c r="FZ508" s="9"/>
+      <c r="GA508" s="10"/>
+      <c r="GB508" s="9"/>
+      <c r="GC508" s="10"/>
+      <c r="GD508" s="9"/>
+      <c r="GE508" s="10"/>
+      <c r="GF508" s="9"/>
+      <c r="GG508" s="10"/>
+      <c r="GH508" s="9"/>
+      <c r="GI508" s="10"/>
+      <c r="GJ508" s="9"/>
+      <c r="GK508" s="10"/>
+      <c r="GL508" s="9"/>
+      <c r="GM508" s="10"/>
+      <c r="GN508" s="9"/>
+      <c r="GO508" s="10"/>
+      <c r="GP508" s="9"/>
+      <c r="GQ508" s="10"/>
+      <c r="GR508" s="9"/>
+      <c r="GS508" s="10"/>
+      <c r="GT508" s="9"/>
+      <c r="GU508" s="10"/>
+      <c r="GV508" s="9"/>
+      <c r="GW508" s="10"/>
+      <c r="GX508" s="9"/>
+      <c r="GY508" s="10"/>
+      <c r="GZ508" s="9"/>
+      <c r="HA508" s="10"/>
+      <c r="HB508" s="9"/>
+      <c r="HC508" s="10"/>
+      <c r="HD508" s="9"/>
+      <c r="HE508" s="10"/>
+      <c r="HF508" s="9"/>
+      <c r="HG508" s="10"/>
+      <c r="HH508" s="9"/>
+      <c r="HI508" s="10"/>
+      <c r="HJ508" s="9"/>
+      <c r="HK508" s="10"/>
+      <c r="HL508" s="9"/>
+      <c r="HM508" s="10"/>
+      <c r="HN508" s="9"/>
+      <c r="HO508" s="10"/>
+      <c r="HP508" s="9"/>
+      <c r="HQ508" s="10"/>
+      <c r="HR508" s="9"/>
+      <c r="HS508" s="10"/>
+      <c r="HT508" s="9"/>
+      <c r="HU508" s="10"/>
+      <c r="HV508" s="9"/>
+      <c r="HW508" s="10"/>
+      <c r="HX508" s="9"/>
+      <c r="HY508" s="10"/>
+      <c r="HZ508" s="9"/>
+      <c r="IA508" s="10"/>
+      <c r="IB508" s="9"/>
+      <c r="IC508" s="10"/>
+      <c r="ID508" s="9"/>
+      <c r="IE508" s="10"/>
+      <c r="IF508" s="9"/>
+      <c r="IG508" s="10"/>
+      <c r="IH508" s="9"/>
+      <c r="II508" s="10"/>
+      <c r="IJ508" s="9"/>
+      <c r="IK508" s="10"/>
+      <c r="IL508" s="9"/>
+      <c r="IM508" s="10"/>
+      <c r="IN508" s="9"/>
+      <c r="IO508" s="10"/>
+      <c r="IP508" s="9"/>
+      <c r="IQ508" s="10"/>
+      <c r="IR508" s="9"/>
+      <c r="IS508" s="10"/>
+      <c r="IT508" s="9"/>
+      <c r="IU508" s="10"/>
+      <c r="IV508" s="9"/>
+      <c r="IW508" s="10"/>
+      <c r="IX508" s="9"/>
+      <c r="IY508" s="10"/>
+      <c r="IZ508" s="9"/>
+      <c r="JA508" s="10"/>
+      <c r="JB508" s="9"/>
+      <c r="JC508" s="10"/>
+      <c r="JD508" s="9"/>
+      <c r="JE508" s="10"/>
+      <c r="JF508" s="9"/>
+      <c r="JG508" s="10"/>
+      <c r="JH508" s="9"/>
+      <c r="JI508" s="10"/>
+      <c r="JJ508" s="9"/>
+      <c r="JK508" s="10"/>
+      <c r="JL508" s="9"/>
+      <c r="JM508" s="10"/>
+      <c r="JN508" s="9"/>
+      <c r="JO508" s="10"/>
+      <c r="JP508" s="9"/>
+      <c r="JQ508" s="10"/>
+      <c r="JR508" s="9"/>
+      <c r="JS508" s="10"/>
+      <c r="JT508" s="9"/>
+      <c r="JU508" s="10"/>
+      <c r="JV508" s="9"/>
+      <c r="JW508" s="10"/>
+      <c r="JX508" s="9"/>
+      <c r="JY508" s="10"/>
+      <c r="JZ508" s="9"/>
+      <c r="KA508" s="10"/>
+      <c r="KB508" s="9"/>
+      <c r="KC508" s="10"/>
+      <c r="KD508" s="9"/>
+      <c r="KE508" s="10"/>
+      <c r="KF508" s="9"/>
+      <c r="KG508" s="10"/>
+      <c r="KH508" s="9"/>
+      <c r="KI508" s="10"/>
+      <c r="KJ508" s="9"/>
+      <c r="KK508" s="10"/>
+      <c r="KL508" s="9"/>
+      <c r="KM508" s="10"/>
+      <c r="KN508" s="9"/>
+      <c r="KO508" s="10"/>
+      <c r="KP508" s="9"/>
+      <c r="KQ508" s="10"/>
+      <c r="KR508" s="9"/>
+      <c r="KS508" s="10"/>
+      <c r="KT508" s="9"/>
+      <c r="KU508" s="10"/>
+      <c r="KV508" s="9"/>
+      <c r="KW508" s="10"/>
+      <c r="KX508" s="9"/>
+      <c r="KY508" s="10"/>
+      <c r="KZ508" s="9"/>
+      <c r="LA508" s="10"/>
+      <c r="LB508" s="9"/>
+      <c r="LC508" s="10"/>
+      <c r="LD508" s="9"/>
+      <c r="LE508" s="10"/>
+      <c r="LF508" s="9"/>
+      <c r="LG508" s="10"/>
+      <c r="LH508" s="9"/>
+      <c r="LI508" s="10"/>
+      <c r="LJ508" s="9"/>
+      <c r="LK508" s="10"/>
+      <c r="LL508" s="9"/>
+      <c r="LM508" s="10"/>
+      <c r="LN508" s="9"/>
+      <c r="LO508" s="10"/>
+      <c r="LP508" s="9"/>
+      <c r="LQ508" s="10"/>
+      <c r="LR508" s="9"/>
+      <c r="LS508" s="10"/>
+      <c r="LT508" s="9"/>
+      <c r="LU508" s="10"/>
+      <c r="LV508" s="9"/>
+      <c r="LW508" s="10"/>
+      <c r="LX508" s="9"/>
+      <c r="LY508" s="10"/>
+      <c r="LZ508" s="9"/>
+      <c r="MA508" s="10"/>
+      <c r="MB508" s="9"/>
+      <c r="MC508" s="10"/>
+      <c r="MD508" s="9"/>
+      <c r="ME508" s="10"/>
+      <c r="MF508" s="9"/>
+      <c r="MG508" s="10"/>
+      <c r="MH508" s="9"/>
+      <c r="MI508" s="10"/>
+      <c r="MJ508" s="9"/>
+      <c r="MK508" s="10"/>
+      <c r="ML508" s="9"/>
+      <c r="MM508" s="10"/>
+      <c r="MN508" s="9"/>
+      <c r="MO508" s="10"/>
+      <c r="MP508" s="9"/>
+      <c r="MQ508" s="10"/>
+      <c r="MR508" s="9"/>
+      <c r="MS508" s="10"/>
+      <c r="MT508" s="9"/>
+      <c r="MU508" s="10"/>
+      <c r="MV508" s="9"/>
+      <c r="MW508" s="10"/>
+      <c r="MX508" s="9"/>
+      <c r="MY508" s="10"/>
+      <c r="MZ508" s="9"/>
+      <c r="NA508" s="10"/>
+      <c r="NB508" s="9"/>
+      <c r="NC508" s="10"/>
+      <c r="ND508" s="9"/>
+      <c r="NE508" s="10"/>
+      <c r="NF508" s="9"/>
+      <c r="NG508" s="10"/>
+      <c r="NH508" s="9"/>
+      <c r="NI508" s="10"/>
+      <c r="NJ508" s="9"/>
+      <c r="NK508" s="10"/>
+      <c r="NL508" s="9"/>
+      <c r="NM508" s="10"/>
+      <c r="NN508" s="9"/>
+      <c r="NO508" s="10"/>
+      <c r="NP508" s="9"/>
+      <c r="NQ508" s="10"/>
+      <c r="NR508" s="9"/>
+      <c r="NS508" s="10"/>
+      <c r="NT508" s="9"/>
+      <c r="NU508" s="10"/>
+      <c r="NV508" s="9"/>
+      <c r="NW508" s="10"/>
+      <c r="NX508" s="9"/>
+      <c r="NY508" s="10"/>
+      <c r="NZ508" s="9"/>
+      <c r="OA508" s="10"/>
+      <c r="OB508" s="9"/>
+      <c r="OC508" s="10"/>
+      <c r="OD508" s="9"/>
+      <c r="OE508" s="10"/>
+      <c r="OF508" s="9"/>
+      <c r="OG508" s="10"/>
+      <c r="OH508" s="9"/>
+      <c r="OI508" s="10"/>
+      <c r="OJ508" s="9"/>
+      <c r="OK508" s="10"/>
+      <c r="OL508" s="9"/>
+      <c r="OM508" s="10"/>
+      <c r="ON508" s="9"/>
+      <c r="OO508" s="10"/>
+      <c r="OP508" s="9"/>
+      <c r="OQ508" s="10"/>
+      <c r="OR508" s="9"/>
+      <c r="OS508" s="10"/>
+      <c r="OT508" s="9"/>
+      <c r="OU508" s="10"/>
+      <c r="OV508" s="9"/>
+      <c r="OW508" s="10"/>
+      <c r="OX508" s="9"/>
+      <c r="OY508" s="10"/>
+      <c r="OZ508" s="9"/>
+      <c r="PA508" s="10"/>
+      <c r="PB508" s="9"/>
+      <c r="PC508" s="10"/>
+      <c r="PD508" s="9"/>
+      <c r="PE508" s="10"/>
+      <c r="PF508" s="9"/>
+      <c r="PG508" s="10"/>
+      <c r="PH508" s="9"/>
+      <c r="PI508" s="10"/>
+      <c r="PJ508" s="9"/>
+      <c r="PK508" s="10"/>
+      <c r="PL508" s="9"/>
+      <c r="PM508" s="10"/>
+      <c r="PN508" s="9"/>
+      <c r="PO508" s="10"/>
+      <c r="PP508" s="9"/>
+      <c r="PQ508" s="10"/>
+      <c r="PR508" s="9"/>
+      <c r="PS508" s="10"/>
+      <c r="PT508" s="9"/>
+      <c r="PU508" s="10"/>
+      <c r="PV508" s="9"/>
+      <c r="PW508" s="10"/>
+      <c r="PX508" s="9"/>
+      <c r="PY508" s="10"/>
+      <c r="PZ508" s="9"/>
+      <c r="QA508" s="10"/>
+      <c r="QB508" s="9"/>
+      <c r="QC508" s="10"/>
+      <c r="QD508" s="9"/>
+      <c r="QE508" s="10"/>
+      <c r="QF508" s="9"/>
+      <c r="QG508" s="10"/>
+      <c r="QH508" s="9"/>
+      <c r="QI508" s="10"/>
+      <c r="QJ508" s="9"/>
+      <c r="QK508" s="10"/>
+      <c r="QL508" s="9"/>
+      <c r="QM508" s="10"/>
+      <c r="QN508" s="9"/>
+      <c r="QO508" s="10"/>
+      <c r="QP508" s="9"/>
+      <c r="QQ508" s="10"/>
+      <c r="QR508" s="9"/>
+      <c r="QS508" s="10"/>
+      <c r="QT508" s="9"/>
+      <c r="QU508" s="10"/>
+      <c r="QV508" s="9"/>
+      <c r="QW508" s="10"/>
+      <c r="QX508" s="9"/>
+      <c r="QY508" s="10"/>
+      <c r="QZ508" s="9"/>
+      <c r="RA508" s="10"/>
+      <c r="RB508" s="9"/>
+      <c r="RC508" s="10"/>
+      <c r="RD508" s="9"/>
+      <c r="RE508" s="10"/>
+      <c r="RF508" s="9"/>
+      <c r="RG508" s="10"/>
+      <c r="RH508" s="9"/>
+      <c r="RI508" s="10"/>
+      <c r="RJ508" s="9"/>
+      <c r="RK508" s="10"/>
+      <c r="RL508" s="9"/>
+      <c r="RM508" s="10"/>
+      <c r="RN508" s="9"/>
+      <c r="RO508" s="10"/>
+      <c r="RP508" s="9"/>
+      <c r="RQ508" s="10"/>
+      <c r="RR508" s="9"/>
+      <c r="RS508" s="10"/>
+      <c r="RT508" s="9"/>
+      <c r="RU508" s="10"/>
+      <c r="RV508" s="9"/>
+      <c r="RW508" s="10"/>
+      <c r="RX508" s="9"/>
+      <c r="RY508" s="10"/>
+      <c r="RZ508" s="9"/>
+      <c r="SA508" s="10"/>
+      <c r="SB508" s="9"/>
+      <c r="SC508" s="10"/>
+      <c r="SD508" s="9"/>
+      <c r="SE508" s="11"/>
     </row>
-    <row r="509" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B509" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Funerarios Derecho Hab Publ]]</f>
         <v>Serv. Funerarios Derecho Hab Publ</v>
@@ -57791,8 +62360,503 @@
         <f>SUM(Tabla1[Serv. Funerarios Derecho Hab Publ])</f>
         <v>322484</v>
       </c>
+      <c r="E509" s="7"/>
+      <c r="F509" s="9"/>
+      <c r="G509" s="10"/>
+      <c r="H509" s="9"/>
+      <c r="I509" s="10"/>
+      <c r="J509" s="9"/>
+      <c r="K509" s="10"/>
+      <c r="L509" s="9"/>
+      <c r="M509" s="10"/>
+      <c r="N509" s="9"/>
+      <c r="O509" s="10"/>
+      <c r="P509" s="9"/>
+      <c r="Q509" s="10"/>
+      <c r="R509" s="9"/>
+      <c r="S509" s="10"/>
+      <c r="T509" s="9"/>
+      <c r="U509" s="10"/>
+      <c r="V509" s="9"/>
+      <c r="W509" s="10"/>
+      <c r="X509" s="9"/>
+      <c r="Y509" s="10"/>
+      <c r="Z509" s="9"/>
+      <c r="AA509" s="10"/>
+      <c r="AB509" s="9"/>
+      <c r="AC509" s="10"/>
+      <c r="AD509" s="9"/>
+      <c r="AE509" s="10"/>
+      <c r="AF509" s="9"/>
+      <c r="AG509" s="10"/>
+      <c r="AH509" s="9"/>
+      <c r="AI509" s="10"/>
+      <c r="AJ509" s="9"/>
+      <c r="AK509" s="10"/>
+      <c r="AL509" s="9"/>
+      <c r="AM509" s="10"/>
+      <c r="AN509" s="9"/>
+      <c r="AO509" s="10"/>
+      <c r="AP509" s="9"/>
+      <c r="AQ509" s="10"/>
+      <c r="AR509" s="9"/>
+      <c r="AS509" s="10"/>
+      <c r="AT509" s="9"/>
+      <c r="AU509" s="10"/>
+      <c r="AV509" s="9"/>
+      <c r="AW509" s="10"/>
+      <c r="AX509" s="9"/>
+      <c r="AY509" s="10"/>
+      <c r="AZ509" s="9"/>
+      <c r="BA509" s="10"/>
+      <c r="BB509" s="9"/>
+      <c r="BC509" s="10"/>
+      <c r="BD509" s="9"/>
+      <c r="BE509" s="10"/>
+      <c r="BF509" s="9"/>
+      <c r="BG509" s="10"/>
+      <c r="BH509" s="9"/>
+      <c r="BI509" s="10"/>
+      <c r="BJ509" s="9"/>
+      <c r="BK509" s="10"/>
+      <c r="BL509" s="9"/>
+      <c r="BM509" s="10"/>
+      <c r="BN509" s="9"/>
+      <c r="BO509" s="10"/>
+      <c r="BP509" s="9"/>
+      <c r="BQ509" s="10"/>
+      <c r="BR509" s="9"/>
+      <c r="BS509" s="10"/>
+      <c r="BT509" s="9"/>
+      <c r="BU509" s="10"/>
+      <c r="BV509" s="9"/>
+      <c r="BW509" s="10"/>
+      <c r="BX509" s="9"/>
+      <c r="BY509" s="10"/>
+      <c r="BZ509" s="9"/>
+      <c r="CA509" s="10"/>
+      <c r="CB509" s="9"/>
+      <c r="CC509" s="10"/>
+      <c r="CD509" s="9"/>
+      <c r="CE509" s="10"/>
+      <c r="CF509" s="9"/>
+      <c r="CG509" s="10"/>
+      <c r="CH509" s="9"/>
+      <c r="CI509" s="10"/>
+      <c r="CJ509" s="9"/>
+      <c r="CK509" s="10"/>
+      <c r="CL509" s="9"/>
+      <c r="CM509" s="10"/>
+      <c r="CN509" s="9"/>
+      <c r="CO509" s="10"/>
+      <c r="CP509" s="9"/>
+      <c r="CQ509" s="10"/>
+      <c r="CR509" s="9"/>
+      <c r="CS509" s="10"/>
+      <c r="CT509" s="9"/>
+      <c r="CU509" s="10"/>
+      <c r="CV509" s="9"/>
+      <c r="CW509" s="10"/>
+      <c r="CX509" s="9"/>
+      <c r="CY509" s="10"/>
+      <c r="CZ509" s="9"/>
+      <c r="DA509" s="10"/>
+      <c r="DB509" s="9"/>
+      <c r="DC509" s="10"/>
+      <c r="DD509" s="9"/>
+      <c r="DE509" s="10"/>
+      <c r="DF509" s="9"/>
+      <c r="DG509" s="10"/>
+      <c r="DH509" s="9"/>
+      <c r="DI509" s="10"/>
+      <c r="DJ509" s="9"/>
+      <c r="DK509" s="10"/>
+      <c r="DL509" s="9"/>
+      <c r="DM509" s="10"/>
+      <c r="DN509" s="9"/>
+      <c r="DO509" s="10"/>
+      <c r="DP509" s="9"/>
+      <c r="DQ509" s="10"/>
+      <c r="DR509" s="9"/>
+      <c r="DS509" s="10"/>
+      <c r="DT509" s="9"/>
+      <c r="DU509" s="10"/>
+      <c r="DV509" s="9"/>
+      <c r="DW509" s="10"/>
+      <c r="DX509" s="9"/>
+      <c r="DY509" s="10"/>
+      <c r="DZ509" s="9"/>
+      <c r="EA509" s="10"/>
+      <c r="EB509" s="9"/>
+      <c r="EC509" s="10"/>
+      <c r="ED509" s="9"/>
+      <c r="EE509" s="10"/>
+      <c r="EF509" s="9"/>
+      <c r="EG509" s="10"/>
+      <c r="EH509" s="9"/>
+      <c r="EI509" s="10"/>
+      <c r="EJ509" s="9"/>
+      <c r="EK509" s="10"/>
+      <c r="EL509" s="9"/>
+      <c r="EM509" s="10"/>
+      <c r="EN509" s="9"/>
+      <c r="EO509" s="10"/>
+      <c r="EP509" s="9"/>
+      <c r="EQ509" s="10"/>
+      <c r="ER509" s="9"/>
+      <c r="ES509" s="10"/>
+      <c r="ET509" s="9"/>
+      <c r="EU509" s="10"/>
+      <c r="EV509" s="9"/>
+      <c r="EW509" s="10"/>
+      <c r="EX509" s="9"/>
+      <c r="EY509" s="10"/>
+      <c r="EZ509" s="9"/>
+      <c r="FA509" s="10"/>
+      <c r="FB509" s="9"/>
+      <c r="FC509" s="10"/>
+      <c r="FD509" s="9"/>
+      <c r="FE509" s="10"/>
+      <c r="FF509" s="9"/>
+      <c r="FG509" s="10"/>
+      <c r="FH509" s="9"/>
+      <c r="FI509" s="10"/>
+      <c r="FJ509" s="9"/>
+      <c r="FK509" s="10"/>
+      <c r="FL509" s="9"/>
+      <c r="FM509" s="10"/>
+      <c r="FN509" s="9"/>
+      <c r="FO509" s="10"/>
+      <c r="FP509" s="9"/>
+      <c r="FQ509" s="10"/>
+      <c r="FR509" s="9"/>
+      <c r="FS509" s="10"/>
+      <c r="FT509" s="9"/>
+      <c r="FU509" s="10"/>
+      <c r="FV509" s="9"/>
+      <c r="FW509" s="10"/>
+      <c r="FX509" s="9"/>
+      <c r="FY509" s="10"/>
+      <c r="FZ509" s="9"/>
+      <c r="GA509" s="10"/>
+      <c r="GB509" s="9"/>
+      <c r="GC509" s="10"/>
+      <c r="GD509" s="9"/>
+      <c r="GE509" s="10"/>
+      <c r="GF509" s="9"/>
+      <c r="GG509" s="10"/>
+      <c r="GH509" s="9"/>
+      <c r="GI509" s="10"/>
+      <c r="GJ509" s="9"/>
+      <c r="GK509" s="10"/>
+      <c r="GL509" s="9"/>
+      <c r="GM509" s="10"/>
+      <c r="GN509" s="9"/>
+      <c r="GO509" s="10"/>
+      <c r="GP509" s="9"/>
+      <c r="GQ509" s="10"/>
+      <c r="GR509" s="9"/>
+      <c r="GS509" s="10"/>
+      <c r="GT509" s="9"/>
+      <c r="GU509" s="10"/>
+      <c r="GV509" s="9"/>
+      <c r="GW509" s="10"/>
+      <c r="GX509" s="9"/>
+      <c r="GY509" s="10"/>
+      <c r="GZ509" s="9"/>
+      <c r="HA509" s="10"/>
+      <c r="HB509" s="9"/>
+      <c r="HC509" s="10"/>
+      <c r="HD509" s="9"/>
+      <c r="HE509" s="10"/>
+      <c r="HF509" s="9"/>
+      <c r="HG509" s="10"/>
+      <c r="HH509" s="9"/>
+      <c r="HI509" s="10"/>
+      <c r="HJ509" s="9"/>
+      <c r="HK509" s="10"/>
+      <c r="HL509" s="9"/>
+      <c r="HM509" s="10"/>
+      <c r="HN509" s="9"/>
+      <c r="HO509" s="10"/>
+      <c r="HP509" s="9"/>
+      <c r="HQ509" s="10"/>
+      <c r="HR509" s="9"/>
+      <c r="HS509" s="10"/>
+      <c r="HT509" s="9"/>
+      <c r="HU509" s="10"/>
+      <c r="HV509" s="9"/>
+      <c r="HW509" s="10"/>
+      <c r="HX509" s="9"/>
+      <c r="HY509" s="10"/>
+      <c r="HZ509" s="9"/>
+      <c r="IA509" s="10"/>
+      <c r="IB509" s="9"/>
+      <c r="IC509" s="10"/>
+      <c r="ID509" s="9"/>
+      <c r="IE509" s="10"/>
+      <c r="IF509" s="9"/>
+      <c r="IG509" s="10"/>
+      <c r="IH509" s="9"/>
+      <c r="II509" s="10"/>
+      <c r="IJ509" s="9"/>
+      <c r="IK509" s="10"/>
+      <c r="IL509" s="9"/>
+      <c r="IM509" s="10"/>
+      <c r="IN509" s="9"/>
+      <c r="IO509" s="10"/>
+      <c r="IP509" s="9"/>
+      <c r="IQ509" s="10"/>
+      <c r="IR509" s="9"/>
+      <c r="IS509" s="10"/>
+      <c r="IT509" s="9"/>
+      <c r="IU509" s="10"/>
+      <c r="IV509" s="9"/>
+      <c r="IW509" s="10"/>
+      <c r="IX509" s="9"/>
+      <c r="IY509" s="10"/>
+      <c r="IZ509" s="9"/>
+      <c r="JA509" s="10"/>
+      <c r="JB509" s="9"/>
+      <c r="JC509" s="10"/>
+      <c r="JD509" s="9"/>
+      <c r="JE509" s="10"/>
+      <c r="JF509" s="9"/>
+      <c r="JG509" s="10"/>
+      <c r="JH509" s="9"/>
+      <c r="JI509" s="10"/>
+      <c r="JJ509" s="9"/>
+      <c r="JK509" s="10"/>
+      <c r="JL509" s="9"/>
+      <c r="JM509" s="10"/>
+      <c r="JN509" s="9"/>
+      <c r="JO509" s="10"/>
+      <c r="JP509" s="9"/>
+      <c r="JQ509" s="10"/>
+      <c r="JR509" s="9"/>
+      <c r="JS509" s="10"/>
+      <c r="JT509" s="9"/>
+      <c r="JU509" s="10"/>
+      <c r="JV509" s="9"/>
+      <c r="JW509" s="10"/>
+      <c r="JX509" s="9"/>
+      <c r="JY509" s="10"/>
+      <c r="JZ509" s="9"/>
+      <c r="KA509" s="10"/>
+      <c r="KB509" s="9"/>
+      <c r="KC509" s="10"/>
+      <c r="KD509" s="9"/>
+      <c r="KE509" s="10"/>
+      <c r="KF509" s="9"/>
+      <c r="KG509" s="10"/>
+      <c r="KH509" s="9"/>
+      <c r="KI509" s="10"/>
+      <c r="KJ509" s="9"/>
+      <c r="KK509" s="10"/>
+      <c r="KL509" s="9"/>
+      <c r="KM509" s="10"/>
+      <c r="KN509" s="9"/>
+      <c r="KO509" s="10"/>
+      <c r="KP509" s="9"/>
+      <c r="KQ509" s="10"/>
+      <c r="KR509" s="9"/>
+      <c r="KS509" s="10"/>
+      <c r="KT509" s="9"/>
+      <c r="KU509" s="10"/>
+      <c r="KV509" s="9"/>
+      <c r="KW509" s="10"/>
+      <c r="KX509" s="9"/>
+      <c r="KY509" s="10"/>
+      <c r="KZ509" s="9"/>
+      <c r="LA509" s="10"/>
+      <c r="LB509" s="9"/>
+      <c r="LC509" s="10"/>
+      <c r="LD509" s="9"/>
+      <c r="LE509" s="10"/>
+      <c r="LF509" s="9"/>
+      <c r="LG509" s="10"/>
+      <c r="LH509" s="9"/>
+      <c r="LI509" s="10"/>
+      <c r="LJ509" s="9"/>
+      <c r="LK509" s="10"/>
+      <c r="LL509" s="9"/>
+      <c r="LM509" s="10"/>
+      <c r="LN509" s="9"/>
+      <c r="LO509" s="10"/>
+      <c r="LP509" s="9"/>
+      <c r="LQ509" s="10"/>
+      <c r="LR509" s="9"/>
+      <c r="LS509" s="10"/>
+      <c r="LT509" s="9"/>
+      <c r="LU509" s="10"/>
+      <c r="LV509" s="9"/>
+      <c r="LW509" s="10"/>
+      <c r="LX509" s="9"/>
+      <c r="LY509" s="10"/>
+      <c r="LZ509" s="9"/>
+      <c r="MA509" s="10"/>
+      <c r="MB509" s="9"/>
+      <c r="MC509" s="10"/>
+      <c r="MD509" s="9"/>
+      <c r="ME509" s="10"/>
+      <c r="MF509" s="9"/>
+      <c r="MG509" s="10"/>
+      <c r="MH509" s="9"/>
+      <c r="MI509" s="10"/>
+      <c r="MJ509" s="9"/>
+      <c r="MK509" s="10"/>
+      <c r="ML509" s="9"/>
+      <c r="MM509" s="10"/>
+      <c r="MN509" s="9"/>
+      <c r="MO509" s="10"/>
+      <c r="MP509" s="9"/>
+      <c r="MQ509" s="10"/>
+      <c r="MR509" s="9"/>
+      <c r="MS509" s="10"/>
+      <c r="MT509" s="9"/>
+      <c r="MU509" s="10"/>
+      <c r="MV509" s="9"/>
+      <c r="MW509" s="10"/>
+      <c r="MX509" s="9"/>
+      <c r="MY509" s="10"/>
+      <c r="MZ509" s="9"/>
+      <c r="NA509" s="10"/>
+      <c r="NB509" s="9"/>
+      <c r="NC509" s="10"/>
+      <c r="ND509" s="9"/>
+      <c r="NE509" s="10"/>
+      <c r="NF509" s="9"/>
+      <c r="NG509" s="10"/>
+      <c r="NH509" s="9"/>
+      <c r="NI509" s="10"/>
+      <c r="NJ509" s="9"/>
+      <c r="NK509" s="10"/>
+      <c r="NL509" s="9"/>
+      <c r="NM509" s="10"/>
+      <c r="NN509" s="9"/>
+      <c r="NO509" s="10"/>
+      <c r="NP509" s="9"/>
+      <c r="NQ509" s="10"/>
+      <c r="NR509" s="9"/>
+      <c r="NS509" s="10"/>
+      <c r="NT509" s="9"/>
+      <c r="NU509" s="10"/>
+      <c r="NV509" s="9"/>
+      <c r="NW509" s="10"/>
+      <c r="NX509" s="9"/>
+      <c r="NY509" s="10"/>
+      <c r="NZ509" s="9"/>
+      <c r="OA509" s="10"/>
+      <c r="OB509" s="9"/>
+      <c r="OC509" s="10"/>
+      <c r="OD509" s="9"/>
+      <c r="OE509" s="10"/>
+      <c r="OF509" s="9"/>
+      <c r="OG509" s="10"/>
+      <c r="OH509" s="9"/>
+      <c r="OI509" s="10"/>
+      <c r="OJ509" s="9"/>
+      <c r="OK509" s="10"/>
+      <c r="OL509" s="9"/>
+      <c r="OM509" s="10"/>
+      <c r="ON509" s="9"/>
+      <c r="OO509" s="10"/>
+      <c r="OP509" s="9"/>
+      <c r="OQ509" s="10"/>
+      <c r="OR509" s="9"/>
+      <c r="OS509" s="10"/>
+      <c r="OT509" s="9"/>
+      <c r="OU509" s="10"/>
+      <c r="OV509" s="9"/>
+      <c r="OW509" s="10"/>
+      <c r="OX509" s="9"/>
+      <c r="OY509" s="10"/>
+      <c r="OZ509" s="9"/>
+      <c r="PA509" s="10"/>
+      <c r="PB509" s="9"/>
+      <c r="PC509" s="10"/>
+      <c r="PD509" s="9"/>
+      <c r="PE509" s="10"/>
+      <c r="PF509" s="9"/>
+      <c r="PG509" s="10"/>
+      <c r="PH509" s="9"/>
+      <c r="PI509" s="10"/>
+      <c r="PJ509" s="9"/>
+      <c r="PK509" s="10"/>
+      <c r="PL509" s="9"/>
+      <c r="PM509" s="10"/>
+      <c r="PN509" s="9"/>
+      <c r="PO509" s="10"/>
+      <c r="PP509" s="9"/>
+      <c r="PQ509" s="10"/>
+      <c r="PR509" s="9"/>
+      <c r="PS509" s="10"/>
+      <c r="PT509" s="9"/>
+      <c r="PU509" s="10"/>
+      <c r="PV509" s="9"/>
+      <c r="PW509" s="10"/>
+      <c r="PX509" s="9"/>
+      <c r="PY509" s="10"/>
+      <c r="PZ509" s="9"/>
+      <c r="QA509" s="10"/>
+      <c r="QB509" s="9"/>
+      <c r="QC509" s="10"/>
+      <c r="QD509" s="9"/>
+      <c r="QE509" s="10"/>
+      <c r="QF509" s="9"/>
+      <c r="QG509" s="10"/>
+      <c r="QH509" s="9"/>
+      <c r="QI509" s="10"/>
+      <c r="QJ509" s="9"/>
+      <c r="QK509" s="10"/>
+      <c r="QL509" s="9"/>
+      <c r="QM509" s="10"/>
+      <c r="QN509" s="9"/>
+      <c r="QO509" s="10"/>
+      <c r="QP509" s="9"/>
+      <c r="QQ509" s="10"/>
+      <c r="QR509" s="9"/>
+      <c r="QS509" s="10"/>
+      <c r="QT509" s="9"/>
+      <c r="QU509" s="10"/>
+      <c r="QV509" s="9"/>
+      <c r="QW509" s="10"/>
+      <c r="QX509" s="9"/>
+      <c r="QY509" s="10"/>
+      <c r="QZ509" s="9"/>
+      <c r="RA509" s="10"/>
+      <c r="RB509" s="9"/>
+      <c r="RC509" s="10"/>
+      <c r="RD509" s="9"/>
+      <c r="RE509" s="10"/>
+      <c r="RF509" s="9"/>
+      <c r="RG509" s="10"/>
+      <c r="RH509" s="9"/>
+      <c r="RI509" s="10"/>
+      <c r="RJ509" s="9"/>
+      <c r="RK509" s="10"/>
+      <c r="RL509" s="9"/>
+      <c r="RM509" s="10"/>
+      <c r="RN509" s="9"/>
+      <c r="RO509" s="10"/>
+      <c r="RP509" s="9"/>
+      <c r="RQ509" s="10"/>
+      <c r="RR509" s="9"/>
+      <c r="RS509" s="10"/>
+      <c r="RT509" s="9"/>
+      <c r="RU509" s="10"/>
+      <c r="RV509" s="9"/>
+      <c r="RW509" s="10"/>
+      <c r="RX509" s="9"/>
+      <c r="RY509" s="10"/>
+      <c r="RZ509" s="9"/>
+      <c r="SA509" s="10"/>
+      <c r="SB509" s="9"/>
+      <c r="SC509" s="10"/>
+      <c r="SD509" s="9"/>
+      <c r="SE509" s="11"/>
     </row>
-    <row r="510" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B510" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Sociales Pensionados Jubl]]</f>
         <v>Serv. Sociales Pensionados Jubl</v>
@@ -57801,8 +62865,503 @@
         <f>SUM(Tabla1[Serv. Sociales Pensionados Jubl])</f>
         <v>2175717</v>
       </c>
+      <c r="E510" s="8"/>
+      <c r="F510" s="9"/>
+      <c r="G510" s="10"/>
+      <c r="H510" s="9"/>
+      <c r="I510" s="10"/>
+      <c r="J510" s="9"/>
+      <c r="K510" s="10"/>
+      <c r="L510" s="9"/>
+      <c r="M510" s="10"/>
+      <c r="N510" s="9"/>
+      <c r="O510" s="10"/>
+      <c r="P510" s="9"/>
+      <c r="Q510" s="10"/>
+      <c r="R510" s="9"/>
+      <c r="S510" s="10"/>
+      <c r="T510" s="9"/>
+      <c r="U510" s="10"/>
+      <c r="V510" s="9"/>
+      <c r="W510" s="10"/>
+      <c r="X510" s="9"/>
+      <c r="Y510" s="10"/>
+      <c r="Z510" s="9"/>
+      <c r="AA510" s="10"/>
+      <c r="AB510" s="9"/>
+      <c r="AC510" s="10"/>
+      <c r="AD510" s="9"/>
+      <c r="AE510" s="10"/>
+      <c r="AF510" s="9"/>
+      <c r="AG510" s="10"/>
+      <c r="AH510" s="9"/>
+      <c r="AI510" s="10"/>
+      <c r="AJ510" s="9"/>
+      <c r="AK510" s="10"/>
+      <c r="AL510" s="9"/>
+      <c r="AM510" s="10"/>
+      <c r="AN510" s="9"/>
+      <c r="AO510" s="10"/>
+      <c r="AP510" s="9"/>
+      <c r="AQ510" s="10"/>
+      <c r="AR510" s="9"/>
+      <c r="AS510" s="10"/>
+      <c r="AT510" s="9"/>
+      <c r="AU510" s="10"/>
+      <c r="AV510" s="9"/>
+      <c r="AW510" s="10"/>
+      <c r="AX510" s="9"/>
+      <c r="AY510" s="10"/>
+      <c r="AZ510" s="9"/>
+      <c r="BA510" s="10"/>
+      <c r="BB510" s="9"/>
+      <c r="BC510" s="10"/>
+      <c r="BD510" s="9"/>
+      <c r="BE510" s="10"/>
+      <c r="BF510" s="9"/>
+      <c r="BG510" s="10"/>
+      <c r="BH510" s="9"/>
+      <c r="BI510" s="10"/>
+      <c r="BJ510" s="9"/>
+      <c r="BK510" s="10"/>
+      <c r="BL510" s="9"/>
+      <c r="BM510" s="10"/>
+      <c r="BN510" s="9"/>
+      <c r="BO510" s="10"/>
+      <c r="BP510" s="9"/>
+      <c r="BQ510" s="10"/>
+      <c r="BR510" s="9"/>
+      <c r="BS510" s="10"/>
+      <c r="BT510" s="9"/>
+      <c r="BU510" s="10"/>
+      <c r="BV510" s="9"/>
+      <c r="BW510" s="10"/>
+      <c r="BX510" s="9"/>
+      <c r="BY510" s="10"/>
+      <c r="BZ510" s="9"/>
+      <c r="CA510" s="10"/>
+      <c r="CB510" s="9"/>
+      <c r="CC510" s="10"/>
+      <c r="CD510" s="9"/>
+      <c r="CE510" s="10"/>
+      <c r="CF510" s="9"/>
+      <c r="CG510" s="10"/>
+      <c r="CH510" s="9"/>
+      <c r="CI510" s="10"/>
+      <c r="CJ510" s="9"/>
+      <c r="CK510" s="10"/>
+      <c r="CL510" s="9"/>
+      <c r="CM510" s="10"/>
+      <c r="CN510" s="9"/>
+      <c r="CO510" s="10"/>
+      <c r="CP510" s="9"/>
+      <c r="CQ510" s="10"/>
+      <c r="CR510" s="9"/>
+      <c r="CS510" s="10"/>
+      <c r="CT510" s="9"/>
+      <c r="CU510" s="10"/>
+      <c r="CV510" s="9"/>
+      <c r="CW510" s="10"/>
+      <c r="CX510" s="9"/>
+      <c r="CY510" s="10"/>
+      <c r="CZ510" s="9"/>
+      <c r="DA510" s="10"/>
+      <c r="DB510" s="9"/>
+      <c r="DC510" s="10"/>
+      <c r="DD510" s="9"/>
+      <c r="DE510" s="10"/>
+      <c r="DF510" s="9"/>
+      <c r="DG510" s="10"/>
+      <c r="DH510" s="9"/>
+      <c r="DI510" s="10"/>
+      <c r="DJ510" s="9"/>
+      <c r="DK510" s="10"/>
+      <c r="DL510" s="9"/>
+      <c r="DM510" s="10"/>
+      <c r="DN510" s="9"/>
+      <c r="DO510" s="10"/>
+      <c r="DP510" s="9"/>
+      <c r="DQ510" s="10"/>
+      <c r="DR510" s="9"/>
+      <c r="DS510" s="10"/>
+      <c r="DT510" s="9"/>
+      <c r="DU510" s="10"/>
+      <c r="DV510" s="9"/>
+      <c r="DW510" s="10"/>
+      <c r="DX510" s="9"/>
+      <c r="DY510" s="10"/>
+      <c r="DZ510" s="9"/>
+      <c r="EA510" s="10"/>
+      <c r="EB510" s="9"/>
+      <c r="EC510" s="10"/>
+      <c r="ED510" s="9"/>
+      <c r="EE510" s="10"/>
+      <c r="EF510" s="9"/>
+      <c r="EG510" s="10"/>
+      <c r="EH510" s="9"/>
+      <c r="EI510" s="10"/>
+      <c r="EJ510" s="9"/>
+      <c r="EK510" s="10"/>
+      <c r="EL510" s="9"/>
+      <c r="EM510" s="10"/>
+      <c r="EN510" s="9"/>
+      <c r="EO510" s="10"/>
+      <c r="EP510" s="9"/>
+      <c r="EQ510" s="10"/>
+      <c r="ER510" s="9"/>
+      <c r="ES510" s="10"/>
+      <c r="ET510" s="9"/>
+      <c r="EU510" s="10"/>
+      <c r="EV510" s="9"/>
+      <c r="EW510" s="10"/>
+      <c r="EX510" s="9"/>
+      <c r="EY510" s="10"/>
+      <c r="EZ510" s="9"/>
+      <c r="FA510" s="10"/>
+      <c r="FB510" s="9"/>
+      <c r="FC510" s="10"/>
+      <c r="FD510" s="9"/>
+      <c r="FE510" s="10"/>
+      <c r="FF510" s="9"/>
+      <c r="FG510" s="10"/>
+      <c r="FH510" s="9"/>
+      <c r="FI510" s="10"/>
+      <c r="FJ510" s="9"/>
+      <c r="FK510" s="10"/>
+      <c r="FL510" s="9"/>
+      <c r="FM510" s="10"/>
+      <c r="FN510" s="9"/>
+      <c r="FO510" s="10"/>
+      <c r="FP510" s="9"/>
+      <c r="FQ510" s="10"/>
+      <c r="FR510" s="9"/>
+      <c r="FS510" s="10"/>
+      <c r="FT510" s="9"/>
+      <c r="FU510" s="10"/>
+      <c r="FV510" s="9"/>
+      <c r="FW510" s="10"/>
+      <c r="FX510" s="9"/>
+      <c r="FY510" s="10"/>
+      <c r="FZ510" s="9"/>
+      <c r="GA510" s="10"/>
+      <c r="GB510" s="9"/>
+      <c r="GC510" s="10"/>
+      <c r="GD510" s="9"/>
+      <c r="GE510" s="10"/>
+      <c r="GF510" s="9"/>
+      <c r="GG510" s="10"/>
+      <c r="GH510" s="9"/>
+      <c r="GI510" s="10"/>
+      <c r="GJ510" s="9"/>
+      <c r="GK510" s="10"/>
+      <c r="GL510" s="9"/>
+      <c r="GM510" s="10"/>
+      <c r="GN510" s="9"/>
+      <c r="GO510" s="10"/>
+      <c r="GP510" s="9"/>
+      <c r="GQ510" s="10"/>
+      <c r="GR510" s="9"/>
+      <c r="GS510" s="10"/>
+      <c r="GT510" s="9"/>
+      <c r="GU510" s="10"/>
+      <c r="GV510" s="9"/>
+      <c r="GW510" s="10"/>
+      <c r="GX510" s="9"/>
+      <c r="GY510" s="10"/>
+      <c r="GZ510" s="9"/>
+      <c r="HA510" s="10"/>
+      <c r="HB510" s="9"/>
+      <c r="HC510" s="10"/>
+      <c r="HD510" s="9"/>
+      <c r="HE510" s="10"/>
+      <c r="HF510" s="9"/>
+      <c r="HG510" s="10"/>
+      <c r="HH510" s="9"/>
+      <c r="HI510" s="10"/>
+      <c r="HJ510" s="9"/>
+      <c r="HK510" s="10"/>
+      <c r="HL510" s="9"/>
+      <c r="HM510" s="10"/>
+      <c r="HN510" s="9"/>
+      <c r="HO510" s="10"/>
+      <c r="HP510" s="9"/>
+      <c r="HQ510" s="10"/>
+      <c r="HR510" s="9"/>
+      <c r="HS510" s="10"/>
+      <c r="HT510" s="9"/>
+      <c r="HU510" s="10"/>
+      <c r="HV510" s="9"/>
+      <c r="HW510" s="10"/>
+      <c r="HX510" s="9"/>
+      <c r="HY510" s="10"/>
+      <c r="HZ510" s="9"/>
+      <c r="IA510" s="10"/>
+      <c r="IB510" s="9"/>
+      <c r="IC510" s="10"/>
+      <c r="ID510" s="9"/>
+      <c r="IE510" s="10"/>
+      <c r="IF510" s="9"/>
+      <c r="IG510" s="10"/>
+      <c r="IH510" s="9"/>
+      <c r="II510" s="10"/>
+      <c r="IJ510" s="9"/>
+      <c r="IK510" s="10"/>
+      <c r="IL510" s="9"/>
+      <c r="IM510" s="10"/>
+      <c r="IN510" s="9"/>
+      <c r="IO510" s="10"/>
+      <c r="IP510" s="9"/>
+      <c r="IQ510" s="10"/>
+      <c r="IR510" s="9"/>
+      <c r="IS510" s="10"/>
+      <c r="IT510" s="9"/>
+      <c r="IU510" s="10"/>
+      <c r="IV510" s="9"/>
+      <c r="IW510" s="10"/>
+      <c r="IX510" s="9"/>
+      <c r="IY510" s="10"/>
+      <c r="IZ510" s="9"/>
+      <c r="JA510" s="10"/>
+      <c r="JB510" s="9"/>
+      <c r="JC510" s="10"/>
+      <c r="JD510" s="9"/>
+      <c r="JE510" s="10"/>
+      <c r="JF510" s="9"/>
+      <c r="JG510" s="10"/>
+      <c r="JH510" s="9"/>
+      <c r="JI510" s="10"/>
+      <c r="JJ510" s="9"/>
+      <c r="JK510" s="10"/>
+      <c r="JL510" s="9"/>
+      <c r="JM510" s="10"/>
+      <c r="JN510" s="9"/>
+      <c r="JO510" s="10"/>
+      <c r="JP510" s="9"/>
+      <c r="JQ510" s="10"/>
+      <c r="JR510" s="9"/>
+      <c r="JS510" s="10"/>
+      <c r="JT510" s="9"/>
+      <c r="JU510" s="10"/>
+      <c r="JV510" s="9"/>
+      <c r="JW510" s="10"/>
+      <c r="JX510" s="9"/>
+      <c r="JY510" s="10"/>
+      <c r="JZ510" s="9"/>
+      <c r="KA510" s="10"/>
+      <c r="KB510" s="9"/>
+      <c r="KC510" s="10"/>
+      <c r="KD510" s="9"/>
+      <c r="KE510" s="10"/>
+      <c r="KF510" s="9"/>
+      <c r="KG510" s="10"/>
+      <c r="KH510" s="9"/>
+      <c r="KI510" s="10"/>
+      <c r="KJ510" s="9"/>
+      <c r="KK510" s="10"/>
+      <c r="KL510" s="9"/>
+      <c r="KM510" s="10"/>
+      <c r="KN510" s="9"/>
+      <c r="KO510" s="10"/>
+      <c r="KP510" s="9"/>
+      <c r="KQ510" s="10"/>
+      <c r="KR510" s="9"/>
+      <c r="KS510" s="10"/>
+      <c r="KT510" s="9"/>
+      <c r="KU510" s="10"/>
+      <c r="KV510" s="9"/>
+      <c r="KW510" s="10"/>
+      <c r="KX510" s="9"/>
+      <c r="KY510" s="10"/>
+      <c r="KZ510" s="9"/>
+      <c r="LA510" s="10"/>
+      <c r="LB510" s="9"/>
+      <c r="LC510" s="10"/>
+      <c r="LD510" s="9"/>
+      <c r="LE510" s="10"/>
+      <c r="LF510" s="9"/>
+      <c r="LG510" s="10"/>
+      <c r="LH510" s="9"/>
+      <c r="LI510" s="10"/>
+      <c r="LJ510" s="9"/>
+      <c r="LK510" s="10"/>
+      <c r="LL510" s="9"/>
+      <c r="LM510" s="10"/>
+      <c r="LN510" s="9"/>
+      <c r="LO510" s="10"/>
+      <c r="LP510" s="9"/>
+      <c r="LQ510" s="10"/>
+      <c r="LR510" s="9"/>
+      <c r="LS510" s="10"/>
+      <c r="LT510" s="9"/>
+      <c r="LU510" s="10"/>
+      <c r="LV510" s="9"/>
+      <c r="LW510" s="10"/>
+      <c r="LX510" s="9"/>
+      <c r="LY510" s="10"/>
+      <c r="LZ510" s="9"/>
+      <c r="MA510" s="10"/>
+      <c r="MB510" s="9"/>
+      <c r="MC510" s="10"/>
+      <c r="MD510" s="9"/>
+      <c r="ME510" s="10"/>
+      <c r="MF510" s="9"/>
+      <c r="MG510" s="10"/>
+      <c r="MH510" s="9"/>
+      <c r="MI510" s="10"/>
+      <c r="MJ510" s="9"/>
+      <c r="MK510" s="10"/>
+      <c r="ML510" s="9"/>
+      <c r="MM510" s="10"/>
+      <c r="MN510" s="9"/>
+      <c r="MO510" s="10"/>
+      <c r="MP510" s="9"/>
+      <c r="MQ510" s="10"/>
+      <c r="MR510" s="9"/>
+      <c r="MS510" s="10"/>
+      <c r="MT510" s="9"/>
+      <c r="MU510" s="10"/>
+      <c r="MV510" s="9"/>
+      <c r="MW510" s="10"/>
+      <c r="MX510" s="9"/>
+      <c r="MY510" s="10"/>
+      <c r="MZ510" s="9"/>
+      <c r="NA510" s="10"/>
+      <c r="NB510" s="9"/>
+      <c r="NC510" s="10"/>
+      <c r="ND510" s="9"/>
+      <c r="NE510" s="10"/>
+      <c r="NF510" s="9"/>
+      <c r="NG510" s="10"/>
+      <c r="NH510" s="9"/>
+      <c r="NI510" s="10"/>
+      <c r="NJ510" s="9"/>
+      <c r="NK510" s="10"/>
+      <c r="NL510" s="9"/>
+      <c r="NM510" s="10"/>
+      <c r="NN510" s="9"/>
+      <c r="NO510" s="10"/>
+      <c r="NP510" s="9"/>
+      <c r="NQ510" s="10"/>
+      <c r="NR510" s="9"/>
+      <c r="NS510" s="10"/>
+      <c r="NT510" s="9"/>
+      <c r="NU510" s="10"/>
+      <c r="NV510" s="9"/>
+      <c r="NW510" s="10"/>
+      <c r="NX510" s="9"/>
+      <c r="NY510" s="10"/>
+      <c r="NZ510" s="9"/>
+      <c r="OA510" s="10"/>
+      <c r="OB510" s="9"/>
+      <c r="OC510" s="10"/>
+      <c r="OD510" s="9"/>
+      <c r="OE510" s="10"/>
+      <c r="OF510" s="9"/>
+      <c r="OG510" s="10"/>
+      <c r="OH510" s="9"/>
+      <c r="OI510" s="10"/>
+      <c r="OJ510" s="9"/>
+      <c r="OK510" s="10"/>
+      <c r="OL510" s="9"/>
+      <c r="OM510" s="10"/>
+      <c r="ON510" s="9"/>
+      <c r="OO510" s="10"/>
+      <c r="OP510" s="9"/>
+      <c r="OQ510" s="10"/>
+      <c r="OR510" s="9"/>
+      <c r="OS510" s="10"/>
+      <c r="OT510" s="9"/>
+      <c r="OU510" s="10"/>
+      <c r="OV510" s="9"/>
+      <c r="OW510" s="10"/>
+      <c r="OX510" s="9"/>
+      <c r="OY510" s="10"/>
+      <c r="OZ510" s="9"/>
+      <c r="PA510" s="10"/>
+      <c r="PB510" s="9"/>
+      <c r="PC510" s="10"/>
+      <c r="PD510" s="9"/>
+      <c r="PE510" s="10"/>
+      <c r="PF510" s="9"/>
+      <c r="PG510" s="10"/>
+      <c r="PH510" s="9"/>
+      <c r="PI510" s="10"/>
+      <c r="PJ510" s="9"/>
+      <c r="PK510" s="10"/>
+      <c r="PL510" s="9"/>
+      <c r="PM510" s="10"/>
+      <c r="PN510" s="9"/>
+      <c r="PO510" s="10"/>
+      <c r="PP510" s="9"/>
+      <c r="PQ510" s="10"/>
+      <c r="PR510" s="9"/>
+      <c r="PS510" s="10"/>
+      <c r="PT510" s="9"/>
+      <c r="PU510" s="10"/>
+      <c r="PV510" s="9"/>
+      <c r="PW510" s="10"/>
+      <c r="PX510" s="9"/>
+      <c r="PY510" s="10"/>
+      <c r="PZ510" s="9"/>
+      <c r="QA510" s="10"/>
+      <c r="QB510" s="9"/>
+      <c r="QC510" s="10"/>
+      <c r="QD510" s="9"/>
+      <c r="QE510" s="10"/>
+      <c r="QF510" s="9"/>
+      <c r="QG510" s="10"/>
+      <c r="QH510" s="9"/>
+      <c r="QI510" s="10"/>
+      <c r="QJ510" s="9"/>
+      <c r="QK510" s="10"/>
+      <c r="QL510" s="9"/>
+      <c r="QM510" s="10"/>
+      <c r="QN510" s="9"/>
+      <c r="QO510" s="10"/>
+      <c r="QP510" s="9"/>
+      <c r="QQ510" s="10"/>
+      <c r="QR510" s="9"/>
+      <c r="QS510" s="10"/>
+      <c r="QT510" s="9"/>
+      <c r="QU510" s="10"/>
+      <c r="QV510" s="9"/>
+      <c r="QW510" s="10"/>
+      <c r="QX510" s="9"/>
+      <c r="QY510" s="10"/>
+      <c r="QZ510" s="9"/>
+      <c r="RA510" s="10"/>
+      <c r="RB510" s="9"/>
+      <c r="RC510" s="10"/>
+      <c r="RD510" s="9"/>
+      <c r="RE510" s="10"/>
+      <c r="RF510" s="9"/>
+      <c r="RG510" s="10"/>
+      <c r="RH510" s="9"/>
+      <c r="RI510" s="10"/>
+      <c r="RJ510" s="9"/>
+      <c r="RK510" s="10"/>
+      <c r="RL510" s="9"/>
+      <c r="RM510" s="10"/>
+      <c r="RN510" s="9"/>
+      <c r="RO510" s="10"/>
+      <c r="RP510" s="9"/>
+      <c r="RQ510" s="10"/>
+      <c r="RR510" s="9"/>
+      <c r="RS510" s="10"/>
+      <c r="RT510" s="9"/>
+      <c r="RU510" s="10"/>
+      <c r="RV510" s="9"/>
+      <c r="RW510" s="10"/>
+      <c r="RX510" s="9"/>
+      <c r="RY510" s="10"/>
+      <c r="RZ510" s="9"/>
+      <c r="SA510" s="10"/>
+      <c r="SB510" s="9"/>
+      <c r="SC510" s="10"/>
+      <c r="SD510" s="9"/>
+      <c r="SE510" s="11"/>
     </row>
-    <row r="511" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B511" s="2" t="str">
         <f>Tabla1[[#Headers],[Fome Deportivo Pensionados Jubl]]</f>
         <v>Fome Deportivo Pensionados Jubl</v>
@@ -57811,8 +63370,503 @@
         <f>SUM(Tabla1[Fome Deportivo Pensionados Jubl])</f>
         <v>1962313</v>
       </c>
+      <c r="E511" s="8"/>
+      <c r="F511" s="9"/>
+      <c r="G511" s="10"/>
+      <c r="H511" s="9"/>
+      <c r="I511" s="10"/>
+      <c r="J511" s="9"/>
+      <c r="K511" s="10"/>
+      <c r="L511" s="9"/>
+      <c r="M511" s="10"/>
+      <c r="N511" s="9"/>
+      <c r="O511" s="10"/>
+      <c r="P511" s="9"/>
+      <c r="Q511" s="10"/>
+      <c r="R511" s="9"/>
+      <c r="S511" s="10"/>
+      <c r="T511" s="9"/>
+      <c r="U511" s="10"/>
+      <c r="V511" s="9"/>
+      <c r="W511" s="10"/>
+      <c r="X511" s="9"/>
+      <c r="Y511" s="10"/>
+      <c r="Z511" s="9"/>
+      <c r="AA511" s="10"/>
+      <c r="AB511" s="9"/>
+      <c r="AC511" s="10"/>
+      <c r="AD511" s="9"/>
+      <c r="AE511" s="10"/>
+      <c r="AF511" s="9"/>
+      <c r="AG511" s="10"/>
+      <c r="AH511" s="9"/>
+      <c r="AI511" s="10"/>
+      <c r="AJ511" s="9"/>
+      <c r="AK511" s="10"/>
+      <c r="AL511" s="9"/>
+      <c r="AM511" s="10"/>
+      <c r="AN511" s="9"/>
+      <c r="AO511" s="10"/>
+      <c r="AP511" s="9"/>
+      <c r="AQ511" s="10"/>
+      <c r="AR511" s="9"/>
+      <c r="AS511" s="10"/>
+      <c r="AT511" s="9"/>
+      <c r="AU511" s="10"/>
+      <c r="AV511" s="9"/>
+      <c r="AW511" s="10"/>
+      <c r="AX511" s="9"/>
+      <c r="AY511" s="10"/>
+      <c r="AZ511" s="9"/>
+      <c r="BA511" s="10"/>
+      <c r="BB511" s="9"/>
+      <c r="BC511" s="10"/>
+      <c r="BD511" s="9"/>
+      <c r="BE511" s="10"/>
+      <c r="BF511" s="9"/>
+      <c r="BG511" s="10"/>
+      <c r="BH511" s="9"/>
+      <c r="BI511" s="10"/>
+      <c r="BJ511" s="9"/>
+      <c r="BK511" s="10"/>
+      <c r="BL511" s="9"/>
+      <c r="BM511" s="10"/>
+      <c r="BN511" s="9"/>
+      <c r="BO511" s="10"/>
+      <c r="BP511" s="9"/>
+      <c r="BQ511" s="10"/>
+      <c r="BR511" s="9"/>
+      <c r="BS511" s="10"/>
+      <c r="BT511" s="9"/>
+      <c r="BU511" s="10"/>
+      <c r="BV511" s="9"/>
+      <c r="BW511" s="10"/>
+      <c r="BX511" s="9"/>
+      <c r="BY511" s="10"/>
+      <c r="BZ511" s="9"/>
+      <c r="CA511" s="10"/>
+      <c r="CB511" s="9"/>
+      <c r="CC511" s="10"/>
+      <c r="CD511" s="9"/>
+      <c r="CE511" s="10"/>
+      <c r="CF511" s="9"/>
+      <c r="CG511" s="10"/>
+      <c r="CH511" s="9"/>
+      <c r="CI511" s="10"/>
+      <c r="CJ511" s="9"/>
+      <c r="CK511" s="10"/>
+      <c r="CL511" s="9"/>
+      <c r="CM511" s="10"/>
+      <c r="CN511" s="9"/>
+      <c r="CO511" s="10"/>
+      <c r="CP511" s="9"/>
+      <c r="CQ511" s="10"/>
+      <c r="CR511" s="9"/>
+      <c r="CS511" s="10"/>
+      <c r="CT511" s="9"/>
+      <c r="CU511" s="10"/>
+      <c r="CV511" s="9"/>
+      <c r="CW511" s="10"/>
+      <c r="CX511" s="9"/>
+      <c r="CY511" s="10"/>
+      <c r="CZ511" s="9"/>
+      <c r="DA511" s="10"/>
+      <c r="DB511" s="9"/>
+      <c r="DC511" s="10"/>
+      <c r="DD511" s="9"/>
+      <c r="DE511" s="10"/>
+      <c r="DF511" s="9"/>
+      <c r="DG511" s="10"/>
+      <c r="DH511" s="9"/>
+      <c r="DI511" s="10"/>
+      <c r="DJ511" s="9"/>
+      <c r="DK511" s="10"/>
+      <c r="DL511" s="9"/>
+      <c r="DM511" s="10"/>
+      <c r="DN511" s="9"/>
+      <c r="DO511" s="10"/>
+      <c r="DP511" s="9"/>
+      <c r="DQ511" s="10"/>
+      <c r="DR511" s="9"/>
+      <c r="DS511" s="10"/>
+      <c r="DT511" s="9"/>
+      <c r="DU511" s="10"/>
+      <c r="DV511" s="9"/>
+      <c r="DW511" s="10"/>
+      <c r="DX511" s="9"/>
+      <c r="DY511" s="10"/>
+      <c r="DZ511" s="9"/>
+      <c r="EA511" s="10"/>
+      <c r="EB511" s="9"/>
+      <c r="EC511" s="10"/>
+      <c r="ED511" s="9"/>
+      <c r="EE511" s="10"/>
+      <c r="EF511" s="9"/>
+      <c r="EG511" s="10"/>
+      <c r="EH511" s="9"/>
+      <c r="EI511" s="10"/>
+      <c r="EJ511" s="9"/>
+      <c r="EK511" s="10"/>
+      <c r="EL511" s="9"/>
+      <c r="EM511" s="10"/>
+      <c r="EN511" s="9"/>
+      <c r="EO511" s="10"/>
+      <c r="EP511" s="9"/>
+      <c r="EQ511" s="10"/>
+      <c r="ER511" s="9"/>
+      <c r="ES511" s="10"/>
+      <c r="ET511" s="9"/>
+      <c r="EU511" s="10"/>
+      <c r="EV511" s="9"/>
+      <c r="EW511" s="10"/>
+      <c r="EX511" s="9"/>
+      <c r="EY511" s="10"/>
+      <c r="EZ511" s="9"/>
+      <c r="FA511" s="10"/>
+      <c r="FB511" s="9"/>
+      <c r="FC511" s="10"/>
+      <c r="FD511" s="9"/>
+      <c r="FE511" s="10"/>
+      <c r="FF511" s="9"/>
+      <c r="FG511" s="10"/>
+      <c r="FH511" s="9"/>
+      <c r="FI511" s="10"/>
+      <c r="FJ511" s="9"/>
+      <c r="FK511" s="10"/>
+      <c r="FL511" s="9"/>
+      <c r="FM511" s="10"/>
+      <c r="FN511" s="9"/>
+      <c r="FO511" s="10"/>
+      <c r="FP511" s="9"/>
+      <c r="FQ511" s="10"/>
+      <c r="FR511" s="9"/>
+      <c r="FS511" s="10"/>
+      <c r="FT511" s="9"/>
+      <c r="FU511" s="10"/>
+      <c r="FV511" s="9"/>
+      <c r="FW511" s="10"/>
+      <c r="FX511" s="9"/>
+      <c r="FY511" s="10"/>
+      <c r="FZ511" s="9"/>
+      <c r="GA511" s="10"/>
+      <c r="GB511" s="9"/>
+      <c r="GC511" s="10"/>
+      <c r="GD511" s="9"/>
+      <c r="GE511" s="10"/>
+      <c r="GF511" s="9"/>
+      <c r="GG511" s="10"/>
+      <c r="GH511" s="9"/>
+      <c r="GI511" s="10"/>
+      <c r="GJ511" s="9"/>
+      <c r="GK511" s="10"/>
+      <c r="GL511" s="9"/>
+      <c r="GM511" s="10"/>
+      <c r="GN511" s="9"/>
+      <c r="GO511" s="10"/>
+      <c r="GP511" s="9"/>
+      <c r="GQ511" s="10"/>
+      <c r="GR511" s="9"/>
+      <c r="GS511" s="10"/>
+      <c r="GT511" s="9"/>
+      <c r="GU511" s="10"/>
+      <c r="GV511" s="9"/>
+      <c r="GW511" s="10"/>
+      <c r="GX511" s="9"/>
+      <c r="GY511" s="10"/>
+      <c r="GZ511" s="9"/>
+      <c r="HA511" s="10"/>
+      <c r="HB511" s="9"/>
+      <c r="HC511" s="10"/>
+      <c r="HD511" s="9"/>
+      <c r="HE511" s="10"/>
+      <c r="HF511" s="9"/>
+      <c r="HG511" s="10"/>
+      <c r="HH511" s="9"/>
+      <c r="HI511" s="10"/>
+      <c r="HJ511" s="9"/>
+      <c r="HK511" s="10"/>
+      <c r="HL511" s="9"/>
+      <c r="HM511" s="10"/>
+      <c r="HN511" s="9"/>
+      <c r="HO511" s="10"/>
+      <c r="HP511" s="9"/>
+      <c r="HQ511" s="10"/>
+      <c r="HR511" s="9"/>
+      <c r="HS511" s="10"/>
+      <c r="HT511" s="9"/>
+      <c r="HU511" s="10"/>
+      <c r="HV511" s="9"/>
+      <c r="HW511" s="10"/>
+      <c r="HX511" s="9"/>
+      <c r="HY511" s="10"/>
+      <c r="HZ511" s="9"/>
+      <c r="IA511" s="10"/>
+      <c r="IB511" s="9"/>
+      <c r="IC511" s="10"/>
+      <c r="ID511" s="9"/>
+      <c r="IE511" s="10"/>
+      <c r="IF511" s="9"/>
+      <c r="IG511" s="10"/>
+      <c r="IH511" s="9"/>
+      <c r="II511" s="10"/>
+      <c r="IJ511" s="9"/>
+      <c r="IK511" s="10"/>
+      <c r="IL511" s="9"/>
+      <c r="IM511" s="10"/>
+      <c r="IN511" s="9"/>
+      <c r="IO511" s="10"/>
+      <c r="IP511" s="9"/>
+      <c r="IQ511" s="10"/>
+      <c r="IR511" s="9"/>
+      <c r="IS511" s="10"/>
+      <c r="IT511" s="9"/>
+      <c r="IU511" s="10"/>
+      <c r="IV511" s="9"/>
+      <c r="IW511" s="10"/>
+      <c r="IX511" s="9"/>
+      <c r="IY511" s="10"/>
+      <c r="IZ511" s="9"/>
+      <c r="JA511" s="10"/>
+      <c r="JB511" s="9"/>
+      <c r="JC511" s="10"/>
+      <c r="JD511" s="9"/>
+      <c r="JE511" s="10"/>
+      <c r="JF511" s="9"/>
+      <c r="JG511" s="10"/>
+      <c r="JH511" s="9"/>
+      <c r="JI511" s="10"/>
+      <c r="JJ511" s="9"/>
+      <c r="JK511" s="10"/>
+      <c r="JL511" s="9"/>
+      <c r="JM511" s="10"/>
+      <c r="JN511" s="9"/>
+      <c r="JO511" s="10"/>
+      <c r="JP511" s="9"/>
+      <c r="JQ511" s="10"/>
+      <c r="JR511" s="9"/>
+      <c r="JS511" s="10"/>
+      <c r="JT511" s="9"/>
+      <c r="JU511" s="10"/>
+      <c r="JV511" s="9"/>
+      <c r="JW511" s="10"/>
+      <c r="JX511" s="9"/>
+      <c r="JY511" s="10"/>
+      <c r="JZ511" s="9"/>
+      <c r="KA511" s="10"/>
+      <c r="KB511" s="9"/>
+      <c r="KC511" s="10"/>
+      <c r="KD511" s="9"/>
+      <c r="KE511" s="10"/>
+      <c r="KF511" s="9"/>
+      <c r="KG511" s="10"/>
+      <c r="KH511" s="9"/>
+      <c r="KI511" s="10"/>
+      <c r="KJ511" s="9"/>
+      <c r="KK511" s="10"/>
+      <c r="KL511" s="9"/>
+      <c r="KM511" s="10"/>
+      <c r="KN511" s="9"/>
+      <c r="KO511" s="10"/>
+      <c r="KP511" s="9"/>
+      <c r="KQ511" s="10"/>
+      <c r="KR511" s="9"/>
+      <c r="KS511" s="10"/>
+      <c r="KT511" s="9"/>
+      <c r="KU511" s="10"/>
+      <c r="KV511" s="9"/>
+      <c r="KW511" s="10"/>
+      <c r="KX511" s="9"/>
+      <c r="KY511" s="10"/>
+      <c r="KZ511" s="9"/>
+      <c r="LA511" s="10"/>
+      <c r="LB511" s="9"/>
+      <c r="LC511" s="10"/>
+      <c r="LD511" s="9"/>
+      <c r="LE511" s="10"/>
+      <c r="LF511" s="9"/>
+      <c r="LG511" s="10"/>
+      <c r="LH511" s="9"/>
+      <c r="LI511" s="10"/>
+      <c r="LJ511" s="9"/>
+      <c r="LK511" s="10"/>
+      <c r="LL511" s="9"/>
+      <c r="LM511" s="10"/>
+      <c r="LN511" s="9"/>
+      <c r="LO511" s="10"/>
+      <c r="LP511" s="9"/>
+      <c r="LQ511" s="10"/>
+      <c r="LR511" s="9"/>
+      <c r="LS511" s="10"/>
+      <c r="LT511" s="9"/>
+      <c r="LU511" s="10"/>
+      <c r="LV511" s="9"/>
+      <c r="LW511" s="10"/>
+      <c r="LX511" s="9"/>
+      <c r="LY511" s="10"/>
+      <c r="LZ511" s="9"/>
+      <c r="MA511" s="10"/>
+      <c r="MB511" s="9"/>
+      <c r="MC511" s="10"/>
+      <c r="MD511" s="9"/>
+      <c r="ME511" s="10"/>
+      <c r="MF511" s="9"/>
+      <c r="MG511" s="10"/>
+      <c r="MH511" s="9"/>
+      <c r="MI511" s="10"/>
+      <c r="MJ511" s="9"/>
+      <c r="MK511" s="10"/>
+      <c r="ML511" s="9"/>
+      <c r="MM511" s="10"/>
+      <c r="MN511" s="9"/>
+      <c r="MO511" s="10"/>
+      <c r="MP511" s="9"/>
+      <c r="MQ511" s="10"/>
+      <c r="MR511" s="9"/>
+      <c r="MS511" s="10"/>
+      <c r="MT511" s="9"/>
+      <c r="MU511" s="10"/>
+      <c r="MV511" s="9"/>
+      <c r="MW511" s="10"/>
+      <c r="MX511" s="9"/>
+      <c r="MY511" s="10"/>
+      <c r="MZ511" s="9"/>
+      <c r="NA511" s="10"/>
+      <c r="NB511" s="9"/>
+      <c r="NC511" s="10"/>
+      <c r="ND511" s="9"/>
+      <c r="NE511" s="10"/>
+      <c r="NF511" s="9"/>
+      <c r="NG511" s="10"/>
+      <c r="NH511" s="9"/>
+      <c r="NI511" s="10"/>
+      <c r="NJ511" s="9"/>
+      <c r="NK511" s="10"/>
+      <c r="NL511" s="9"/>
+      <c r="NM511" s="10"/>
+      <c r="NN511" s="9"/>
+      <c r="NO511" s="10"/>
+      <c r="NP511" s="9"/>
+      <c r="NQ511" s="10"/>
+      <c r="NR511" s="9"/>
+      <c r="NS511" s="10"/>
+      <c r="NT511" s="9"/>
+      <c r="NU511" s="10"/>
+      <c r="NV511" s="9"/>
+      <c r="NW511" s="10"/>
+      <c r="NX511" s="9"/>
+      <c r="NY511" s="10"/>
+      <c r="NZ511" s="9"/>
+      <c r="OA511" s="10"/>
+      <c r="OB511" s="9"/>
+      <c r="OC511" s="10"/>
+      <c r="OD511" s="9"/>
+      <c r="OE511" s="10"/>
+      <c r="OF511" s="9"/>
+      <c r="OG511" s="10"/>
+      <c r="OH511" s="9"/>
+      <c r="OI511" s="10"/>
+      <c r="OJ511" s="9"/>
+      <c r="OK511" s="10"/>
+      <c r="OL511" s="9"/>
+      <c r="OM511" s="10"/>
+      <c r="ON511" s="9"/>
+      <c r="OO511" s="10"/>
+      <c r="OP511" s="9"/>
+      <c r="OQ511" s="10"/>
+      <c r="OR511" s="9"/>
+      <c r="OS511" s="10"/>
+      <c r="OT511" s="9"/>
+      <c r="OU511" s="10"/>
+      <c r="OV511" s="9"/>
+      <c r="OW511" s="10"/>
+      <c r="OX511" s="9"/>
+      <c r="OY511" s="10"/>
+      <c r="OZ511" s="9"/>
+      <c r="PA511" s="10"/>
+      <c r="PB511" s="9"/>
+      <c r="PC511" s="10"/>
+      <c r="PD511" s="9"/>
+      <c r="PE511" s="10"/>
+      <c r="PF511" s="9"/>
+      <c r="PG511" s="10"/>
+      <c r="PH511" s="9"/>
+      <c r="PI511" s="10"/>
+      <c r="PJ511" s="9"/>
+      <c r="PK511" s="10"/>
+      <c r="PL511" s="9"/>
+      <c r="PM511" s="10"/>
+      <c r="PN511" s="9"/>
+      <c r="PO511" s="10"/>
+      <c r="PP511" s="9"/>
+      <c r="PQ511" s="10"/>
+      <c r="PR511" s="9"/>
+      <c r="PS511" s="10"/>
+      <c r="PT511" s="9"/>
+      <c r="PU511" s="10"/>
+      <c r="PV511" s="9"/>
+      <c r="PW511" s="10"/>
+      <c r="PX511" s="9"/>
+      <c r="PY511" s="10"/>
+      <c r="PZ511" s="9"/>
+      <c r="QA511" s="10"/>
+      <c r="QB511" s="9"/>
+      <c r="QC511" s="10"/>
+      <c r="QD511" s="9"/>
+      <c r="QE511" s="10"/>
+      <c r="QF511" s="9"/>
+      <c r="QG511" s="10"/>
+      <c r="QH511" s="9"/>
+      <c r="QI511" s="10"/>
+      <c r="QJ511" s="9"/>
+      <c r="QK511" s="10"/>
+      <c r="QL511" s="9"/>
+      <c r="QM511" s="10"/>
+      <c r="QN511" s="9"/>
+      <c r="QO511" s="10"/>
+      <c r="QP511" s="9"/>
+      <c r="QQ511" s="10"/>
+      <c r="QR511" s="9"/>
+      <c r="QS511" s="10"/>
+      <c r="QT511" s="9"/>
+      <c r="QU511" s="10"/>
+      <c r="QV511" s="9"/>
+      <c r="QW511" s="10"/>
+      <c r="QX511" s="9"/>
+      <c r="QY511" s="10"/>
+      <c r="QZ511" s="9"/>
+      <c r="RA511" s="10"/>
+      <c r="RB511" s="9"/>
+      <c r="RC511" s="10"/>
+      <c r="RD511" s="9"/>
+      <c r="RE511" s="10"/>
+      <c r="RF511" s="9"/>
+      <c r="RG511" s="10"/>
+      <c r="RH511" s="9"/>
+      <c r="RI511" s="10"/>
+      <c r="RJ511" s="9"/>
+      <c r="RK511" s="10"/>
+      <c r="RL511" s="9"/>
+      <c r="RM511" s="10"/>
+      <c r="RN511" s="9"/>
+      <c r="RO511" s="10"/>
+      <c r="RP511" s="9"/>
+      <c r="RQ511" s="10"/>
+      <c r="RR511" s="9"/>
+      <c r="RS511" s="10"/>
+      <c r="RT511" s="9"/>
+      <c r="RU511" s="10"/>
+      <c r="RV511" s="9"/>
+      <c r="RW511" s="10"/>
+      <c r="RX511" s="9"/>
+      <c r="RY511" s="10"/>
+      <c r="RZ511" s="9"/>
+      <c r="SA511" s="10"/>
+      <c r="SB511" s="9"/>
+      <c r="SC511" s="10"/>
+      <c r="SD511" s="9"/>
+      <c r="SE511" s="11"/>
     </row>
-    <row r="512" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B512" s="2" t="str">
         <f>Tabla1[[#Headers],[Serv. Culturales Pensionados Jubl]]</f>
         <v>Serv. Culturales Pensionados Jubl</v>
@@ -57821,8 +63875,503 @@
         <f>SUM(Tabla1[Serv. Culturales Pensionados Jubl])</f>
         <v>3250887</v>
       </c>
+      <c r="E512" s="8"/>
+      <c r="F512" s="9"/>
+      <c r="G512" s="10"/>
+      <c r="H512" s="9"/>
+      <c r="I512" s="10"/>
+      <c r="J512" s="9"/>
+      <c r="K512" s="10"/>
+      <c r="L512" s="9"/>
+      <c r="M512" s="10"/>
+      <c r="N512" s="9"/>
+      <c r="O512" s="10"/>
+      <c r="P512" s="9"/>
+      <c r="Q512" s="10"/>
+      <c r="R512" s="9"/>
+      <c r="S512" s="10"/>
+      <c r="T512" s="9"/>
+      <c r="U512" s="10"/>
+      <c r="V512" s="9"/>
+      <c r="W512" s="10"/>
+      <c r="X512" s="9"/>
+      <c r="Y512" s="10"/>
+      <c r="Z512" s="9"/>
+      <c r="AA512" s="10"/>
+      <c r="AB512" s="9"/>
+      <c r="AC512" s="10"/>
+      <c r="AD512" s="9"/>
+      <c r="AE512" s="10"/>
+      <c r="AF512" s="9"/>
+      <c r="AG512" s="10"/>
+      <c r="AH512" s="9"/>
+      <c r="AI512" s="10"/>
+      <c r="AJ512" s="9"/>
+      <c r="AK512" s="10"/>
+      <c r="AL512" s="9"/>
+      <c r="AM512" s="10"/>
+      <c r="AN512" s="9"/>
+      <c r="AO512" s="10"/>
+      <c r="AP512" s="9"/>
+      <c r="AQ512" s="10"/>
+      <c r="AR512" s="9"/>
+      <c r="AS512" s="10"/>
+      <c r="AT512" s="9"/>
+      <c r="AU512" s="10"/>
+      <c r="AV512" s="9"/>
+      <c r="AW512" s="10"/>
+      <c r="AX512" s="9"/>
+      <c r="AY512" s="10"/>
+      <c r="AZ512" s="9"/>
+      <c r="BA512" s="10"/>
+      <c r="BB512" s="9"/>
+      <c r="BC512" s="10"/>
+      <c r="BD512" s="9"/>
+      <c r="BE512" s="10"/>
+      <c r="BF512" s="9"/>
+      <c r="BG512" s="10"/>
+      <c r="BH512" s="9"/>
+      <c r="BI512" s="10"/>
+      <c r="BJ512" s="9"/>
+      <c r="BK512" s="10"/>
+      <c r="BL512" s="9"/>
+      <c r="BM512" s="10"/>
+      <c r="BN512" s="9"/>
+      <c r="BO512" s="10"/>
+      <c r="BP512" s="9"/>
+      <c r="BQ512" s="10"/>
+      <c r="BR512" s="9"/>
+      <c r="BS512" s="10"/>
+      <c r="BT512" s="9"/>
+      <c r="BU512" s="10"/>
+      <c r="BV512" s="9"/>
+      <c r="BW512" s="10"/>
+      <c r="BX512" s="9"/>
+      <c r="BY512" s="10"/>
+      <c r="BZ512" s="9"/>
+      <c r="CA512" s="10"/>
+      <c r="CB512" s="9"/>
+      <c r="CC512" s="10"/>
+      <c r="CD512" s="9"/>
+      <c r="CE512" s="10"/>
+      <c r="CF512" s="9"/>
+      <c r="CG512" s="10"/>
+      <c r="CH512" s="9"/>
+      <c r="CI512" s="10"/>
+      <c r="CJ512" s="9"/>
+      <c r="CK512" s="10"/>
+      <c r="CL512" s="9"/>
+      <c r="CM512" s="10"/>
+      <c r="CN512" s="9"/>
+      <c r="CO512" s="10"/>
+      <c r="CP512" s="9"/>
+      <c r="CQ512" s="10"/>
+      <c r="CR512" s="9"/>
+      <c r="CS512" s="10"/>
+      <c r="CT512" s="9"/>
+      <c r="CU512" s="10"/>
+      <c r="CV512" s="9"/>
+      <c r="CW512" s="10"/>
+      <c r="CX512" s="9"/>
+      <c r="CY512" s="10"/>
+      <c r="CZ512" s="9"/>
+      <c r="DA512" s="10"/>
+      <c r="DB512" s="9"/>
+      <c r="DC512" s="10"/>
+      <c r="DD512" s="9"/>
+      <c r="DE512" s="10"/>
+      <c r="DF512" s="9"/>
+      <c r="DG512" s="10"/>
+      <c r="DH512" s="9"/>
+      <c r="DI512" s="10"/>
+      <c r="DJ512" s="9"/>
+      <c r="DK512" s="10"/>
+      <c r="DL512" s="9"/>
+      <c r="DM512" s="10"/>
+      <c r="DN512" s="9"/>
+      <c r="DO512" s="10"/>
+      <c r="DP512" s="9"/>
+      <c r="DQ512" s="10"/>
+      <c r="DR512" s="9"/>
+      <c r="DS512" s="10"/>
+      <c r="DT512" s="9"/>
+      <c r="DU512" s="10"/>
+      <c r="DV512" s="9"/>
+      <c r="DW512" s="10"/>
+      <c r="DX512" s="9"/>
+      <c r="DY512" s="10"/>
+      <c r="DZ512" s="9"/>
+      <c r="EA512" s="10"/>
+      <c r="EB512" s="9"/>
+      <c r="EC512" s="10"/>
+      <c r="ED512" s="9"/>
+      <c r="EE512" s="10"/>
+      <c r="EF512" s="9"/>
+      <c r="EG512" s="10"/>
+      <c r="EH512" s="9"/>
+      <c r="EI512" s="10"/>
+      <c r="EJ512" s="9"/>
+      <c r="EK512" s="10"/>
+      <c r="EL512" s="9"/>
+      <c r="EM512" s="10"/>
+      <c r="EN512" s="9"/>
+      <c r="EO512" s="10"/>
+      <c r="EP512" s="9"/>
+      <c r="EQ512" s="10"/>
+      <c r="ER512" s="9"/>
+      <c r="ES512" s="10"/>
+      <c r="ET512" s="9"/>
+      <c r="EU512" s="10"/>
+      <c r="EV512" s="9"/>
+      <c r="EW512" s="10"/>
+      <c r="EX512" s="9"/>
+      <c r="EY512" s="10"/>
+      <c r="EZ512" s="9"/>
+      <c r="FA512" s="10"/>
+      <c r="FB512" s="9"/>
+      <c r="FC512" s="10"/>
+      <c r="FD512" s="9"/>
+      <c r="FE512" s="10"/>
+      <c r="FF512" s="9"/>
+      <c r="FG512" s="10"/>
+      <c r="FH512" s="9"/>
+      <c r="FI512" s="10"/>
+      <c r="FJ512" s="9"/>
+      <c r="FK512" s="10"/>
+      <c r="FL512" s="9"/>
+      <c r="FM512" s="10"/>
+      <c r="FN512" s="9"/>
+      <c r="FO512" s="10"/>
+      <c r="FP512" s="9"/>
+      <c r="FQ512" s="10"/>
+      <c r="FR512" s="9"/>
+      <c r="FS512" s="10"/>
+      <c r="FT512" s="9"/>
+      <c r="FU512" s="10"/>
+      <c r="FV512" s="9"/>
+      <c r="FW512" s="10"/>
+      <c r="FX512" s="9"/>
+      <c r="FY512" s="10"/>
+      <c r="FZ512" s="9"/>
+      <c r="GA512" s="10"/>
+      <c r="GB512" s="9"/>
+      <c r="GC512" s="10"/>
+      <c r="GD512" s="9"/>
+      <c r="GE512" s="10"/>
+      <c r="GF512" s="9"/>
+      <c r="GG512" s="10"/>
+      <c r="GH512" s="9"/>
+      <c r="GI512" s="10"/>
+      <c r="GJ512" s="9"/>
+      <c r="GK512" s="10"/>
+      <c r="GL512" s="9"/>
+      <c r="GM512" s="10"/>
+      <c r="GN512" s="9"/>
+      <c r="GO512" s="10"/>
+      <c r="GP512" s="9"/>
+      <c r="GQ512" s="10"/>
+      <c r="GR512" s="9"/>
+      <c r="GS512" s="10"/>
+      <c r="GT512" s="9"/>
+      <c r="GU512" s="10"/>
+      <c r="GV512" s="9"/>
+      <c r="GW512" s="10"/>
+      <c r="GX512" s="9"/>
+      <c r="GY512" s="10"/>
+      <c r="GZ512" s="9"/>
+      <c r="HA512" s="10"/>
+      <c r="HB512" s="9"/>
+      <c r="HC512" s="10"/>
+      <c r="HD512" s="9"/>
+      <c r="HE512" s="10"/>
+      <c r="HF512" s="9"/>
+      <c r="HG512" s="10"/>
+      <c r="HH512" s="9"/>
+      <c r="HI512" s="10"/>
+      <c r="HJ512" s="9"/>
+      <c r="HK512" s="10"/>
+      <c r="HL512" s="9"/>
+      <c r="HM512" s="10"/>
+      <c r="HN512" s="9"/>
+      <c r="HO512" s="10"/>
+      <c r="HP512" s="9"/>
+      <c r="HQ512" s="10"/>
+      <c r="HR512" s="9"/>
+      <c r="HS512" s="10"/>
+      <c r="HT512" s="9"/>
+      <c r="HU512" s="10"/>
+      <c r="HV512" s="9"/>
+      <c r="HW512" s="10"/>
+      <c r="HX512" s="9"/>
+      <c r="HY512" s="10"/>
+      <c r="HZ512" s="9"/>
+      <c r="IA512" s="10"/>
+      <c r="IB512" s="9"/>
+      <c r="IC512" s="10"/>
+      <c r="ID512" s="9"/>
+      <c r="IE512" s="10"/>
+      <c r="IF512" s="9"/>
+      <c r="IG512" s="10"/>
+      <c r="IH512" s="9"/>
+      <c r="II512" s="10"/>
+      <c r="IJ512" s="9"/>
+      <c r="IK512" s="10"/>
+      <c r="IL512" s="9"/>
+      <c r="IM512" s="10"/>
+      <c r="IN512" s="9"/>
+      <c r="IO512" s="10"/>
+      <c r="IP512" s="9"/>
+      <c r="IQ512" s="10"/>
+      <c r="IR512" s="9"/>
+      <c r="IS512" s="10"/>
+      <c r="IT512" s="9"/>
+      <c r="IU512" s="10"/>
+      <c r="IV512" s="9"/>
+      <c r="IW512" s="10"/>
+      <c r="IX512" s="9"/>
+      <c r="IY512" s="10"/>
+      <c r="IZ512" s="9"/>
+      <c r="JA512" s="10"/>
+      <c r="JB512" s="9"/>
+      <c r="JC512" s="10"/>
+      <c r="JD512" s="9"/>
+      <c r="JE512" s="10"/>
+      <c r="JF512" s="9"/>
+      <c r="JG512" s="10"/>
+      <c r="JH512" s="9"/>
+      <c r="JI512" s="10"/>
+      <c r="JJ512" s="9"/>
+      <c r="JK512" s="10"/>
+      <c r="JL512" s="9"/>
+      <c r="JM512" s="10"/>
+      <c r="JN512" s="9"/>
+      <c r="JO512" s="10"/>
+      <c r="JP512" s="9"/>
+      <c r="JQ512" s="10"/>
+      <c r="JR512" s="9"/>
+      <c r="JS512" s="10"/>
+      <c r="JT512" s="9"/>
+      <c r="JU512" s="10"/>
+      <c r="JV512" s="9"/>
+      <c r="JW512" s="10"/>
+      <c r="JX512" s="9"/>
+      <c r="JY512" s="10"/>
+      <c r="JZ512" s="9"/>
+      <c r="KA512" s="10"/>
+      <c r="KB512" s="9"/>
+      <c r="KC512" s="10"/>
+      <c r="KD512" s="9"/>
+      <c r="KE512" s="10"/>
+      <c r="KF512" s="9"/>
+      <c r="KG512" s="10"/>
+      <c r="KH512" s="9"/>
+      <c r="KI512" s="10"/>
+      <c r="KJ512" s="9"/>
+      <c r="KK512" s="10"/>
+      <c r="KL512" s="9"/>
+      <c r="KM512" s="10"/>
+      <c r="KN512" s="9"/>
+      <c r="KO512" s="10"/>
+      <c r="KP512" s="9"/>
+      <c r="KQ512" s="10"/>
+      <c r="KR512" s="9"/>
+      <c r="KS512" s="10"/>
+      <c r="KT512" s="9"/>
+      <c r="KU512" s="10"/>
+      <c r="KV512" s="9"/>
+      <c r="KW512" s="10"/>
+      <c r="KX512" s="9"/>
+      <c r="KY512" s="10"/>
+      <c r="KZ512" s="9"/>
+      <c r="LA512" s="10"/>
+      <c r="LB512" s="9"/>
+      <c r="LC512" s="10"/>
+      <c r="LD512" s="9"/>
+      <c r="LE512" s="10"/>
+      <c r="LF512" s="9"/>
+      <c r="LG512" s="10"/>
+      <c r="LH512" s="9"/>
+      <c r="LI512" s="10"/>
+      <c r="LJ512" s="9"/>
+      <c r="LK512" s="10"/>
+      <c r="LL512" s="9"/>
+      <c r="LM512" s="10"/>
+      <c r="LN512" s="9"/>
+      <c r="LO512" s="10"/>
+      <c r="LP512" s="9"/>
+      <c r="LQ512" s="10"/>
+      <c r="LR512" s="9"/>
+      <c r="LS512" s="10"/>
+      <c r="LT512" s="9"/>
+      <c r="LU512" s="10"/>
+      <c r="LV512" s="9"/>
+      <c r="LW512" s="10"/>
+      <c r="LX512" s="9"/>
+      <c r="LY512" s="10"/>
+      <c r="LZ512" s="9"/>
+      <c r="MA512" s="10"/>
+      <c r="MB512" s="9"/>
+      <c r="MC512" s="10"/>
+      <c r="MD512" s="9"/>
+      <c r="ME512" s="10"/>
+      <c r="MF512" s="9"/>
+      <c r="MG512" s="10"/>
+      <c r="MH512" s="9"/>
+      <c r="MI512" s="10"/>
+      <c r="MJ512" s="9"/>
+      <c r="MK512" s="10"/>
+      <c r="ML512" s="9"/>
+      <c r="MM512" s="10"/>
+      <c r="MN512" s="9"/>
+      <c r="MO512" s="10"/>
+      <c r="MP512" s="9"/>
+      <c r="MQ512" s="10"/>
+      <c r="MR512" s="9"/>
+      <c r="MS512" s="10"/>
+      <c r="MT512" s="9"/>
+      <c r="MU512" s="10"/>
+      <c r="MV512" s="9"/>
+      <c r="MW512" s="10"/>
+      <c r="MX512" s="9"/>
+      <c r="MY512" s="10"/>
+      <c r="MZ512" s="9"/>
+      <c r="NA512" s="10"/>
+      <c r="NB512" s="9"/>
+      <c r="NC512" s="10"/>
+      <c r="ND512" s="9"/>
+      <c r="NE512" s="10"/>
+      <c r="NF512" s="9"/>
+      <c r="NG512" s="10"/>
+      <c r="NH512" s="9"/>
+      <c r="NI512" s="10"/>
+      <c r="NJ512" s="9"/>
+      <c r="NK512" s="10"/>
+      <c r="NL512" s="9"/>
+      <c r="NM512" s="10"/>
+      <c r="NN512" s="9"/>
+      <c r="NO512" s="10"/>
+      <c r="NP512" s="9"/>
+      <c r="NQ512" s="10"/>
+      <c r="NR512" s="9"/>
+      <c r="NS512" s="10"/>
+      <c r="NT512" s="9"/>
+      <c r="NU512" s="10"/>
+      <c r="NV512" s="9"/>
+      <c r="NW512" s="10"/>
+      <c r="NX512" s="9"/>
+      <c r="NY512" s="10"/>
+      <c r="NZ512" s="9"/>
+      <c r="OA512" s="10"/>
+      <c r="OB512" s="9"/>
+      <c r="OC512" s="10"/>
+      <c r="OD512" s="9"/>
+      <c r="OE512" s="10"/>
+      <c r="OF512" s="9"/>
+      <c r="OG512" s="10"/>
+      <c r="OH512" s="9"/>
+      <c r="OI512" s="10"/>
+      <c r="OJ512" s="9"/>
+      <c r="OK512" s="10"/>
+      <c r="OL512" s="9"/>
+      <c r="OM512" s="10"/>
+      <c r="ON512" s="9"/>
+      <c r="OO512" s="10"/>
+      <c r="OP512" s="9"/>
+      <c r="OQ512" s="10"/>
+      <c r="OR512" s="9"/>
+      <c r="OS512" s="10"/>
+      <c r="OT512" s="9"/>
+      <c r="OU512" s="10"/>
+      <c r="OV512" s="9"/>
+      <c r="OW512" s="10"/>
+      <c r="OX512" s="9"/>
+      <c r="OY512" s="10"/>
+      <c r="OZ512" s="9"/>
+      <c r="PA512" s="10"/>
+      <c r="PB512" s="9"/>
+      <c r="PC512" s="10"/>
+      <c r="PD512" s="9"/>
+      <c r="PE512" s="10"/>
+      <c r="PF512" s="9"/>
+      <c r="PG512" s="10"/>
+      <c r="PH512" s="9"/>
+      <c r="PI512" s="10"/>
+      <c r="PJ512" s="9"/>
+      <c r="PK512" s="10"/>
+      <c r="PL512" s="9"/>
+      <c r="PM512" s="10"/>
+      <c r="PN512" s="9"/>
+      <c r="PO512" s="10"/>
+      <c r="PP512" s="9"/>
+      <c r="PQ512" s="10"/>
+      <c r="PR512" s="9"/>
+      <c r="PS512" s="10"/>
+      <c r="PT512" s="9"/>
+      <c r="PU512" s="10"/>
+      <c r="PV512" s="9"/>
+      <c r="PW512" s="10"/>
+      <c r="PX512" s="9"/>
+      <c r="PY512" s="10"/>
+      <c r="PZ512" s="9"/>
+      <c r="QA512" s="10"/>
+      <c r="QB512" s="9"/>
+      <c r="QC512" s="10"/>
+      <c r="QD512" s="9"/>
+      <c r="QE512" s="10"/>
+      <c r="QF512" s="9"/>
+      <c r="QG512" s="10"/>
+      <c r="QH512" s="9"/>
+      <c r="QI512" s="10"/>
+      <c r="QJ512" s="9"/>
+      <c r="QK512" s="10"/>
+      <c r="QL512" s="9"/>
+      <c r="QM512" s="10"/>
+      <c r="QN512" s="9"/>
+      <c r="QO512" s="10"/>
+      <c r="QP512" s="9"/>
+      <c r="QQ512" s="10"/>
+      <c r="QR512" s="9"/>
+      <c r="QS512" s="10"/>
+      <c r="QT512" s="9"/>
+      <c r="QU512" s="10"/>
+      <c r="QV512" s="9"/>
+      <c r="QW512" s="10"/>
+      <c r="QX512" s="9"/>
+      <c r="QY512" s="10"/>
+      <c r="QZ512" s="9"/>
+      <c r="RA512" s="10"/>
+      <c r="RB512" s="9"/>
+      <c r="RC512" s="10"/>
+      <c r="RD512" s="9"/>
+      <c r="RE512" s="10"/>
+      <c r="RF512" s="9"/>
+      <c r="RG512" s="10"/>
+      <c r="RH512" s="9"/>
+      <c r="RI512" s="10"/>
+      <c r="RJ512" s="9"/>
+      <c r="RK512" s="10"/>
+      <c r="RL512" s="9"/>
+      <c r="RM512" s="10"/>
+      <c r="RN512" s="9"/>
+      <c r="RO512" s="10"/>
+      <c r="RP512" s="9"/>
+      <c r="RQ512" s="10"/>
+      <c r="RR512" s="9"/>
+      <c r="RS512" s="10"/>
+      <c r="RT512" s="9"/>
+      <c r="RU512" s="10"/>
+      <c r="RV512" s="9"/>
+      <c r="RW512" s="10"/>
+      <c r="RX512" s="9"/>
+      <c r="RY512" s="10"/>
+      <c r="RZ512" s="9"/>
+      <c r="SA512" s="10"/>
+      <c r="SB512" s="9"/>
+      <c r="SC512" s="10"/>
+      <c r="SD512" s="9"/>
+      <c r="SE512" s="11"/>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:499" x14ac:dyDescent="0.3">
       <c r="B513" s="2" t="str">
         <f>Tabla1[[#Headers],[Soci Comedores Pensionados Jubl]]</f>
         <v>Soci Comedores Pensionados Jubl</v>
@@ -57831,6 +64380,603 @@
         <f>SUM(Tabla1[Soci Comedores Pensionados Jubl])</f>
         <v>654994</v>
       </c>
+      <c r="E513" s="7"/>
+      <c r="F513" s="9"/>
+      <c r="G513" s="10"/>
+      <c r="H513" s="9"/>
+      <c r="I513" s="10"/>
+      <c r="J513" s="9"/>
+      <c r="K513" s="10"/>
+      <c r="L513" s="9"/>
+      <c r="M513" s="10"/>
+      <c r="N513" s="9"/>
+      <c r="O513" s="10"/>
+      <c r="P513" s="9"/>
+      <c r="Q513" s="10"/>
+      <c r="R513" s="9"/>
+      <c r="S513" s="10"/>
+      <c r="T513" s="9"/>
+      <c r="U513" s="10"/>
+      <c r="V513" s="9"/>
+      <c r="W513" s="10"/>
+      <c r="X513" s="9"/>
+      <c r="Y513" s="10"/>
+      <c r="Z513" s="9"/>
+      <c r="AA513" s="10"/>
+      <c r="AB513" s="9"/>
+      <c r="AC513" s="10"/>
+      <c r="AD513" s="9"/>
+      <c r="AE513" s="10"/>
+      <c r="AF513" s="9"/>
+      <c r="AG513" s="10"/>
+      <c r="AH513" s="9"/>
+      <c r="AI513" s="10"/>
+      <c r="AJ513" s="9"/>
+      <c r="AK513" s="10"/>
+      <c r="AL513" s="9"/>
+      <c r="AM513" s="10"/>
+      <c r="AN513" s="9"/>
+      <c r="AO513" s="10"/>
+      <c r="AP513" s="9"/>
+      <c r="AQ513" s="10"/>
+      <c r="AR513" s="9"/>
+      <c r="AS513" s="10"/>
+      <c r="AT513" s="9"/>
+      <c r="AU513" s="10"/>
+      <c r="AV513" s="9"/>
+      <c r="AW513" s="10"/>
+      <c r="AX513" s="9"/>
+      <c r="AY513" s="10"/>
+      <c r="AZ513" s="9"/>
+      <c r="BA513" s="10"/>
+      <c r="BB513" s="9"/>
+      <c r="BC513" s="10"/>
+      <c r="BD513" s="9"/>
+      <c r="BE513" s="10"/>
+      <c r="BF513" s="9"/>
+      <c r="BG513" s="10"/>
+      <c r="BH513" s="9"/>
+      <c r="BI513" s="10"/>
+      <c r="BJ513" s="9"/>
+      <c r="BK513" s="10"/>
+      <c r="BL513" s="9"/>
+      <c r="BM513" s="10"/>
+      <c r="BN513" s="9"/>
+      <c r="BO513" s="10"/>
+      <c r="BP513" s="9"/>
+      <c r="BQ513" s="10"/>
+      <c r="BR513" s="9"/>
+      <c r="BS513" s="10"/>
+      <c r="BT513" s="9"/>
+      <c r="BU513" s="10"/>
+      <c r="BV513" s="9"/>
+      <c r="BW513" s="10"/>
+      <c r="BX513" s="9"/>
+      <c r="BY513" s="10"/>
+      <c r="BZ513" s="9"/>
+      <c r="CA513" s="10"/>
+      <c r="CB513" s="9"/>
+      <c r="CC513" s="10"/>
+      <c r="CD513" s="9"/>
+      <c r="CE513" s="10"/>
+      <c r="CF513" s="9"/>
+      <c r="CG513" s="10"/>
+      <c r="CH513" s="9"/>
+      <c r="CI513" s="10"/>
+      <c r="CJ513" s="9"/>
+      <c r="CK513" s="10"/>
+      <c r="CL513" s="9"/>
+      <c r="CM513" s="10"/>
+      <c r="CN513" s="9"/>
+      <c r="CO513" s="10"/>
+      <c r="CP513" s="9"/>
+      <c r="CQ513" s="10"/>
+      <c r="CR513" s="9"/>
+      <c r="CS513" s="10"/>
+      <c r="CT513" s="9"/>
+      <c r="CU513" s="10"/>
+      <c r="CV513" s="9"/>
+      <c r="CW513" s="10"/>
+      <c r="CX513" s="9"/>
+      <c r="CY513" s="10"/>
+      <c r="CZ513" s="9"/>
+      <c r="DA513" s="10"/>
+      <c r="DB513" s="9"/>
+      <c r="DC513" s="10"/>
+      <c r="DD513" s="9"/>
+      <c r="DE513" s="10"/>
+      <c r="DF513" s="9"/>
+      <c r="DG513" s="10"/>
+      <c r="DH513" s="9"/>
+      <c r="DI513" s="10"/>
+      <c r="DJ513" s="9"/>
+      <c r="DK513" s="10"/>
+      <c r="DL513" s="9"/>
+      <c r="DM513" s="10"/>
+      <c r="DN513" s="9"/>
+      <c r="DO513" s="10"/>
+      <c r="DP513" s="9"/>
+      <c r="DQ513" s="10"/>
+      <c r="DR513" s="9"/>
+      <c r="DS513" s="10"/>
+      <c r="DT513" s="9"/>
+      <c r="DU513" s="10"/>
+      <c r="DV513" s="9"/>
+      <c r="DW513" s="10"/>
+      <c r="DX513" s="9"/>
+      <c r="DY513" s="10"/>
+      <c r="DZ513" s="9"/>
+      <c r="EA513" s="10"/>
+      <c r="EB513" s="9"/>
+      <c r="EC513" s="10"/>
+      <c r="ED513" s="9"/>
+      <c r="EE513" s="10"/>
+      <c r="EF513" s="9"/>
+      <c r="EG513" s="10"/>
+      <c r="EH513" s="9"/>
+      <c r="EI513" s="10"/>
+      <c r="EJ513" s="9"/>
+      <c r="EK513" s="10"/>
+      <c r="EL513" s="9"/>
+      <c r="EM513" s="10"/>
+      <c r="EN513" s="9"/>
+      <c r="EO513" s="10"/>
+      <c r="EP513" s="9"/>
+      <c r="EQ513" s="10"/>
+      <c r="ER513" s="9"/>
+      <c r="ES513" s="10"/>
+      <c r="ET513" s="9"/>
+      <c r="EU513" s="10"/>
+      <c r="EV513" s="9"/>
+      <c r="EW513" s="10"/>
+      <c r="EX513" s="9"/>
+      <c r="EY513" s="10"/>
+      <c r="EZ513" s="9"/>
+      <c r="FA513" s="10"/>
+      <c r="FB513" s="9"/>
+      <c r="FC513" s="10"/>
+      <c r="FD513" s="9"/>
+      <c r="FE513" s="10"/>
+      <c r="FF513" s="9"/>
+      <c r="FG513" s="10"/>
+      <c r="FH513" s="9"/>
+      <c r="FI513" s="10"/>
+      <c r="FJ513" s="9"/>
+      <c r="FK513" s="10"/>
+      <c r="FL513" s="9"/>
+      <c r="FM513" s="10"/>
+      <c r="FN513" s="9"/>
+      <c r="FO513" s="10"/>
+      <c r="FP513" s="9"/>
+      <c r="FQ513" s="10"/>
+      <c r="FR513" s="9"/>
+      <c r="FS513" s="10"/>
+      <c r="FT513" s="9"/>
+      <c r="FU513" s="10"/>
+      <c r="FV513" s="9"/>
+      <c r="FW513" s="10"/>
+      <c r="FX513" s="9"/>
+      <c r="FY513" s="10"/>
+      <c r="FZ513" s="9"/>
+      <c r="GA513" s="10"/>
+      <c r="GB513" s="9"/>
+      <c r="GC513" s="10"/>
+      <c r="GD513" s="9"/>
+      <c r="GE513" s="10"/>
+      <c r="GF513" s="9"/>
+      <c r="GG513" s="10"/>
+      <c r="GH513" s="9"/>
+      <c r="GI513" s="10"/>
+      <c r="GJ513" s="9"/>
+      <c r="GK513" s="10"/>
+      <c r="GL513" s="9"/>
+      <c r="GM513" s="10"/>
+      <c r="GN513" s="9"/>
+      <c r="GO513" s="10"/>
+      <c r="GP513" s="9"/>
+      <c r="GQ513" s="10"/>
+      <c r="GR513" s="9"/>
+      <c r="GS513" s="10"/>
+      <c r="GT513" s="9"/>
+      <c r="GU513" s="10"/>
+      <c r="GV513" s="9"/>
+      <c r="GW513" s="10"/>
+      <c r="GX513" s="9"/>
+      <c r="GY513" s="10"/>
+      <c r="GZ513" s="9"/>
+      <c r="HA513" s="10"/>
+      <c r="HB513" s="9"/>
+      <c r="HC513" s="10"/>
+      <c r="HD513" s="9"/>
+      <c r="HE513" s="10"/>
+      <c r="HF513" s="9"/>
+      <c r="HG513" s="10"/>
+      <c r="HH513" s="9"/>
+      <c r="HI513" s="10"/>
+      <c r="HJ513" s="9"/>
+      <c r="HK513" s="10"/>
+      <c r="HL513" s="9"/>
+      <c r="HM513" s="10"/>
+      <c r="HN513" s="9"/>
+      <c r="HO513" s="10"/>
+      <c r="HP513" s="9"/>
+      <c r="HQ513" s="10"/>
+      <c r="HR513" s="9"/>
+      <c r="HS513" s="10"/>
+      <c r="HT513" s="9"/>
+      <c r="HU513" s="10"/>
+      <c r="HV513" s="9"/>
+      <c r="HW513" s="10"/>
+      <c r="HX513" s="9"/>
+      <c r="HY513" s="10"/>
+      <c r="HZ513" s="9"/>
+      <c r="IA513" s="10"/>
+      <c r="IB513" s="9"/>
+      <c r="IC513" s="10"/>
+      <c r="ID513" s="9"/>
+      <c r="IE513" s="10"/>
+      <c r="IF513" s="9"/>
+      <c r="IG513" s="10"/>
+      <c r="IH513" s="9"/>
+      <c r="II513" s="10"/>
+      <c r="IJ513" s="9"/>
+      <c r="IK513" s="10"/>
+      <c r="IL513" s="9"/>
+      <c r="IM513" s="10"/>
+      <c r="IN513" s="9"/>
+      <c r="IO513" s="10"/>
+      <c r="IP513" s="9"/>
+      <c r="IQ513" s="10"/>
+      <c r="IR513" s="9"/>
+      <c r="IS513" s="10"/>
+      <c r="IT513" s="9"/>
+      <c r="IU513" s="10"/>
+      <c r="IV513" s="9"/>
+      <c r="IW513" s="10"/>
+      <c r="IX513" s="9"/>
+      <c r="IY513" s="10"/>
+      <c r="IZ513" s="9"/>
+      <c r="JA513" s="10"/>
+      <c r="JB513" s="9"/>
+      <c r="JC513" s="10"/>
+      <c r="JD513" s="9"/>
+      <c r="JE513" s="10"/>
+      <c r="JF513" s="9"/>
+      <c r="JG513" s="10"/>
+      <c r="JH513" s="9"/>
+      <c r="JI513" s="10"/>
+      <c r="JJ513" s="9"/>
+      <c r="JK513" s="10"/>
+      <c r="JL513" s="9"/>
+      <c r="JM513" s="10"/>
+      <c r="JN513" s="9"/>
+      <c r="JO513" s="10"/>
+      <c r="JP513" s="9"/>
+      <c r="JQ513" s="10"/>
+      <c r="JR513" s="9"/>
+      <c r="JS513" s="10"/>
+      <c r="JT513" s="9"/>
+      <c r="JU513" s="10"/>
+      <c r="JV513" s="9"/>
+      <c r="JW513" s="10"/>
+      <c r="JX513" s="9"/>
+      <c r="JY513" s="10"/>
+      <c r="JZ513" s="9"/>
+      <c r="KA513" s="10"/>
+      <c r="KB513" s="9"/>
+      <c r="KC513" s="10"/>
+      <c r="KD513" s="9"/>
+      <c r="KE513" s="10"/>
+      <c r="KF513" s="9"/>
+      <c r="KG513" s="10"/>
+      <c r="KH513" s="9"/>
+      <c r="KI513" s="10"/>
+      <c r="KJ513" s="9"/>
+      <c r="KK513" s="10"/>
+      <c r="KL513" s="9"/>
+      <c r="KM513" s="10"/>
+      <c r="KN513" s="9"/>
+      <c r="KO513" s="10"/>
+      <c r="KP513" s="9"/>
+      <c r="KQ513" s="10"/>
+      <c r="KR513" s="9"/>
+      <c r="KS513" s="10"/>
+      <c r="KT513" s="9"/>
+      <c r="KU513" s="10"/>
+      <c r="KV513" s="9"/>
+      <c r="KW513" s="10"/>
+      <c r="KX513" s="9"/>
+      <c r="KY513" s="10"/>
+      <c r="KZ513" s="9"/>
+      <c r="LA513" s="10"/>
+      <c r="LB513" s="9"/>
+      <c r="LC513" s="10"/>
+      <c r="LD513" s="9"/>
+      <c r="LE513" s="10"/>
+      <c r="LF513" s="9"/>
+      <c r="LG513" s="10"/>
+      <c r="LH513" s="9"/>
+      <c r="LI513" s="10"/>
+      <c r="LJ513" s="9"/>
+      <c r="LK513" s="10"/>
+      <c r="LL513" s="9"/>
+      <c r="LM513" s="10"/>
+      <c r="LN513" s="9"/>
+      <c r="LO513" s="10"/>
+      <c r="LP513" s="9"/>
+      <c r="LQ513" s="10"/>
+      <c r="LR513" s="9"/>
+      <c r="LS513" s="10"/>
+      <c r="LT513" s="9"/>
+      <c r="LU513" s="10"/>
+      <c r="LV513" s="9"/>
+      <c r="LW513" s="10"/>
+      <c r="LX513" s="9"/>
+      <c r="LY513" s="10"/>
+      <c r="LZ513" s="9"/>
+      <c r="MA513" s="10"/>
+      <c r="MB513" s="9"/>
+      <c r="MC513" s="10"/>
+      <c r="MD513" s="9"/>
+      <c r="ME513" s="10"/>
+      <c r="MF513" s="9"/>
+      <c r="MG513" s="10"/>
+      <c r="MH513" s="9"/>
+      <c r="MI513" s="10"/>
+      <c r="MJ513" s="9"/>
+      <c r="MK513" s="10"/>
+      <c r="ML513" s="9"/>
+      <c r="MM513" s="10"/>
+      <c r="MN513" s="9"/>
+      <c r="MO513" s="10"/>
+      <c r="MP513" s="9"/>
+      <c r="MQ513" s="10"/>
+      <c r="MR513" s="9"/>
+      <c r="MS513" s="10"/>
+      <c r="MT513" s="9"/>
+      <c r="MU513" s="10"/>
+      <c r="MV513" s="9"/>
+      <c r="MW513" s="10"/>
+      <c r="MX513" s="9"/>
+      <c r="MY513" s="10"/>
+      <c r="MZ513" s="9"/>
+      <c r="NA513" s="10"/>
+      <c r="NB513" s="9"/>
+      <c r="NC513" s="10"/>
+      <c r="ND513" s="9"/>
+      <c r="NE513" s="10"/>
+      <c r="NF513" s="9"/>
+      <c r="NG513" s="10"/>
+      <c r="NH513" s="9"/>
+      <c r="NI513" s="10"/>
+      <c r="NJ513" s="9"/>
+      <c r="NK513" s="10"/>
+      <c r="NL513" s="9"/>
+      <c r="NM513" s="10"/>
+      <c r="NN513" s="9"/>
+      <c r="NO513" s="10"/>
+      <c r="NP513" s="9"/>
+      <c r="NQ513" s="10"/>
+      <c r="NR513" s="9"/>
+      <c r="NS513" s="10"/>
+      <c r="NT513" s="9"/>
+      <c r="NU513" s="10"/>
+      <c r="NV513" s="9"/>
+      <c r="NW513" s="10"/>
+      <c r="NX513" s="9"/>
+      <c r="NY513" s="10"/>
+      <c r="NZ513" s="9"/>
+      <c r="OA513" s="10"/>
+      <c r="OB513" s="9"/>
+      <c r="OC513" s="10"/>
+      <c r="OD513" s="9"/>
+      <c r="OE513" s="10"/>
+      <c r="OF513" s="9"/>
+      <c r="OG513" s="10"/>
+      <c r="OH513" s="9"/>
+      <c r="OI513" s="10"/>
+      <c r="OJ513" s="9"/>
+      <c r="OK513" s="10"/>
+      <c r="OL513" s="9"/>
+      <c r="OM513" s="10"/>
+      <c r="ON513" s="9"/>
+      <c r="OO513" s="10"/>
+      <c r="OP513" s="9"/>
+      <c r="OQ513" s="10"/>
+      <c r="OR513" s="9"/>
+      <c r="OS513" s="10"/>
+      <c r="OT513" s="9"/>
+      <c r="OU513" s="10"/>
+      <c r="OV513" s="9"/>
+      <c r="OW513" s="10"/>
+      <c r="OX513" s="9"/>
+      <c r="OY513" s="10"/>
+      <c r="OZ513" s="9"/>
+      <c r="PA513" s="10"/>
+      <c r="PB513" s="9"/>
+      <c r="PC513" s="10"/>
+      <c r="PD513" s="9"/>
+      <c r="PE513" s="10"/>
+      <c r="PF513" s="9"/>
+      <c r="PG513" s="10"/>
+      <c r="PH513" s="9"/>
+      <c r="PI513" s="10"/>
+      <c r="PJ513" s="9"/>
+      <c r="PK513" s="10"/>
+      <c r="PL513" s="9"/>
+      <c r="PM513" s="10"/>
+      <c r="PN513" s="9"/>
+      <c r="PO513" s="10"/>
+      <c r="PP513" s="9"/>
+      <c r="PQ513" s="10"/>
+      <c r="PR513" s="9"/>
+      <c r="PS513" s="10"/>
+      <c r="PT513" s="9"/>
+      <c r="PU513" s="10"/>
+      <c r="PV513" s="9"/>
+      <c r="PW513" s="10"/>
+      <c r="PX513" s="9"/>
+      <c r="PY513" s="10"/>
+      <c r="PZ513" s="9"/>
+      <c r="QA513" s="10"/>
+      <c r="QB513" s="9"/>
+      <c r="QC513" s="10"/>
+      <c r="QD513" s="9"/>
+      <c r="QE513" s="10"/>
+      <c r="QF513" s="9"/>
+      <c r="QG513" s="10"/>
+      <c r="QH513" s="9"/>
+      <c r="QI513" s="10"/>
+      <c r="QJ513" s="9"/>
+      <c r="QK513" s="10"/>
+      <c r="QL513" s="9"/>
+      <c r="QM513" s="10"/>
+      <c r="QN513" s="9"/>
+      <c r="QO513" s="10"/>
+      <c r="QP513" s="9"/>
+      <c r="QQ513" s="10"/>
+      <c r="QR513" s="9"/>
+      <c r="QS513" s="10"/>
+      <c r="QT513" s="9"/>
+      <c r="QU513" s="10"/>
+      <c r="QV513" s="9"/>
+      <c r="QW513" s="10"/>
+      <c r="QX513" s="9"/>
+      <c r="QY513" s="10"/>
+      <c r="QZ513" s="9"/>
+      <c r="RA513" s="10"/>
+      <c r="RB513" s="9"/>
+      <c r="RC513" s="10"/>
+      <c r="RD513" s="9"/>
+      <c r="RE513" s="10"/>
+      <c r="RF513" s="9"/>
+      <c r="RG513" s="10"/>
+      <c r="RH513" s="9"/>
+      <c r="RI513" s="10"/>
+      <c r="RJ513" s="9"/>
+      <c r="RK513" s="10"/>
+      <c r="RL513" s="9"/>
+      <c r="RM513" s="10"/>
+      <c r="RN513" s="9"/>
+      <c r="RO513" s="10"/>
+      <c r="RP513" s="9"/>
+      <c r="RQ513" s="10"/>
+      <c r="RR513" s="9"/>
+      <c r="RS513" s="10"/>
+      <c r="RT513" s="9"/>
+      <c r="RU513" s="10"/>
+      <c r="RV513" s="9"/>
+      <c r="RW513" s="10"/>
+      <c r="RX513" s="9"/>
+      <c r="RY513" s="10"/>
+      <c r="RZ513" s="9"/>
+      <c r="SA513" s="10"/>
+      <c r="SB513" s="9"/>
+      <c r="SC513" s="10"/>
+      <c r="SD513" s="9"/>
+      <c r="SE513" s="11"/>
+    </row>
+    <row r="521" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E521"/>
+      <c r="G521"/>
+      <c r="H521"/>
+      <c r="I521"/>
+      <c r="K521"/>
+    </row>
+    <row r="522" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E522"/>
+      <c r="G522"/>
+      <c r="H522"/>
+      <c r="I522"/>
+      <c r="K522"/>
+    </row>
+    <row r="523" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E523"/>
+      <c r="G523"/>
+      <c r="H523"/>
+      <c r="I523"/>
+      <c r="K523"/>
+    </row>
+    <row r="524" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E524"/>
+      <c r="G524"/>
+      <c r="H524"/>
+      <c r="I524"/>
+      <c r="K524"/>
+    </row>
+    <row r="525" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E525"/>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525"/>
+      <c r="K525"/>
+    </row>
+    <row r="526" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E526"/>
+      <c r="G526"/>
+      <c r="H526"/>
+      <c r="I526"/>
+      <c r="K526"/>
+    </row>
+    <row r="527" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E527"/>
+      <c r="G527"/>
+      <c r="H527"/>
+      <c r="I527"/>
+      <c r="K527"/>
+    </row>
+    <row r="528" spans="2:499" x14ac:dyDescent="0.3">
+      <c r="E528"/>
+      <c r="G528"/>
+      <c r="H528"/>
+      <c r="I528"/>
+      <c r="K528"/>
+    </row>
+    <row r="529" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E529"/>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529"/>
+      <c r="K529"/>
+    </row>
+    <row r="530" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E530"/>
+      <c r="G530"/>
+      <c r="H530"/>
+      <c r="I530"/>
+      <c r="K530"/>
+    </row>
+    <row r="531" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E531"/>
+      <c r="G531"/>
+    </row>
+    <row r="532" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E532"/>
+      <c r="G532"/>
+    </row>
+    <row r="533" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E533"/>
+      <c r="G533"/>
+    </row>
+    <row r="534" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E534"/>
+      <c r="G534"/>
+    </row>
+    <row r="535" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E535"/>
+      <c r="G535"/>
+    </row>
+    <row r="536" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E536"/>
+      <c r="G536"/>
+    </row>
+    <row r="537" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E537"/>
+      <c r="G537"/>
+    </row>
+    <row r="538" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E538"/>
+      <c r="G538"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57846,7 +64992,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58062,8 +65208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB971FC3-37E4-4473-BE72-831CFD6103DC}">
   <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58165,14 +65311,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803E057B-2FFD-452E-9801-D0EF6EE0D059}">
   <dimension ref="A2:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -58736,13 +65882,18 @@
         <v>29655916</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>A19</f>
         <v>Oficinas Centrales</v>
       </c>
       <c r="B28">
-        <f>GETPIVOTDATA("Suma de todos los Servicios",$A$9,"Oficina Representación","Oficinas Centrales")</f>
+        <f ca="1">INDIRECT(B25)</f>
         <v>12806883</v>
       </c>
     </row>
@@ -59138,7 +66289,7 @@
         <v>2824608</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>45</v>
       </c>
@@ -59146,15 +66297,19 @@
         <v>2908515</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="2">
         <v>12806883</v>
       </c>
+      <c r="E82">
+        <f>GETPIVOTDATA("Suma de todos los Servicios",$A$33,"Oficina Representación","Oficinas Centrales")</f>
+        <v>12806883</v>
+      </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>60</v>
       </c>
@@ -59177,362 +66332,16 @@
   <dimension ref="A7:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="36" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="36" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="36" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="36" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="36" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="36" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="36" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="36" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="36" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="36" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="144" max="145" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="36" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="36" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="36" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="36" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="176" max="177" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="36" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="184" max="185" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="36" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="192" max="193" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="36" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="200" max="201" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="36" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="208" max="209" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="36" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="216" max="217" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="36" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="224" max="225" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="36" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="232" max="233" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="36" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="240" max="241" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="36" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="36" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="256" max="257" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="36" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="36" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="272" max="273" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="36" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="36" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="288" max="289" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="36" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="296" max="297" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="36" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="304" max="305" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="36" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="312" max="313" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="36" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="320" max="321" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="36" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="328" max="329" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="36" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="336" max="337" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="36" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="344" max="345" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="36" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="352" max="353" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="36" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="360" max="361" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="36" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="368" max="369" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="36" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="376" max="377" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="36" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="384" max="385" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="36" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="392" max="393" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="43" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="42" bestFit="1" customWidth="1"/>
-    <col min="400" max="401" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="441" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -59638,7 +66447,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59653,12 +66462,19 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0C839-A91E-4C50-BC12-35A226CC5AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6A3BD-4969-4520-98CC-E729C3505218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -452,7 +452,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +644,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAF0F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -844,6 +850,7 @@
     <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,6 +938,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF90E0EF"/>
+      <color rgb="FF03045E"/>
+      <color rgb="FF0077B6"/>
+      <color rgb="FFCAF0F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -24405,6 +24420,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24465,6 +24486,16 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24525,6 +24556,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24585,6 +24622,16 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24645,6 +24692,16 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24705,6 +24762,16 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24917,6 +24984,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24977,6 +25050,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24999,7 +25078,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="90E0EF"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25037,6 +25120,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -25097,6 +25186,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="90E0EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -25133,8 +25228,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -25152,20 +25247,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="121920" y="220980"/>
-          <a:ext cx="17297400" cy="533400"/>
+          <a:ext cx="14287500" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25189,6 +25278,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="es-MX" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -25231,182 +25323,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1800" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Total</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> de servicios</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1800" b="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'Ranking de Servicios'!E16">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CuadroTexto 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60A494A-2C76-4E7F-913F-44F36029D2C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4610100" y="1234440"/>
-          <a:ext cx="1310640" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{73561CD5-4F8D-4C7E-B681-88707DD3FB18}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>56915689</a:t>
-          </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1800" b="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CuadroTexto 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F4D61A-C99E-46F7-93DB-6D7FA2BF4BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6979920" y="1013460"/>
-          <a:ext cx="3048000" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25430,11 +25349,31 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Delegación con más servicios</a:t>
+            <a:t>Total</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> de servicios</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="03045E"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25442,23 +25381,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34312</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'Ranking de delegaciones'!B28">
+    <xdr:sp macro="" textlink="'Ranking de Servicios'!E16">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CuadroTexto 20">
+        <xdr:cNvPr id="19" name="CuadroTexto 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CE04F0-7C81-42F8-8CC6-C14EF35FA01A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60A494A-2C76-4E7F-913F-44F36029D2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25466,21 +25405,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8751592" y="1219200"/>
-          <a:ext cx="1543028" cy="502920"/>
+          <a:off x="4511040" y="1249680"/>
+          <a:ext cx="1310640" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25502,21 +25435,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{50E00774-0124-44E7-BA7E-4D5884A39B98}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+          <a:fld id="{73561CD5-4F8D-4C7E-B681-88707DD3FB18}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12806883</a:t>
+            <a:t>56915689</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+          <a:endParaRPr lang="es-MX" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
@@ -25527,22 +25461,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590836</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'Ranking de delegaciones'!A28">
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CuadroTexto 21">
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F3BE94-4320-4318-8306-014D35B353FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F4D61A-C99E-46F7-93DB-6D7FA2BF4BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25550,179 +25484,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6930676" y="1211580"/>
-          <a:ext cx="1649444" cy="502920"/>
+          <a:off x="7025640" y="975360"/>
+          <a:ext cx="3048000" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{602BAB72-648C-40A5-8F51-EC6F8C7E9110}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Oficinas Centrales</a:t>
-          </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>375802</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175259</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CuadroTexto 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6571C-2D19-496C-81DB-73A7AA499C47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8300602" y="1295400"/>
-          <a:ext cx="591937" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1000" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>con</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CuadroTexto 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1BFC0D-52CB-4D8D-9C10-4E75CDD7F142}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10317480" y="975360"/>
-          <a:ext cx="3025140" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25746,10 +25516,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Delegación con menos servicios</a:t>
+            <a:t>Delegación con más servicios</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -25758,23 +25531,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>735352</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'Ranking de delegaciones'!E34">
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!B28">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CuadroTexto 24">
+        <xdr:cNvPr id="21" name="CuadroTexto 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01826767-4494-4D18-AA61-48681B6CB96F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CE04F0-7C81-42F8-8CC6-C14EF35FA01A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25782,21 +25555,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12115800" y="1211580"/>
-          <a:ext cx="1767840" cy="502920"/>
+          <a:off x="8660152" y="1120140"/>
+          <a:ext cx="1543028" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25818,19 +25585,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{DD357D03-2B5F-443E-87A0-7A65FB514219}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+          <a:fld id="{50E00774-0124-44E7-BA7E-4D5884A39B98}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>55249</a:t>
+            <a:t>12806883</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -25842,23 +25612,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>758476</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'Ranking de delegaciones'!D34">
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!A28">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CuadroTexto 25">
+        <xdr:cNvPr id="22" name="CuadroTexto 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84265A11-659A-42ED-ACF0-D1042A9CA41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F3BE94-4320-4318-8306-014D35B353FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25866,21 +25636,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9913620" y="1211580"/>
-          <a:ext cx="1889760" cy="502920"/>
+          <a:off x="7098316" y="1120140"/>
+          <a:ext cx="1649444" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25902,19 +25666,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{17289592-5ED0-463A-8B4B-5C77C9640804}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+          <a:fld id="{602BAB72-648C-40A5-8F51-EC6F8C7E9110}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Regional Oriente</a:t>
+            <a:t>Oficinas Centrales</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -25926,23 +25693,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>612022</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411479</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26">
+        <xdr:cNvPr id="23" name="CuadroTexto 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA25C03-34B7-4845-A16D-EB6F83A13937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6571C-2D19-496C-81DB-73A7AA499C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25950,21 +25717,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11681460" y="1272540"/>
-          <a:ext cx="678180" cy="381000"/>
+          <a:off x="8536822" y="1173480"/>
+          <a:ext cx="591937" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -25987,7 +25748,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-MX" sz="1000" b="1">
+            <a:rPr lang="es-MX" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0077B6"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -26000,23 +25764,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CuadroTexto 27">
+        <xdr:cNvPr id="24" name="CuadroTexto 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C77B70-CE1B-4994-8EC1-A627F8DE3B9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1BFC0D-52CB-4D8D-9C10-4E75CDD7F142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26024,21 +25788,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12938760" y="1043940"/>
-          <a:ext cx="3954780" cy="312420"/>
+          <a:off x="10347960" y="1005840"/>
+          <a:ext cx="2964180" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -26062,6 +25820,313 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Delegación con menos servicios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!E34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CuadroTexto 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01826767-4494-4D18-AA61-48681B6CB96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11871960" y="1135380"/>
+          <a:ext cx="1767840" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DD357D03-2B5F-443E-87A0-7A65FB514219}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0077B6"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>55249</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Ranking de delegaciones'!D34">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CuadroTexto 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84265A11-659A-42ED-ACF0-D1042A9CA41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187940" y="1135380"/>
+          <a:ext cx="1889760" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{17289592-5ED0-463A-8B4B-5C77C9640804}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0077B6"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Regional Oriente</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA25C03-34B7-4845-A16D-EB6F83A13937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="1188720"/>
+          <a:ext cx="678180" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0077B6"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>con</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CuadroTexto 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C77B70-CE1B-4994-8EC1-A627F8DE3B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13022580" y="1021080"/>
+          <a:ext cx="3954780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -26069,12 +26134,18 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="03045E"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> más solicitado</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="03045E"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -26086,15 +26157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Ranking de Servicios'!E8">
       <xdr:nvSpPr>
@@ -26109,21 +26180,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15262860" y="1211580"/>
-          <a:ext cx="1767840" cy="502920"/>
+          <a:off x="15476220" y="1165860"/>
+          <a:ext cx="1082040" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -26146,9 +26211,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{FF2905A7-DF8B-43B9-9F6F-A1049135B0A5}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -26157,7 +26222,10 @@
             <a:pPr algn="ctr"/>
             <a:t>36375442</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -26169,16 +26237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Ranking de Servicios'!D8">
       <xdr:nvSpPr>
@@ -26193,21 +26261,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13091160" y="1211580"/>
-          <a:ext cx="1889760" cy="502920"/>
+          <a:off x="13647420" y="1158240"/>
+          <a:ext cx="1722120" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -26230,9 +26292,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{606645CA-79C5-4D31-B82D-489E6831CDAC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -26241,7 +26303,10 @@
             <a:pPr algn="ctr"/>
             <a:t>Serv. Culturales Derecho Hab Publ</a:t>
           </a:fld>
-          <a:endParaRPr lang="es-MX" sz="1000" b="1">
+          <a:endParaRPr lang="es-MX" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0077B6"/>
+            </a:solidFill>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -26253,16 +26318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>630358</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26277,21 +26342,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14889480" y="1280160"/>
-          <a:ext cx="678180" cy="381000"/>
+          <a:off x="15102840" y="1211580"/>
+          <a:ext cx="584638" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -26314,7 +26373,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-MX" sz="1000" b="1">
+            <a:rPr lang="es-MX" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0077B6"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -40590,7 +40652,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" startItem="13" rowHeight="234950"/>
-  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="6" rowHeight="234950"/>
+  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="5" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -65208,7 +65270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB971FC3-37E4-4473-BE72-831CFD6103DC}">
   <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -66459,14 +66521,4063 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2626B9-BEDB-407F-B6C7-68E4D543C3D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12"/>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="12"/>
+      <c r="AN79" s="12"/>
+      <c r="AO79" s="12"/>
+      <c r="AP79" s="12"/>
+      <c r="AQ79" s="12"/>
+      <c r="AR79" s="12"/>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="12"/>
+      <c r="AM87" s="12"/>
+      <c r="AN87" s="12"/>
+      <c r="AO87" s="12"/>
+      <c r="AP87" s="12"/>
+      <c r="AQ87" s="12"/>
+      <c r="AR87" s="12"/>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="12"/>
+      <c r="AM88" s="12"/>
+      <c r="AN88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AQ88" s="12"/>
+      <c r="AR88" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6A3BD-4969-4520-98CC-E729C3505218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0B8F1-6CE9-4DC1-8609-74A79523A023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -940,9 +940,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00B4D8"/>
+      <color rgb="FF0077B6"/>
       <color rgb="FF90E0EF"/>
       <color rgb="FF03045E"/>
-      <color rgb="FF0077B6"/>
       <color rgb="FFCAF0F8"/>
     </mruColors>
   </colors>
@@ -11147,7 +11148,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0077B6"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -11158,7 +11159,7 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B4D8"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
@@ -11184,16 +11185,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="es-MX"/>
@@ -13058,7 +13059,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0077B6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13069,7 +13070,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B4D8"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -13094,16 +13095,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="es-MX"/>
@@ -13282,16 +13283,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
@@ -13315,9 +13316,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -13341,16 +13341,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
@@ -13368,37 +13368,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -13411,16 +13380,9 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -24802,16 +24764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569594</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>5714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35794,7 +35756,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F62BD48-AAC3-4695-8D01-0E115DAB1328}" name="ServiciosDeportivosPorAño" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Años" colHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:B21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -37135,7 +37097,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925D5B79-7889-4349-AA7F-C5C2592F1090}" name="ComparaciónEntreServiciosCulturalesVsDeportivosVsSociales" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A6:I7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0">
@@ -66524,7 +66486,7 @@
   <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0B8F1-6CE9-4DC1-8609-74A79523A023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC6CE1-6627-48F2-B58F-2AEE7D080E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -940,11 +940,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCAF0F8"/>
+      <color rgb="FF03045E"/>
+      <color rgb="FF0077B6"/>
       <color rgb="FF00B4D8"/>
-      <color rgb="FF0077B6"/>
       <color rgb="FF90E0EF"/>
-      <color rgb="FF03045E"/>
-      <color rgb="FFCAF0F8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -11187,10 +11187,7 @@
               <a:pPr>
                 <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -13097,10 +13094,7 @@
                 <a:pPr>
                   <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13285,10 +13279,7 @@
             <a:pPr>
               <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13343,10 +13334,7 @@
             <a:pPr>
               <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -16307,16 +16295,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="es-MX"/>
@@ -16446,7 +16431,7 @@
         <c:idx val="32"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="CAF0F8"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -16668,9 +16653,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="CAF0F8"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16698,16 +16681,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="es-MX"/>
@@ -16866,16 +16846,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
@@ -16923,16 +16900,9 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -24841,15 +24811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37650,7 +37620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Nombre Oficina Representación">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97A441A6-56C0-4FFA-911D-41686AFDD066}" name="RankingDeDelegaciones" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Nombre Oficina Representación">
   <location ref="A9:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0">
@@ -66486,7 +66456,7 @@
   <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7372C4-4BB0-43DA-A8E6-766A0E2F2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD7922-C91B-4223-8086-0B032F87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="2" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,7 +895,45 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="11"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor rgb="FF90E0EF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF90E0EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -936,19 +974,152 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="1" xr9:uid="{04E74823-5D2C-400C-947C-9D106FE661C9}">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="1" xr9:uid="{9C4A7FAD-D90B-4111-B5BD-0AF484B2DE7C}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="Estilo de segmentación de datos 3" pivot="0" table="0" count="4" xr9:uid="{0139C86D-A396-4C00-87B8-19021044F397}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF0077B6"/>
+      <color rgb="FF90E0EF"/>
+      <color rgb="FF03045E"/>
       <color rgb="FFCAF0F8"/>
-      <color rgb="FF03045E"/>
-      <color rgb="FF0077B6"/>
       <color rgb="FF00B4D8"/>
-      <color rgb="FF90E0EF"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="14">
+        <dxf>
+          <border>
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="11"/>
+            <color theme="0"/>
+            <name val="Arial"/>
+            <family val="2"/>
+            <scheme val="none"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF0077B6"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+            <vertical style="thin">
+              <color auto="1"/>
+            </vertical>
+            <horizontal style="thin">
+              <color auto="1"/>
+            </horizontal>
+          </border>
+        </dxf>
+        <dxf/>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="11"/>
+            <color theme="0"/>
+            <name val="Arial"/>
+            <family val="2"/>
+            <scheme val="none"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF0077B6"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf/>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="11"/>
+            <color theme="0"/>
+            <name val="Arial"/>
+            <family val="2"/>
+            <scheme val="none"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF0077B6"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf/>
+        <dxf>
+          <font>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF0077B6"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF0077B6"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf/>
+        <dxf/>
+        <dxf/>
+        <dxf/>
+        <dxf/>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="Estilo de segmentación de datos 1"/>
+        <x14:slicerStyle name="Estilo de segmentación de datos 2"/>
+        <x14:slicerStyle name="Estilo de segmentación de datos 3">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -24511,13 +24682,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
+      <xdr:colOff>214206</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -24534,8 +24705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1131147"/>
-          <a:ext cx="2385906" cy="6161193"/>
+          <a:off x="205740" y="1684020"/>
+          <a:ext cx="2385906" cy="5608320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -24544,8 +24715,17 @@
           <a:srgbClr val="90E0EF"/>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="03045E"/>
+          </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -26374,18 +26554,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="33" name="Oficina Representación">
@@ -26408,7 +26588,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -26418,8 +26598,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="220980" y="1348740"/>
-              <a:ext cx="1828800" cy="2466975"/>
+              <a:off x="289560" y="1836420"/>
+              <a:ext cx="2217420" cy="3154680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26452,18 +26632,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="34" name="Año">
@@ -26486,7 +26666,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -26496,8 +26676,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="274320" y="3931920"/>
-              <a:ext cx="1828800" cy="2466975"/>
+              <a:off x="396240" y="5006341"/>
+              <a:ext cx="2004060" cy="2217419"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -40951,8 +41131,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" startItem="13" rowHeight="234950"/>
-  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="5" rowHeight="234950"/>
+  <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" startItem="8" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="234950"/>
+  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="2" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -40963,18 +41143,18 @@
     <sortCondition descending="1" ref="L1:L495"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E00903E2-5B95-4A2E-B89D-5B0052D7F544}" name="Año" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{6015B546-CCE8-49F7-AD82-A56721BEB06D}" name="Oficina Representación"/>
-    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{859920B6-B83D-4724-917B-E5C66D0C0364}" name="Suma de todos los Servicios" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{6C24FA5D-647C-4DF8-A6EA-66A6E6528CE5}" name="Serv. Culturales Derecho Hab Publ" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5625FA80-061B-464D-B123-C974C04DA294}" name="Serv. Deportivos Derecho Hab Publ" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{24DE0E05-24AF-4FCC-9633-B84A75B97D9A}" name="Serv. Sociales Derecho Hab Publ" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2AC1C74A-7627-48C3-AC0B-15FBB8351EE0}" name="Serv. Funerarios Derecho Hab Publ" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3E1E2BD6-8333-4561-B9F1-248EFBB7920E}" name="Serv. Sociales Pensionados Jubl" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{2AC1B96B-1C99-43AF-AFED-47F1F4C408FD}" name="Fome Deportivo Pensionados Jubl" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{E70B6682-15CA-4E92-BD60-818587E36A59}" name="Serv. Culturales Pensionados Jubl" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{08067B72-2814-4712-B380-BB03A667992C}" name="Soci Comedores Pensionados Jubl" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{230A8DA6-C4FF-44BE-9A39-A60006ECF43E}" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{859920B6-B83D-4724-917B-E5C66D0C0364}" name="Suma de todos los Servicios" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabla1[[#This Row],[Serv. Culturales Derecho Hab Publ]:[Soci Comedores Pensionados Jubl]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -40986,8 +41166,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{943BA7B8-89FD-4590-985A-D669DB928326}" name="Tabla3" displayName="Tabla3" ref="B505:C513" totalsRowShown="0">
   <autoFilter ref="B505:C513" xr:uid="{943BA7B8-89FD-4590-985A-D669DB928326}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{52308A83-3E58-4597-85E5-390E9550E560}" name="Nombre Servicio" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DDDD0592-6492-4A2A-BC52-9B55A82E2E0F}" name="Total de cada servicio" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{52308A83-3E58-4597-85E5-390E9550E560}" name="Nombre Servicio" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DDDD0592-6492-4A2A-BC52-9B55A82E2E0F}" name="Total de cada servicio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -66806,7 +66986,7 @@
   <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard/Dashboard.xlsx
+++ b/Dashboard/Dashboard.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Data Scientist\Portafolio\servicios_cul_soci_depor_recre\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD7922-C91B-4223-8086-0B032F87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8198ECE-20DA-4B59-8207-0AA36F820FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="2" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{0F6DE12B-782F-43E4-BCEE-D62EF1718F31}"/>
   </bookViews>
   <sheets>
     <sheet name="servicios_cult_soc_dep_rec_isss" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="14">
+      <x14:dxfs count="2">
         <dxf>
           <border>
             <left style="thin">
@@ -1050,63 +1050,6 @@
             </horizontal>
           </border>
         </dxf>
-        <dxf/>
-        <dxf>
-          <font>
-            <b val="0"/>
-            <i val="0"/>
-            <sz val="11"/>
-            <color theme="0"/>
-            <name val="Arial"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF0077B6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf/>
-        <dxf>
-          <font>
-            <b val="0"/>
-            <i val="0"/>
-            <sz val="11"/>
-            <color theme="0"/>
-            <name val="Arial"/>
-            <family val="2"/>
-            <scheme val="none"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF0077B6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf/>
-        <dxf>
-          <font>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF0077B6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF0077B6"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf/>
-        <dxf/>
-        <dxf/>
-        <dxf/>
-        <dxf/>
       </x14:dxfs>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4495,7 +4438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4578,43 +4521,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>79355</c:v>
+                  <c:v>63099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70442</c:v>
+                  <c:v>63296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71296</c:v>
+                  <c:v>64023</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72504</c:v>
+                  <c:v>44394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72045</c:v>
+                  <c:v>46664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72759</c:v>
+                  <c:v>39688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15133</c:v>
+                  <c:v>5275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>884</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>626</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>638</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5368,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5437,7 +5380,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>840418</c:v>
+                  <c:v>37452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,7 +5479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5548,7 +5491,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>456690</c:v>
+                  <c:v>46664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5647,7 +5590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5659,7 +5602,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,7 +5701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5770,7 +5713,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1038</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5869,7 +5812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5881,7 +5824,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22652</c:v>
+                  <c:v>4111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5980,7 +5923,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5992,7 +5935,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19799</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6093,7 +6036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6105,7 +6048,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55410</c:v>
+                  <c:v>18098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6206,7 +6149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6937,31 +6880,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Nuevo León</c:v>
+                  <c:v>Coahuila</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Coahuila</c:v>
+                  <c:v>Hidalgo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Delegación Sur</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Yucatán</c:v>
+                  <c:v>Zacatecas</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Zacatecas</c:v>
+                  <c:v>Delegación Norte</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>México</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Delegación Poniente</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>San Luis Potosí</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Oaxaca</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Áreas Centrales</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Oficinas Centrales</c:v>
@@ -6976,34 +6919,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1151362</c:v>
+                  <c:v>223652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1329318</c:v>
+                  <c:v>225894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1396246</c:v>
+                  <c:v>236430</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1544155</c:v>
+                  <c:v>256818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1700361</c:v>
+                  <c:v>289376</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1853200</c:v>
+                  <c:v>298452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2141268</c:v>
+                  <c:v>313541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2824608</c:v>
+                  <c:v>316814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2908515</c:v>
+                  <c:v>459232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12806883</c:v>
+                  <c:v>1888180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13218,7 +13161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13356,43 +13299,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>79355</c:v>
+                  <c:v>63099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70442</c:v>
+                  <c:v>63296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71296</c:v>
+                  <c:v>64023</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72504</c:v>
+                  <c:v>44394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72045</c:v>
+                  <c:v>46664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72759</c:v>
+                  <c:v>39688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15133</c:v>
+                  <c:v>5275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>884</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>626</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>638</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15073,7 +15016,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15085,7 +15028,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>840418</c:v>
+                  <c:v>37452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15184,7 +15127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15196,7 +15139,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>456690</c:v>
+                  <c:v>46664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15295,7 +15238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15307,7 +15250,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15408,7 +15351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15420,7 +15363,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1038</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15521,7 +15464,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15533,7 +15476,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22652</c:v>
+                  <c:v>4111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15634,7 +15577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15646,7 +15589,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19799</c:v>
+                  <c:v>3037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15748,7 +15691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15760,7 +15703,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55410</c:v>
+                  <c:v>18098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15862,7 +15805,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Guanajuato</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16891,31 +16834,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Nuevo León</c:v>
+                  <c:v>Coahuila</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Coahuila</c:v>
+                  <c:v>Hidalgo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hidalgo</c:v>
+                  <c:v>Delegación Sur</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Yucatán</c:v>
+                  <c:v>Zacatecas</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Zacatecas</c:v>
+                  <c:v>Delegación Norte</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>México</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Delegación Poniente</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>San Luis Potosí</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Oaxaca</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Áreas Centrales</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Oficinas Centrales</c:v>
@@ -16930,34 +16873,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1151362</c:v>
+                  <c:v>223652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1329318</c:v>
+                  <c:v>225894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1396246</c:v>
+                  <c:v>236430</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1544155</c:v>
+                  <c:v>256818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1700361</c:v>
+                  <c:v>289376</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1853200</c:v>
+                  <c:v>298452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2141268</c:v>
+                  <c:v>313541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2824608</c:v>
+                  <c:v>316814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2908515</c:v>
+                  <c:v>459232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12806883</c:v>
+                  <c:v>1888180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24052,7 +23995,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12806883</a:t>
+            <a:t>1888180</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="1400" b="1">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -25759,7 +25702,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12806883</a:t>
+            <a:t>1888180</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="1200" b="1">
             <a:solidFill>
@@ -26554,15 +26497,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -26575,7 +26518,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -26598,8 +26543,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="289560" y="1836420"/>
-              <a:ext cx="2217420" cy="3154680"/>
+              <a:off x="281940" y="1831041"/>
+              <a:ext cx="2206662" cy="3093720"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26627,7 +26572,7 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26653,7 +26598,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -26676,8 +26623,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="396240" y="5006341"/>
-              <a:ext cx="2004060" cy="2217419"/>
+              <a:off x="396240" y="4909522"/>
+              <a:ext cx="1993302" cy="2174389"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26705,7 +26652,7 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36314,9 +36261,9 @@
         <item h="1" x="48"/>
         <item h="1" x="46"/>
         <item h="1" x="8"/>
-        <item h="1" x="9"/>
+        <item x="9"/>
         <item h="1" x="10"/>
-        <item x="11"/>
+        <item h="1" x="11"/>
         <item h="1" x="37"/>
         <item h="1" x="12"/>
         <item h="1" x="13"/>
@@ -36412,7 +36359,7 @@
   </colFields>
   <colItems count="1">
     <i>
-      <x v="19"/>
+      <x v="17"/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -37620,19 +37567,19 @@
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0">
       <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -37655,9 +37602,9 @@
         <item h="1" x="48"/>
         <item h="1" x="46"/>
         <item h="1" x="8"/>
-        <item h="1" x="9"/>
+        <item x="9"/>
         <item h="1" x="10"/>
-        <item x="11"/>
+        <item h="1" x="11"/>
         <item h="1" x="37"/>
         <item h="1" x="12"/>
         <item h="1" x="13"/>
@@ -37706,7 +37653,7 @@
   </rowFields>
   <rowItems count="1">
     <i>
-      <x v="19"/>
+      <x v="17"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -37921,19 +37868,19 @@
   <pivotFields count="12">
     <pivotField numFmtId="1" showAll="0">
       <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -40175,31 +40122,31 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x v="26"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="48"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="28"/>
@@ -41063,9 +41010,9 @@
         <i x="48"/>
         <i x="46"/>
         <i x="8"/>
-        <i x="9"/>
+        <i x="9" s="1"/>
         <i x="10"/>
-        <i x="11" s="1"/>
+        <i x="11"/>
         <i x="37"/>
         <i x="12"/>
         <i x="13"/>
@@ -41110,19 +41057,19 @@
   <data>
     <tabular pivotCacheId="747248475">
       <items count="13">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
         <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
-        <i x="10" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12"/>
       </items>
     </tabular>
   </data>
@@ -41131,8 +41078,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" startItem="8" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="234950"/>
-  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" startItem="2" columnCount="2" style="Estilo de segmentación de datos 3" rowHeight="234950"/>
+  <slicer name="Oficina Representación" xr10:uid="{0C780604-6BF9-43A0-ABB5-6ACF2D70C2C7}" cache="SegmentaciónDeDatos_Oficina_Representación" caption="Oficina Representación" columnCount="2" style="Estilo de segmentación de datos 3" lockedPosition="1" rowHeight="234950"/>
+  <slicer name="Año" xr10:uid="{0E312A47-3608-45BD-9A90-F091450EC507}" cache="SegmentaciónDeDatos_Año" caption="Año" columnCount="2" style="Estilo de segmentación de datos 3" lockedPosition="1" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -41470,6 +41417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F449743-C6BA-4379-8C03-655115C7A180}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:SE538"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
@@ -65513,6 +65461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56573DCE-1102-4670-B2C5-59B84C64109B}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
@@ -65594,7 +65543,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -65602,7 +65551,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="2">
-        <v>79355</v>
+        <v>63099</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -65610,7 +65559,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="2">
-        <v>70442</v>
+        <v>63296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -65618,7 +65567,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="2">
-        <v>71296</v>
+        <v>64023</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -65634,7 +65583,7 @@
         <v>2017</v>
       </c>
       <c r="B12" s="2">
-        <v>72504</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -65642,7 +65591,7 @@
         <v>2018</v>
       </c>
       <c r="B13" s="2">
-        <v>72045</v>
+        <v>46664</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -65650,7 +65599,7 @@
         <v>2019</v>
       </c>
       <c r="B14" s="2">
-        <v>72759</v>
+        <v>39688</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -65658,7 +65607,7 @@
         <v>2020</v>
       </c>
       <c r="B15" s="2">
-        <v>15133</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -65666,7 +65615,7 @@
         <v>2021</v>
       </c>
       <c r="B16" s="2">
-        <v>884</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -65674,7 +65623,7 @@
         <v>2022</v>
       </c>
       <c r="B17" s="2">
-        <v>626</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -65682,7 +65631,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="2">
-        <v>638</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -65690,7 +65639,7 @@
         <v>2024</v>
       </c>
       <c r="B19" s="2">
-        <v>756</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -65698,7 +65647,7 @@
         <v>2025</v>
       </c>
       <c r="B20" s="2">
-        <v>252</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -65706,7 +65655,7 @@
         <v>60</v>
       </c>
       <c r="B21" s="2">
-        <v>456690</v>
+        <v>328744</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.2" x14ac:dyDescent="0.5">
@@ -65730,6 +65679,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB971FC3-37E4-4473-BE72-831CFD6103DC}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
@@ -65787,28 +65737,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>840418</v>
+        <v>37452</v>
       </c>
       <c r="C7" s="2">
-        <v>456690</v>
+        <v>46664</v>
       </c>
       <c r="D7" s="2">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1038</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2">
-        <v>22652</v>
+        <v>4111</v>
       </c>
       <c r="G7" s="2">
-        <v>19799</v>
+        <v>3037</v>
       </c>
       <c r="H7" s="2">
-        <v>55410</v>
+        <v>18098</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -65833,6 +65783,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803E057B-2FFD-452E-9801-D0EF6EE0D059}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
@@ -66320,42 +66271,42 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>1151362</v>
+        <v>223652</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1329318</v>
+        <v>225894</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2">
-        <v>1396246</v>
+        <v>236430</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>1544155</v>
+        <v>256818</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>1700361</v>
+        <v>289376</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -66363,31 +66314,31 @@
         <v>46</v>
       </c>
       <c r="B15" s="2">
-        <v>1853200</v>
+        <v>298452</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2">
-        <v>2141268</v>
+        <v>313541</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
-        <v>2824608</v>
+        <v>316814</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>2908515</v>
+        <v>459232</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -66395,7 +66346,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>12806883</v>
+        <v>1888180</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -66403,7 +66354,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="2">
-        <v>29655916</v>
+        <v>4508389</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -66418,7 +66369,7 @@
       </c>
       <c r="B28">
         <f ca="1">INDIRECT(B25)</f>
-        <v>12806883</v>
+        <v>1888180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -66853,6 +66804,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFD455-FE5D-4DB9-B672-24C684C812DC}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A7:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -66968,6 +66920,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E4A35B-1DEE-4E63-B176-45BEFEC88566}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -66983,11 +66936,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2626B9-BEDB-407F-B6C7-68E4D543C3D7}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AR88"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -71040,6 +70992,7 @@
       <c r="AR88" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
